--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D6209-69FB-4F31-A813-3E4792E0F698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587320EC-D564-464D-948E-4CFDE5EA7237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -710,14 +710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="B2:R36"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -725,7 +726,7 @@
     <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
@@ -751,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
@@ -777,7 +778,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
@@ -801,7 +802,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D5" s="23"/>
       <c r="E5" s="17" t="s">
         <v>11</v>
@@ -823,7 +824,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D6" s="23"/>
       <c r="E6" s="17" t="s">
         <v>12</v>
@@ -845,7 +846,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D7" s="12"/>
       <c r="E7" s="17" t="s">
         <v>16</v>
@@ -879,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -897,7 +898,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -921,14 +922,8 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -950,14 +945,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="Q11">
-        <v>90</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E12" s="20"/>
       <c r="F12" s="2">
         <v>709</v>
@@ -972,14 +961,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="Q12">
-        <v>900</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E13" s="20"/>
       <c r="F13" s="2">
         <v>804</v>
@@ -994,14 +977,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="Q13">
-        <v>9000</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" s="20"/>
       <c r="F14" s="2">
         <v>929</v>
@@ -1016,14 +993,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="Q14">
-        <v>90000</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E15" s="20"/>
       <c r="F15" s="2">
         <v>905</v>
@@ -1039,7 +1010,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E16" s="20"/>
       <c r="F16" s="2">
         <v>977</v>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587320EC-D564-464D-948E-4CFDE5EA7237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB7D75B-6DCE-41B6-9778-CDF633A3B9C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" s="18">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="2"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="C10" s="1">
         <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>10</v>
@@ -1130,7 +1130,9 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>701</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
@@ -1258,7 +1260,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F7 G7:L7" formulaRange="1"/>
+    <ignoredError sqref="F7 G7:L7 H4" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB7D75B-6DCE-41B6-9778-CDF633A3B9C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572596DE-9228-4D09-B228-071916A826D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -84,13 +81,28 @@
   </si>
   <si>
     <t>Prob ID</t>
+  </si>
+  <si>
+    <t>Contest</t>
+  </si>
+  <si>
+    <t>LeetCode Contest</t>
+  </si>
+  <si>
+    <t>133 - 21/4/2019</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +119,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +173,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB44742"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -174,8 +189,55 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -334,15 +396,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -350,56 +506,119 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB44742"/>
       <color rgb="FFC4934C"/>
-      <color rgb="FFB44742"/>
+      <color rgb="FFA50021"/>
       <color rgb="FF55211F"/>
-      <color rgb="FFA50021"/>
     </mruColors>
   </colors>
   <extLst>
@@ -710,15 +929,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="B2:L36"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -726,541 +945,776 @@
     <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="15" t="s">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="D3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="13" t="s">
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="9">
+        <v>43572</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43573</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43574</v>
+      </c>
+      <c r="J4" s="9">
+        <v>43575</v>
+      </c>
+      <c r="K4" s="9">
+        <v>43576</v>
+      </c>
+      <c r="L4" s="9">
+        <v>43577</v>
+      </c>
+      <c r="M4" s="9">
+        <v>43578</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="33">
+        <f>COUNT(G11:G25)</f>
+        <v>14</v>
+      </c>
+      <c r="H5" s="33">
+        <f>COUNT(H11:H25)</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="33">
+        <f>COUNT(I11:I25)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="33">
+        <f>COUNT(J11:J25)</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="34">
+        <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="14">
-        <v>43572</v>
-      </c>
-      <c r="G3" s="14">
-        <v>43573</v>
-      </c>
-      <c r="H3" s="14">
-        <v>43574</v>
-      </c>
-      <c r="I3" s="14">
-        <v>43575</v>
-      </c>
-      <c r="J3" s="14">
-        <v>43576</v>
-      </c>
-      <c r="K3" s="14">
-        <v>43577</v>
-      </c>
-      <c r="L3" s="14">
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="19">
-        <f>COUNT(F10:F24)</f>
-        <v>14</v>
-      </c>
-      <c r="G4" s="19">
-        <f>COUNT(G10:G24)</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="19">
-        <f>COUNT(H10:H24)</f>
-        <v>6</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="23"/>
-      <c r="E5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="19">
-        <f>COUNT(F25:F31)</f>
+      <c r="H6" s="34">
+        <f t="shared" ref="H6:I6" si="0">COUNT(H26:H32)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
-        <f t="shared" ref="G5:H5" si="0">COUNT(G25:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="23"/>
-      <c r="E6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19">
-        <f>COUNT(F32:F36)</f>
+      <c r="J6" s="34">
+        <f t="shared" ref="J6" si="1">COUNT(J26:J32)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="35">
+        <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
-        <f t="shared" ref="G6:H6" si="1">COUNT(G32:G36)</f>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7:I7" si="2">COUNT(H33:H37)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="12"/>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="18">
-        <f>SUM(F4:F6)</f>
-        <v>14</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" ref="G7:L7" si="2">SUM(G4:G6)</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I7" s="18">
+      <c r="I7" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="18">
-        <f t="shared" si="2"/>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7" si="3">COUNT(J33:J37)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="18">
-        <f t="shared" si="2"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="36">
+        <f>SUM(G5:G7)</f>
+        <v>14</v>
+      </c>
+      <c r="H8" s="36">
+        <f t="shared" ref="H8:M8" si="4">SUM(H5:H7)</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="36">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="36">
+        <f>SUM(J5:J7)</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="18">
-        <f t="shared" si="2"/>
+      <c r="L8" s="12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="M8" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="26">
+        <f>SUM(G5:M5)</f>
+        <v>36</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <f>SUM(F4:L4)</f>
-        <v>30</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="D11" s="23">
+        <f>SUM(G6:M6)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="49">
+        <v>771</v>
+      </c>
+      <c r="H11" s="49">
+        <v>944</v>
+      </c>
+      <c r="I11" s="49">
+        <v>867</v>
+      </c>
+      <c r="J11" s="49">
+        <v>258</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="28">
+        <f>SUM(G7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="49">
+        <v>1021</v>
+      </c>
+      <c r="H12" s="49">
+        <v>700</v>
+      </c>
+      <c r="I12" s="49">
+        <v>876</v>
+      </c>
+      <c r="J12" s="49">
+        <v>292</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="49">
+        <v>709</v>
+      </c>
+      <c r="H13" s="49">
+        <v>965</v>
+      </c>
+      <c r="I13" s="49">
+        <v>557</v>
+      </c>
+      <c r="J13" s="49">
+        <v>485</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="49">
+        <v>804</v>
+      </c>
+      <c r="H14" s="49">
+        <v>509</v>
+      </c>
+      <c r="I14" s="49">
+        <v>190</v>
+      </c>
+      <c r="J14" s="49">
+        <v>283</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <f>SUM(F5:L5)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="49">
+        <v>929</v>
+      </c>
+      <c r="H15" s="49">
+        <v>561</v>
+      </c>
+      <c r="I15" s="49">
+        <v>414</v>
+      </c>
+      <c r="J15" s="49">
+        <v>349</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="49">
+        <v>905</v>
+      </c>
+      <c r="H16" s="49">
+        <v>344</v>
+      </c>
+      <c r="I16" s="49">
+        <v>100</v>
+      </c>
+      <c r="J16" s="49">
+        <v>476</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="49">
+        <v>977</v>
+      </c>
+      <c r="H17" s="49">
+        <v>821</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="49">
+        <v>832</v>
+      </c>
+      <c r="H18" s="49">
+        <v>908</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="49">
+        <v>657</v>
+      </c>
+      <c r="H19" s="49">
+        <v>999</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="49">
+        <v>461</v>
+      </c>
+      <c r="H20" s="49">
+        <v>1002</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="49">
+        <v>961</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="49">
+        <v>617</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="49">
+        <v>728</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="49">
+        <v>852</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
-        <v>771</v>
-      </c>
-      <c r="G10" s="3">
-        <v>944</v>
-      </c>
-      <c r="H10" s="3">
-        <v>867</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(F6:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="2">
-        <v>1021</v>
-      </c>
-      <c r="G11" s="6">
-        <v>700</v>
-      </c>
-      <c r="H11" s="6">
-        <v>876</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="20"/>
-      <c r="F12" s="2">
-        <v>709</v>
-      </c>
-      <c r="G12" s="6">
-        <v>965</v>
-      </c>
-      <c r="H12" s="6">
-        <v>557</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="20"/>
-      <c r="F13" s="2">
-        <v>804</v>
-      </c>
-      <c r="G13" s="6">
-        <v>509</v>
-      </c>
-      <c r="H13" s="6">
-        <v>190</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="20"/>
-      <c r="F14" s="2">
-        <v>929</v>
-      </c>
-      <c r="G14" s="6">
-        <v>561</v>
-      </c>
-      <c r="H14" s="6">
-        <v>414</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="20"/>
-      <c r="F15" s="2">
-        <v>905</v>
-      </c>
-      <c r="G15" s="6">
-        <v>344</v>
-      </c>
-      <c r="H15" s="6">
-        <v>100</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="20"/>
-      <c r="F16" s="2">
-        <v>977</v>
-      </c>
-      <c r="G16" s="6">
-        <v>821</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="20"/>
-      <c r="F17" s="2">
-        <v>832</v>
-      </c>
-      <c r="G17" s="6">
-        <v>908</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="20"/>
-      <c r="F18" s="2">
-        <v>657</v>
-      </c>
-      <c r="G18" s="6">
-        <v>999</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="20"/>
-      <c r="F19" s="2">
-        <v>461</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1002</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="20"/>
-      <c r="F20" s="2">
-        <v>961</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="20"/>
-      <c r="F21" s="2">
-        <v>617</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="20"/>
-      <c r="F22" s="2">
-        <v>728</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="20"/>
-      <c r="F23" s="2">
-        <v>852</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="20"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="21" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55">
+        <v>701</v>
+      </c>
+      <c r="J26" s="55">
+        <v>654</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>701</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="21"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="21"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="21"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="21"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="21"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="21"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="22"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="22"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="22"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="22"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E10:E24"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F9:L9"/>
+  <mergeCells count="8">
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="F11:F25"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F7 G7:L7 H4" formulaRange="1"/>
+    <ignoredError sqref="I8:M8 I5:I7 K5:M7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572596DE-9228-4D09-B228-071916A826D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67B48B-0879-4B5B-816B-EBA4DC08FD3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -92,17 +92,20 @@
     <t>133 - 21/4/2019</t>
   </si>
   <si>
-    <t>Rank</t>
+    <t>Difficulty</t>
   </si>
   <si>
-    <t>Difficulty</t>
+    <t>Total Records</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +245,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -320,30 +341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -491,91 +488,466 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,26 +957,187 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,792 +1462,1238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="B1:N38"/>
+  <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="D3" s="47" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="9">
+      <c r="N3" s="11"/>
+      <c r="O3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="28">
         <v>43572</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>43573</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>43574</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>43575</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>43576</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>43577</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="29">
         <v>43578</v>
       </c>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="28">
+        <v>43579</v>
+      </c>
+      <c r="P4" s="8">
+        <v>43580</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>43581</v>
+      </c>
+      <c r="R4" s="8">
+        <v>43582</v>
+      </c>
+      <c r="S4" s="8">
+        <v>43583</v>
+      </c>
+      <c r="T4" s="8">
+        <v>43584</v>
+      </c>
+      <c r="U4" s="29">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="33">
+      <c r="F5" s="12"/>
+      <c r="G5" s="30">
         <f>COUNT(G11:G25)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="16">
         <f>COUNT(H11:H25)</f>
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="16">
         <f>COUNT(I11:I25)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="16">
         <f>COUNT(J11:J25)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="25" t="s">
+      <c r="K5" s="16">
+        <f>COUNT(K11:K25)</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="30">
+        <f>COUNT(O11:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <f>COUNT(P11:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>COUNT(Q11:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <f>COUNT(R11:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <f>COUNT(S11:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" ref="T5:U5" si="0">COUNT(T11:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="34">
+      <c r="F6" s="12"/>
+      <c r="G6" s="32">
         <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="34">
-        <f t="shared" ref="H6:I6" si="0">COUNT(H26:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
-        <f t="shared" si="0"/>
+      <c r="H6" s="17">
+        <f t="shared" ref="H6:I6" si="1">COUNT(H26:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="34">
-        <f t="shared" ref="J6" si="1">COUNT(J26:J32)</f>
+      <c r="J6" s="17">
+        <f t="shared" ref="J6:K6" si="2">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="27" t="s">
+      <c r="K6" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="32">
+        <f>COUNT(O26:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6:S6" si="3">COUNT(P26:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" ref="T6:U6" si="4">COUNT(T26:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35">
+      <c r="F7" s="12"/>
+      <c r="G7" s="34">
         <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7:I7" si="2">COUNT(H33:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="35">
-        <f t="shared" ref="J7" si="3">COUNT(J33:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="11" t="s">
+      <c r="H7" s="18">
+        <f t="shared" ref="H7:I7" si="5">COUNT(H33:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" ref="J7:K7" si="6">COUNT(J33:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="34">
+        <f>COUNT(O33:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" ref="P7:S7" si="7">COUNT(P33:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" ref="T7:U7" si="8">COUNT(T33:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="36">
+      <c r="F8" s="12"/>
+      <c r="G8" s="63">
         <f>SUM(G5:G7)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="36">
-        <f t="shared" ref="H8:M8" si="4">SUM(H5:H7)</f>
+      <c r="H8" s="47">
+        <f t="shared" ref="H8:M8" si="9">SUM(H5:H7)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="36">
-        <f t="shared" si="4"/>
+      <c r="I8" s="47">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="47">
         <f>SUM(J5:J7)</f>
         <v>7</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="24" t="s">
+      <c r="K8" s="47">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="63">
+        <f>SUM(O5:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="47">
+        <f t="shared" ref="P8:Q8" si="10">SUM(P5:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="47">
+        <f>SUM(R5:R7)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="47">
+        <f t="shared" ref="S8:U8" si="11">SUM(S5:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="96"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="26">
+      <c r="C11" s="70">
         <f>SUM(G5:M5)</f>
-        <v>36</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="68">
+        <v>771</v>
+      </c>
+      <c r="H11" s="69">
+        <v>944</v>
+      </c>
+      <c r="I11" s="69">
+        <v>867</v>
+      </c>
+      <c r="J11" s="69">
+        <v>258</v>
+      </c>
+      <c r="K11" s="69">
+        <v>811</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="23">
+      <c r="C12" s="71">
         <f>SUM(G6:M6)</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="49">
-        <v>771</v>
-      </c>
-      <c r="H11" s="49">
-        <v>944</v>
-      </c>
-      <c r="I11" s="49">
-        <v>867</v>
-      </c>
-      <c r="J11" s="49">
-        <v>258</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="64">
+        <v>1021</v>
+      </c>
+      <c r="H12" s="19">
+        <v>700</v>
+      </c>
+      <c r="I12" s="19">
+        <v>876</v>
+      </c>
+      <c r="J12" s="19">
+        <v>292</v>
+      </c>
+      <c r="K12" s="19">
+        <v>884</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="28">
+      <c r="C13" s="72">
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="49">
-        <v>1021</v>
-      </c>
-      <c r="H12" s="49">
-        <v>700</v>
-      </c>
-      <c r="I12" s="49">
-        <v>876</v>
-      </c>
-      <c r="J12" s="49">
-        <v>292</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="49">
+      <c r="D13" s="110"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="64">
         <v>709</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="19">
         <v>965</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="19">
         <v>557</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="19">
         <v>485</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="46" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="73">
+        <f>SUM(G8:M8)</f>
+        <v>41</v>
+      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="64">
+        <v>804</v>
+      </c>
+      <c r="H14" s="19">
+        <v>509</v>
+      </c>
+      <c r="I14" s="19">
+        <v>190</v>
+      </c>
+      <c r="J14" s="19">
+        <v>283</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="49">
-        <v>804</v>
-      </c>
-      <c r="H14" s="49">
-        <v>509</v>
-      </c>
-      <c r="I14" s="49">
-        <v>190</v>
-      </c>
-      <c r="J14" s="49">
-        <v>283</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="64">
+        <v>929</v>
+      </c>
+      <c r="H15" s="19">
+        <v>561</v>
+      </c>
+      <c r="I15" s="19">
+        <v>414</v>
+      </c>
+      <c r="J15" s="19">
+        <v>349</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="49">
-        <v>929</v>
-      </c>
-      <c r="H15" s="49">
-        <v>561</v>
-      </c>
-      <c r="I15" s="49">
-        <v>414</v>
-      </c>
-      <c r="J15" s="49">
-        <v>349</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="110"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="64">
+        <v>905</v>
+      </c>
+      <c r="H16" s="19">
+        <v>344</v>
+      </c>
+      <c r="I16" s="19">
+        <v>100</v>
+      </c>
+      <c r="J16" s="19">
+        <v>476</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="49">
-        <v>905</v>
-      </c>
-      <c r="H16" s="49">
-        <v>344</v>
-      </c>
-      <c r="I16" s="49">
-        <v>100</v>
-      </c>
-      <c r="J16" s="49">
-        <v>476</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="49">
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="64">
         <v>977</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="19">
         <v>821</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="49">
+      <c r="L17" s="4"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="64">
         <v>832</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="19">
         <v>908</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="49">
+      <c r="L18" s="4"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="64">
         <v>657</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="19">
         <v>999</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="49">
+      <c r="L19" s="4"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="64">
         <v>461</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="19">
         <v>1002</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="49">
+      <c r="L20" s="4"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="64">
         <v>961</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="49">
+      <c r="L21" s="4"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="64">
         <v>617</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="50"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="49">
+      <c r="L22" s="4"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="64">
         <v>728</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="49">
+      <c r="L23" s="4"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="64">
         <v>852</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="50"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="40" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="41"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55">
+      <c r="F26" s="12"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25">
         <v>701</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="25">
         <v>654</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="K26" s="25">
+        <v>979</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="39"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="40"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="40"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="40"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="43" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="40"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="41"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="40"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="40"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="40"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="40"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="60"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="E11:E25"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D11:D37"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:M10"/>
-    <mergeCell ref="F11:F25"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I8:M8 I5:I7 K5:M7" formulaRange="1"/>
+    <ignoredError sqref="I8:M8 I5:I7 L5:M7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67B48B-0879-4B5B-816B-EBA4DC08FD3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C33A5D-14F2-4592-B2D7-D4BB211247C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -1465,7 +1465,7 @@
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="K5" s="16">
         <f>COUNT(K11:K25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="31"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K6" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="33"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="K8" s="47">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" s="47">
         <f t="shared" si="9"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C11" s="70">
         <f>SUM(G5:M5)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="109" t="s">
         <v>20</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C12" s="71">
         <f>SUM(G6:M6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="110"/>
       <c r="E12" s="101"/>
@@ -2017,7 +2017,9 @@
       <c r="J13" s="19">
         <v>485</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="19">
+        <v>1030</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="40"/>
       <c r="N13" s="11"/>
@@ -2036,7 +2038,7 @@
       </c>
       <c r="C14" s="73">
         <f>SUM(G8:M8)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="110"/>
       <c r="E14" s="101"/>
@@ -2410,7 +2412,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="25">
+        <v>951</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="40"/>
       <c r="N27" s="11"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C33A5D-14F2-4592-B2D7-D4BB211247C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D3379C-A0BB-4883-9F9F-71A3CD6E5C34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -31,9 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>Date</t>
-  </si>
   <si>
     <t>Monday</t>
   </si>
@@ -80,9 +77,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Prob ID</t>
-  </si>
-  <si>
     <t>Contest</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Problems</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -335,19 +335,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -455,6 +442,335 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -463,357 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -851,19 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -924,24 +876,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -957,187 +908,184 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1465,18 +1413,18 @@
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="17" max="18" width="10.7109375" customWidth="1"/>
     <col min="23" max="23" width="15.140625" customWidth="1"/>
   </cols>
@@ -1485,7 +1433,6 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -1506,67 +1453,65 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="62" t="s">
+      <c r="B3" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="E3" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="M3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>7</v>
-      </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="Q3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="R3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="S3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="T3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="45" t="s">
+      <c r="U3" s="45" t="s">
         <v>6</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="28">
+      <c r="B4" s="81"/>
+      <c r="C4" s="108"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="27">
         <v>43572</v>
       </c>
       <c r="H4" s="8">
@@ -1584,11 +1529,11 @@
       <c r="L4" s="8">
         <v>43577</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>43578</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="28">
+      <c r="O4" s="27">
         <v>43579</v>
       </c>
       <c r="P4" s="8">
@@ -1606,258 +1551,254 @@
       <c r="T4" s="8">
         <v>43584</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="28">
         <v>43585</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="30">
+      <c r="B5" s="81"/>
+      <c r="C5" s="108"/>
+      <c r="E5" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="29">
         <f>COUNT(G11:G25)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>COUNT(H11:H25)</f>
         <v>10</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f>COUNT(I11:I25)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>COUNT(J11:J25)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>COUNT(K11:K25)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="31"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <f>COUNT(O11:O25)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <f>COUNT(P11:P25)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <f>COUNT(Q11:Q25)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <f>COUNT(R11:R25)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <f>COUNT(S11:S25)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <f t="shared" ref="T5:U5" si="0">COUNT(T11:T25)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="32">
+      <c r="B6" s="81"/>
+      <c r="C6" s="108"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="31">
         <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" ref="H6:I6" si="1">COUNT(H26:H32)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <f t="shared" ref="J6:K6" si="2">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f>COUNT(O26:O32)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <f t="shared" ref="P6:S6" si="3">COUNT(P26:P32)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="16">
         <f t="shared" ref="T6:U6" si="4">COUNT(T26:T32)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="34">
+      <c r="B7" s="81"/>
+      <c r="C7" s="108"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="33">
         <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f t="shared" ref="H7:I7" si="5">COUNT(H33:H37)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f t="shared" ref="J7:K7" si="6">COUNT(J33:J37)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="35"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f>COUNT(O33:O37)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f t="shared" ref="P7:S7" si="7">COUNT(P33:P37)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <f t="shared" ref="T7:U7" si="8">COUNT(T33:T37)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="44">
+      <c r="U7" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="63">
+      <c r="B8" s="82"/>
+      <c r="C8" s="109"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="62">
         <f>SUM(G5:G7)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <f t="shared" ref="H8:M8" si="9">SUM(H5:H7)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="46">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="46">
         <f>SUM(J5:J7)</f>
         <v>7</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="46">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="63">
+      <c r="O8" s="62">
         <f>SUM(O5:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <f t="shared" ref="P8:Q8" si="10">SUM(P5:P7)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="46">
         <f>SUM(R5:R7)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="46">
         <f t="shared" ref="S8:U8" si="11">SUM(S5:S7)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1865,7 +1806,6 @@
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1886,783 +1826,754 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
+      <c r="B10" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="E10" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
+      <c r="O10" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="70">
+      <c r="B11" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="99">
         <f>SUM(G5:M5)</f>
         <v>39</v>
       </c>
-      <c r="D11" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="68">
+      <c r="E11" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="67">
         <v>771</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="68">
         <v>944</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="68">
         <v>867</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="68">
         <v>258</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>811</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="37"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="40"/>
+      <c r="U11" s="39"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="71">
+      <c r="B12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="100">
         <f>SUM(G6:M6)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="64">
+      <c r="E12" s="97"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="63">
         <v>1021</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>700</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>876</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <v>292</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>884</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="40"/>
+      <c r="U12" s="39"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="72">
+      <c r="B13" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="101">
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="64">
+      <c r="E13" s="97"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="63">
         <v>709</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>965</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>557</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <v>485</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>1030</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="37"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="40"/>
+      <c r="U13" s="39"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="73">
+      <c r="B14" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="102">
         <f>SUM(G8:M8)</f>
         <v>43</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="64">
+      <c r="E14" s="97"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="63">
         <v>804</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>509</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>190</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <v>283</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="37"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="40"/>
+      <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="64">
+      <c r="B15" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="63">
         <v>929</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>561</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>414</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>349</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="37"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="40"/>
+      <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="64">
+      <c r="B16" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="63">
         <v>905</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>344</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>100</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>476</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="40"/>
+      <c r="U16" s="39"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="75">
-        <v>0</v>
-      </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="64">
+      <c r="B17" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="105">
+        <v>0</v>
+      </c>
+      <c r="E17" s="97"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="63">
         <v>977</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>821</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="37"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="40"/>
+      <c r="U17" s="39"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="64">
+      <c r="B18" s="53"/>
+      <c r="C18" s="105"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="63">
         <v>832</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>908</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="40"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="37"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="40"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="64">
+      <c r="B19" s="53"/>
+      <c r="C19" s="105"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="63">
         <v>657</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>999</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="40"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="37"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="1"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="40"/>
+      <c r="U19" s="39"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="64">
+      <c r="B20" s="53"/>
+      <c r="C20" s="105"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="63">
         <v>461</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>1002</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="40"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="37"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="1"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="40"/>
+      <c r="U20" s="39"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="64">
+      <c r="B21" s="53"/>
+      <c r="C21" s="105"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="63">
         <v>961</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="40"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="37"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="40"/>
+      <c r="U21" s="39"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="64">
+      <c r="B22" s="53"/>
+      <c r="C22" s="105"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="63">
         <v>617</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="40"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="40"/>
+      <c r="U22" s="39"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="64">
+      <c r="B23" s="53"/>
+      <c r="C23" s="105"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="63">
         <v>728</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="37"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="40"/>
+      <c r="U23" s="39"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="64">
+      <c r="B24" s="53"/>
+      <c r="C24" s="105"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="63">
         <v>852</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="40"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="37"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="1"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="40"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="105"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="5"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="41"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="38"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="41"/>
+      <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="105"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24">
         <v>701</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <v>654</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="24">
         <v>979</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="39"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="39"/>
+      <c r="U26" s="38"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="105"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="24">
         <v>951</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="40"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="37"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="1"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="40"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="66"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="105"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="40"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="37"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="1"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="40"/>
+      <c r="U28" s="39"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="66"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="105"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="40"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="1"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="40"/>
+      <c r="U29" s="39"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="66"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="105"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="40"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="37"/>
+      <c r="O30" s="36"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="1"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="40"/>
+      <c r="U30" s="39"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="66"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="105"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="40"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="37"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="1"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="40"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="65"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="105"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="41"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="38"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="41"/>
+      <c r="U32" s="40"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="66"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="105"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="65"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="40"/>
+      <c r="M33" s="39"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="37"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="1"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="40"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="66"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="105"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="40"/>
+      <c r="M34" s="39"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="37"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="40"/>
+      <c r="U34" s="39"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="105"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="40"/>
+      <c r="M35" s="39"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="37"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="1"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="40"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="66"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="105"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="40"/>
+      <c r="M36" s="39"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="37"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="1"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="40"/>
+      <c r="U36" s="39"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="60"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="106"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="59"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2683,17 +2594,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E11:E25"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F11:F25"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F33:F37"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D11:D37"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="E11:E37"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
     <mergeCell ref="B3:C8"/>
     <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D3379C-A0BB-4883-9F9F-71A3CD6E5C34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF18467-7C91-4859-A3CE-9EFDD284D030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Problems</t>
+  </si>
+  <si>
+    <t>134 - 28/4/2019</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -873,12 +876,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -893,9 +909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -988,104 +1001,107 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="A2:U38"/>
+  <dimension ref="A2:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,15 +1437,31 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1451,67 +1483,89 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="89"/>
+      <c r="E3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="Q3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="R3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="S3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="44" t="s">
+      <c r="T3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="X3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="Y3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="Z3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="AA3" s="77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="108"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="27">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="24">
         <v>43572</v>
       </c>
       <c r="H4" s="8">
@@ -1529,11 +1583,11 @@
       <c r="L4" s="8">
         <v>43577</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="25">
         <v>43578</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="27">
+      <c r="O4" s="24">
         <v>43579</v>
       </c>
       <c r="P4" s="8">
@@ -1551,259 +1605,406 @@
       <c r="T4" s="8">
         <v>43584</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="25">
         <v>43585</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="11"/>
+      <c r="W4" s="24">
+        <v>43586</v>
+      </c>
+      <c r="X4" s="8">
+        <v>43587</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>43588</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>43589</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>43590</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>43591</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="108"/>
-      <c r="E5" s="73" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="E5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="29">
-        <f>COUNT(G11:G25)</f>
+      <c r="G5" s="26">
+        <f t="shared" ref="G5:L5" si="0">COUNT(G11:G25)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="15">
-        <f>COUNT(H11:H25)</f>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="15">
-        <f>COUNT(I11:I25)</f>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="15">
-        <f>COUNT(J11:J25)</f>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="15">
-        <f>COUNT(K11:K25)</f>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="30"/>
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="27"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="29">
+      <c r="O5" s="26">
         <f>COUNT(O11:O25)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="12">
         <f>COUNT(P11:P25)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="12">
         <f>COUNT(Q11:Q25)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="12">
         <f>COUNT(R11:R25)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="12">
         <f>COUNT(S11:S25)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="15">
-        <f t="shared" ref="T5:U5" si="0">COUNT(T11:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T5" s="12">
+        <f t="shared" ref="T5:U5" si="1">COUNT(T11:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="26">
+        <f>COUNT(W11:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <f>COUNT(X11:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <f>COUNT(Y11:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <f>COUNT(Z11:Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <f>COUNT(AA11:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" ref="AB5:AC5" si="2">COUNT(AB11:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="108"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="70" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6:I6" si="1">COUNT(H26:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:I6" si="3">COUNT(H26:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" s="16">
-        <f t="shared" ref="J6:K6" si="2">COUNT(J26:J32)</f>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:K6" si="4">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="16">
-        <f t="shared" si="2"/>
+      <c r="K6" s="13">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="32"/>
+      <c r="L6" s="13">
+        <f t="shared" ref="L6" si="5">COUNT(L26:L32)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="29"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="31">
+      <c r="O6" s="28">
         <f>COUNT(O26:O32)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="16">
-        <f t="shared" ref="P6:S6" si="3">COUNT(P26:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="16">
-        <f t="shared" ref="T6:U6" si="4">COUNT(T26:T32)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:S6" si="6">COUNT(P26:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" ref="T6:U6" si="7">COUNT(T26:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="28">
+        <f>COUNT(W26:W32)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <f t="shared" ref="X6:AC6" si="8">COUNT(X26:X32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="108"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="71" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="17">
-        <f t="shared" ref="H7:I7" si="5">COUNT(H33:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" ref="J7:K7" si="6">COUNT(J33:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="34"/>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:I7" si="9">COUNT(H33:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" ref="J7:K7" si="10">COUNT(J33:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" ref="L7" si="11">COUNT(L33:L37)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="31"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="33">
+      <c r="O7" s="30">
         <f>COUNT(O33:O37)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="17">
-        <f t="shared" ref="P7:S7" si="7">COUNT(P33:P37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="17">
-        <f t="shared" ref="T7:U7" si="8">COUNT(T33:T37)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="14">
+        <f t="shared" ref="P7:S7" si="12">COUNT(P33:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" ref="T7:U7" si="13">COUNT(T33:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="30">
+        <f>COUNT(W33:W37)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <f t="shared" ref="X7:AC7" si="14">COUNT(X33:X37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="109"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="72" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="59">
         <f>SUM(G5:G7)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="46">
-        <f t="shared" ref="H8:M8" si="9">SUM(H5:H7)</f>
+      <c r="H8" s="43">
+        <f t="shared" ref="H8:M8" si="15">SUM(H5:H7)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="46">
-        <f t="shared" si="9"/>
+      <c r="I8" s="43">
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="43">
         <f>SUM(J5:J7)</f>
         <v>7</v>
       </c>
-      <c r="K8" s="46">
-        <f t="shared" si="9"/>
+      <c r="K8" s="43">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="L8" s="46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="47">
-        <f t="shared" si="9"/>
+      <c r="L8" s="43">
+        <f t="shared" ref="L8" si="16">SUM(L5:L7)</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="44">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="62">
+      <c r="O8" s="59">
         <f>SUM(O5:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="46">
-        <f t="shared" ref="P8:Q8" si="10">SUM(P5:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
+      <c r="P8" s="43">
+        <f t="shared" ref="P8:Q8" si="17">SUM(P5:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="43">
         <f>SUM(R5:R7)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="46">
-        <f t="shared" ref="S8:U8" si="11">SUM(S5:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="43">
+        <f t="shared" ref="S8:U8" si="18">SUM(S5:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="44">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="59">
+        <f>SUM(W5:W7)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="43">
+        <f t="shared" ref="X8:Y8" si="19">SUM(X5:X7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="43">
+        <f>SUM(Z5:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="43">
+        <f t="shared" ref="AA8:AC8" si="20">SUM(AA5:AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
@@ -1823,757 +2024,1003 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="11"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="E10" s="83" t="s">
+      <c r="C10" s="95"/>
+      <c r="E10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="70">
         <f>SUM(G5:M5)</f>
-        <v>39</v>
-      </c>
-      <c r="E11" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="64">
         <v>771</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="65">
         <v>944</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="65">
         <v>867</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="65">
         <v>258</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="65">
         <v>811</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="65">
+        <v>620</v>
+      </c>
+      <c r="M11" s="36"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="36"/>
+      <c r="O11" s="33"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="39"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="36"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="36"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="71">
         <f>SUM(G6:M6)</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="63">
+        <v>5</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="60">
         <v>1021</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>700</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>876</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>292</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>884</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="65">
+        <v>1025</v>
+      </c>
+      <c r="M12" s="36"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="36"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="39"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="36"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="36"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="72">
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="63">
+      <c r="E13" s="106"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="60">
         <v>709</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>965</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>557</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>485</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>1030</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="65">
+        <v>985</v>
+      </c>
+      <c r="M13" s="36"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="36"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="39"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="36"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="36"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="73">
         <f>SUM(G8:M8)</f>
-        <v>43</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="63">
+        <v>48</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="60">
         <v>804</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>509</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>190</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>283</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="65">
+        <v>463</v>
+      </c>
+      <c r="M14" s="36"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="39"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="36"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="36"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="63">
+      <c r="C15" s="104"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="60">
         <v>929</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>561</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>414</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>349</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="36"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="39"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="36"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="36"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="63">
+      <c r="E16" s="106"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="60">
         <v>905</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>344</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>100</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>476</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="36"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="39"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U16" s="36"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="36"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="105">
-        <v>0</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="63">
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="60">
         <v>977</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>821</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="39"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="36"/>
+      <c r="O17" s="33"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="39"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U17" s="36"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="36"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="105"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="63">
+      <c r="B18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="60">
         <v>832</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>908</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="39"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="36"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="39"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U18" s="36"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="36"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="105"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="63">
+      <c r="B19" s="50"/>
+      <c r="C19" s="75"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="60">
         <v>657</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>999</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="39"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="36"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="1"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="39"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U19" s="36"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="36"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="105"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="63">
+      <c r="B20" s="50"/>
+      <c r="C20" s="75"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="60">
         <v>461</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>1002</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="39"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="36"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="1"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="39"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U20" s="36"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="36"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="105"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="63">
+      <c r="B21" s="50"/>
+      <c r="C21" s="75"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="60">
         <v>961</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="39"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="36"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="39"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U21" s="36"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="36"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="105"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="63">
+      <c r="B22" s="50"/>
+      <c r="C22" s="75"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="60">
         <v>617</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="39"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="39"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U22" s="36"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="36"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="105"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="63">
+      <c r="B23" s="50"/>
+      <c r="C23" s="75"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="60">
         <v>728</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="39"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="36"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="39"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U23" s="36"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="36"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="105"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="63">
+      <c r="B24" s="50"/>
+      <c r="C24" s="75"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="60">
         <v>852</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="39"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="36"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="1"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="39"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="36"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="36"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="105"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="75"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="5"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="40"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="37"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U25" s="37"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="105"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="90" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="75"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24">
+      <c r="G26" s="62"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21">
         <v>701</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="21">
         <v>654</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="21">
         <v>979</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="38"/>
+      <c r="L26" s="21">
+        <v>912</v>
+      </c>
+      <c r="M26" s="35"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="38"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="35"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="105"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="24">
+      <c r="B27" s="50"/>
+      <c r="C27" s="75"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="21">
         <v>951</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="39"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="36"/>
+      <c r="O27" s="33"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="1"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="39"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U27" s="36"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="36"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="105"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="65"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="75"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="39"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="36"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="1"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="39"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U28" s="36"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="36"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="105"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="65"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="75"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="39"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="36"/>
+      <c r="O29" s="33"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="1"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="39"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U29" s="36"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="36"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="105"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="65"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="75"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="39"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="36"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="1"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="39"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U30" s="36"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="36"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="105"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="65"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="75"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="36"/>
+      <c r="O31" s="33"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="1"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="39"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="36"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="36"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="105"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="64"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="75"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="40"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="37"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="40"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U32" s="37"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="37"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="105"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="93" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="75"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="39"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="36"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="1"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="39"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U33" s="36"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="36"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="105"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="65"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="75"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="39"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="36"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="39"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U34" s="36"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="36"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="105"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="65"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="75"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="39"/>
+      <c r="M35" s="36"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="36"/>
+      <c r="O35" s="33"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="1"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="39"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U35" s="36"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="36"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="105"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="65"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="75"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="39"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="36"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="1"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="39"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="36"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="36"/>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="106"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="76"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="59"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O37" s="57"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="56"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2593,12 +3040,13 @@
       <c r="U38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="F33:F37"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E11:E37"/>
+    <mergeCell ref="W10:AC10"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="B3:C8"/>
@@ -2608,7 +3056,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I8:M8 I5:I7 L5:M7" formulaRange="1"/>
+    <ignoredError sqref="I8:K8 I5:I7 M5:M7 M8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF18467-7C91-4859-A3CE-9EFDD284D030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5585C451-FA4A-4D7D-923F-4FB0995EA371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>Dates</t>
   </si>
   <si>
-    <t>Problems</t>
+    <t>134 - 28/4/2019</t>
   </si>
   <si>
-    <t>134 - 28/4/2019</t>
+    <t>Problems by ID</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1013,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,42 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
   <dimension ref="A2:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,14 +1485,14 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="E3" s="84" t="s">
+      <c r="C3" s="101"/>
+      <c r="E3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="24">
         <v>43572</v>
       </c>
@@ -1633,9 +1633,9 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="E5" s="93" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="66" t="s">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="11"/>
@@ -1727,9 +1727,9 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="E6" s="82"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="67" t="s">
         <v>9</v>
       </c>
@@ -1819,9 +1819,9 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="E7" s="82"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="68" t="s">
         <v>10</v>
       </c>
@@ -1911,9 +1911,9 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="69" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="L8" s="43">
         <f t="shared" ref="L8" si="16">SUM(L5:L7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" s="44">
         <f t="shared" si="15"/>
@@ -2035,41 +2035,41 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="E10" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="C10" s="107"/>
+      <c r="E10" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="80"/>
+      <c r="O10" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="80"/>
+      <c r="W10" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -2078,12 +2078,12 @@
       </c>
       <c r="C11" s="70">
         <f>SUM(G5:M5)</f>
-        <v>43</v>
-      </c>
-      <c r="E11" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="78" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="64">
@@ -2131,8 +2131,8 @@
         <f>SUM(G6:M6)</f>
         <v>5</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="97"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="60">
         <v>1021</v>
       </c>
@@ -2178,8 +2178,8 @@
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="60">
         <v>709</v>
       </c>
@@ -2223,10 +2223,10 @@
       </c>
       <c r="C14" s="73">
         <f>SUM(G8:M8)</f>
-        <v>48</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="97"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="60">
         <v>804</v>
       </c>
@@ -2263,12 +2263,12 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="97"/>
+      <c r="C15" s="86"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="60">
         <v>929</v>
       </c>
@@ -2282,7 +2282,9 @@
         <v>349</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="65">
+        <v>976</v>
+      </c>
       <c r="M15" s="36"/>
       <c r="N15" s="11"/>
       <c r="O15" s="33"/>
@@ -2309,8 +2311,8 @@
       <c r="C16" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="97"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="60">
         <v>905</v>
       </c>
@@ -2324,7 +2326,9 @@
         <v>476</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="65">
+        <v>1009</v>
+      </c>
       <c r="M16" s="36"/>
       <c r="N16" s="11"/>
       <c r="O16" s="33"/>
@@ -2351,8 +2355,8 @@
       <c r="C17" s="75">
         <v>0</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="60">
         <v>977</v>
       </c>
@@ -2384,11 +2388,11 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="60">
         <v>832</v>
       </c>
@@ -2421,8 +2425,8 @@
       <c r="A19" s="11"/>
       <c r="B19" s="50"/>
       <c r="C19" s="75"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="97"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="60">
         <v>657</v>
       </c>
@@ -2455,8 +2459,8 @@
       <c r="A20" s="11"/>
       <c r="B20" s="50"/>
       <c r="C20" s="75"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="97"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="60">
         <v>461</v>
       </c>
@@ -2489,8 +2493,8 @@
       <c r="A21" s="11"/>
       <c r="B21" s="50"/>
       <c r="C21" s="75"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="60">
         <v>961</v>
       </c>
@@ -2521,8 +2525,8 @@
       <c r="A22" s="11"/>
       <c r="B22" s="50"/>
       <c r="C22" s="75"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="60">
         <v>617</v>
       </c>
@@ -2553,8 +2557,8 @@
       <c r="A23" s="11"/>
       <c r="B23" s="50"/>
       <c r="C23" s="75"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="60">
         <v>728</v>
       </c>
@@ -2585,8 +2589,8 @@
       <c r="A24" s="11"/>
       <c r="B24" s="50"/>
       <c r="C24" s="75"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="60">
         <v>852</v>
       </c>
@@ -2617,8 +2621,8 @@
       <c r="A25" s="11"/>
       <c r="B25" s="50"/>
       <c r="C25" s="75"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="97"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="61"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -2647,8 +2651,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="50"/>
       <c r="C26" s="75"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="98" t="s">
+      <c r="E26" s="88"/>
+      <c r="F26" s="80" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="62"/>
@@ -2687,8 +2691,8 @@
       <c r="A27" s="11"/>
       <c r="B27" s="50"/>
       <c r="C27" s="75"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="99"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="62"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -2719,8 +2723,8 @@
       <c r="A28" s="11"/>
       <c r="B28" s="50"/>
       <c r="C28" s="75"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="99"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="62"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2749,8 +2753,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="50"/>
       <c r="C29" s="75"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="99"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="62"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2779,8 +2783,8 @@
       <c r="A30" s="11"/>
       <c r="B30" s="50"/>
       <c r="C30" s="75"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="99"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="62"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2809,8 +2813,8 @@
       <c r="A31" s="11"/>
       <c r="B31" s="50"/>
       <c r="C31" s="75"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="99"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="62"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2839,8 +2843,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="50"/>
       <c r="C32" s="75"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="100"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="61"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2869,8 +2873,8 @@
       <c r="A33" s="11"/>
       <c r="B33" s="50"/>
       <c r="C33" s="75"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="101" t="s">
+      <c r="E33" s="88"/>
+      <c r="F33" s="83" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="62"/>
@@ -2901,8 +2905,8 @@
       <c r="A34" s="11"/>
       <c r="B34" s="50"/>
       <c r="C34" s="75"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="101"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="62"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2931,8 +2935,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="50"/>
       <c r="C35" s="75"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="101"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="62"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2961,8 +2965,8 @@
       <c r="A36" s="11"/>
       <c r="B36" s="50"/>
       <c r="C36" s="75"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="101"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="62"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2991,8 +2995,8 @@
       <c r="A37" s="11"/>
       <c r="B37" s="52"/>
       <c r="C37" s="76"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="102"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="63"/>
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
@@ -3041,11 +3045,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F11:F25"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E3:F4"/>
@@ -3053,6 +3052,11 @@
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:M10"/>
+    <mergeCell ref="F11:F25"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E11:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5585C451-FA4A-4D7D-923F-4FB0995EA371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBC9B7-E8C6-4B40-A67F-977BC1BE821B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Monday</t>
   </si>
@@ -103,6 +104,18 @@
   <si>
     <t>Problems by ID</t>
   </si>
+  <si>
+    <t>206r</t>
+  </si>
+  <si>
+    <t>206i</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +273,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -889,20 +908,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -933,8 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -942,17 +1031,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -976,11 +1056,6 @@
     <xf numFmtId="14" fontId="4" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -988,9 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,6 +1085,120 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,59 +1235,36 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,9 +1275,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA50021"/>
+      <color rgb="FFC4934C"/>
       <color rgb="FFB44742"/>
-      <color rgb="FFC4934C"/>
-      <color rgb="FFA50021"/>
       <color rgb="FF55211F"/>
     </mruColors>
   </colors>
@@ -1127,6 +1290,1645 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>LeetCode</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Record</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33396456538553476"/>
+          <c:y val="2.3337078275469093E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17403630935890022"/>
+          <c:y val="0.10041762100325688"/>
+          <c:w val="0.75021686231071305"/>
+          <c:h val="0.7499973093816481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28CE84D3-B1B3-4418-8D91-8F3B9DA62C5C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A11E7E9E-9A00-441E-B45F-83F8B0C3F359}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F3F477C5-A017-401E-8528-6FDCFF4C91FC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C407A9E-0D10-4A2B-B95F-A2595D0DFC50}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50D654AE-3B80-483D-AB9D-9D235689E5DD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{231D1251-0B4D-4111-86D6-E5BB89332BED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FE8E307-4A0F-466C-B3FE-9815BCC1B208}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1EEE-4517-8737-B26F8F06EE99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$G$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$G$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>LeetCode!$G$8:$M$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1EEE-4517-8737-B26F8F06EE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$G$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$G$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1EEE-4517-8737-B26F8F06EE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$G$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$G$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1EEE-4517-8737-B26F8F06EE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="776906447"/>
+        <c:axId val="771983551"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="776906447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Dates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45193873906731818"/>
+              <c:y val="0.9167098408736517"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="99000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771983551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="771983551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Problems Completed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.7387859748404084E-2"/>
+              <c:y val="0.30435751621247037"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776906447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="rnd" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35209940878546225"/>
+          <c:y val="0.10566752201481502"/>
+          <c:w val="0.37801454984418587"/>
+          <c:h val="4.3585599955436732E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1A4C5E-BC56-435D-8DC9-BEFA51C81458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="A2:AC38"/>
+  <dimension ref="A2:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +3239,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
@@ -1445,1622 +3247,2354 @@
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" customWidth="1"/>
     <col min="20" max="20" width="8.42578125" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" customWidth="1"/>
     <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
     <col min="24" max="24" width="8.42578125" customWidth="1"/>
     <col min="25" max="25" width="6.7109375" customWidth="1"/>
     <col min="26" max="26" width="8.28515625" customWidth="1"/>
     <col min="27" max="27" width="7.28515625" customWidth="1"/>
     <col min="28" max="28" width="8.140625" customWidth="1"/>
     <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" customWidth="1"/>
+    <col min="38" max="38" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="100" t="s">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="E3" s="96" t="s">
+      <c r="C3" s="80"/>
+      <c r="E3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="42" t="s">
+      <c r="L3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="58" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="42" t="s">
+      <c r="T3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="58" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="77" t="s">
+      <c r="AA3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="42" t="s">
+      <c r="AB3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="24">
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="15">
         <v>43572</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="1">
         <v>43573</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="1">
         <v>43574</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="1">
         <v>43575</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="1">
         <v>43576</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="1">
         <v>43577</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="16">
         <v>43578</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="24">
+      <c r="N4" s="4"/>
+      <c r="O4" s="15">
         <v>43579</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="1">
         <v>43580</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="1">
         <v>43581</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="1">
         <v>43582</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="1">
         <v>43583</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="1">
         <v>43584</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="16">
         <v>43585</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="24">
+      <c r="V4" s="4"/>
+      <c r="W4" s="15">
         <v>43586</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="1">
         <v>43587</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="1">
         <v>43588</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="1">
         <v>43589</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="1">
         <v>43590</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="1">
         <v>43591</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AC4" s="16">
         <v>43592</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="E5" s="93" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="15">
+        <v>43593</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>43594</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>43595</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>43596</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>43597</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>43598</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="E5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26">
-        <f t="shared" ref="G5:L5" si="0">COUNT(G11:G25)</f>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:L5" si="0">COUNTIF(G11:G25, "*")+COUNT(G11:G25)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="26">
-        <f>COUNT(O11:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <f>COUNT(P11:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <f>COUNT(Q11:Q25)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <f>COUNT(R11:R25)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
-        <f>COUNT(S11:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <f t="shared" ref="T5:U5" si="1">COUNT(T11:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
+      <c r="M5" s="5">
+        <f>COUNTIF(M11:M25, "*")+COUNT(M11:M25)</f>
+        <v>7</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="107">
+        <f t="shared" ref="O5:T5" si="1">COUNTIF(P11:P25, "*")+COUNT(P11:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="26">
+      <c r="R5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <f>COUNTIF(U11:U25, "*")+COUNT(U11:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="17">
         <f>COUNT(W11:W25)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="12">
-        <f>COUNT(X11:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <f>COUNT(Y11:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
-        <f>COUNT(Z11:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12">
-        <f>COUNT(AA11:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="12">
-        <f t="shared" ref="AB5:AC5" si="2">COUNT(AB11:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="38">
+      <c r="X5" s="5">
+        <f t="shared" ref="X5:AA5" si="2">COUNT(X11:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="67" t="s">
+      <c r="Z5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <f>COUNT(AB11:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20">
+        <f>COUNT(AC11:AC25)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="17">
+        <f>COUNT(AE11:AE25)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" ref="AF5:AI5" si="3">COUNT(AF11:AF25)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f>COUNT(AJ11:AJ25)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="20">
+        <f>COUNT(AK11:AK25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="18">
         <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6:I6" si="3">COUNT(H26:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="3"/>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:I6" si="4">COUNT(H26:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" ref="J6:K6" si="4">COUNT(J26:J32)</f>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:K6" si="5">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="13">
-        <f t="shared" si="4"/>
+      <c r="K6" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L6" s="13">
-        <f t="shared" ref="L6" si="5">COUNT(L26:L32)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="28">
-        <f>COUNT(O26:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" ref="P6:S6" si="6">COUNT(P26:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="13">
-        <f t="shared" ref="T6:U6" si="7">COUNT(T26:T32)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="28">
+      <c r="L6" s="6">
+        <f t="shared" ref="L6:M6" si="6">COUNT(L26:L32)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6" si="7">COUNT(M26:M32)</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="108">
+        <f t="shared" ref="P6:U6" si="8">COUNT(P26:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="18">
         <f>COUNT(W26:W32)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="13">
-        <f t="shared" ref="X6:AC6" si="8">COUNT(X26:X32)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="68" t="s">
+      <c r="X6" s="6">
+        <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="18">
+        <f>COUNT(AE26:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" ref="AF6:AK6" si="10">COUNT(AF26:AF32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="19">
         <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="14">
-        <f t="shared" ref="H7:I7" si="9">COUNT(H33:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" ref="J7:K7" si="10">COUNT(J33:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <f t="shared" ref="L7" si="11">COUNT(L33:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="30">
-        <f>COUNT(O33:O37)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <f t="shared" ref="P7:S7" si="12">COUNT(P33:P37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:I7" si="11">COUNT(H33:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:K7" si="12">COUNT(J33:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R7" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
-        <f t="shared" ref="T7:U7" si="13">COUNT(T33:T37)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="30">
+      <c r="L7" s="7">
+        <f t="shared" ref="L7:M7" si="13">COUNT(L33:L37)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" ref="M7" si="14">COUNT(M33:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="109">
+        <f t="shared" ref="P7:U7" si="15">COUNT(P33:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="19">
         <f>COUNT(W33:W37)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="14">
-        <f t="shared" ref="X7:AC7" si="14">COUNT(X33:X37)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="69" t="s">
+      <c r="X7" s="7">
+        <f t="shared" ref="X7:AC7" si="16">COUNT(X33:X37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="19">
+        <f>COUNT(AE33:AE37)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" ref="AF7:AK7" si="17">COUNT(AF33:AF37)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="36">
         <f>SUM(G5:G7)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="43">
-        <f t="shared" ref="H8:M8" si="15">SUM(H5:H7)</f>
+      <c r="H8" s="25">
+        <f t="shared" ref="H8:M8" si="18">SUM(H5:H7)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="43">
-        <f t="shared" si="15"/>
+      <c r="I8" s="25">
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="25">
         <f>SUM(J5:J7)</f>
         <v>7</v>
       </c>
-      <c r="K8" s="43">
-        <f t="shared" si="15"/>
+      <c r="K8" s="25">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="L8" s="43">
-        <f t="shared" ref="L8" si="16">SUM(L5:L7)</f>
-        <v>7</v>
-      </c>
-      <c r="M8" s="44">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="59">
-        <f>SUM(O5:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="43">
-        <f t="shared" ref="P8:Q8" si="17">SUM(P5:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="43">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="43">
+      <c r="L8" s="25">
+        <f t="shared" ref="L8" si="19">SUM(L5:L7)</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="110">
+        <f t="shared" ref="P8:Q8" si="20">SUM(P5:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
         <f>SUM(R5:R7)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="43">
-        <f t="shared" ref="S8:U8" si="18">SUM(S5:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="43">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="59">
+      <c r="S8" s="25">
+        <f t="shared" ref="S8:U8" si="21">SUM(S5:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="36">
         <f>SUM(W5:W7)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="43">
-        <f t="shared" ref="X8:Y8" si="19">SUM(X5:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="43">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="43">
+      <c r="X8" s="25">
+        <f t="shared" ref="X8:Y8" si="22">SUM(X5:X7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25">
         <f>SUM(Z5:Z7)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="43">
-        <f t="shared" ref="AA8:AC8" si="20">SUM(AA5:AA7)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="43">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="44">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="10"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="106" t="s">
+      <c r="AA8" s="25">
+        <f t="shared" ref="AA8:AC8" si="23">SUM(AA5:AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="26">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="36">
+        <f>SUM(AE5:AE7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="25">
+        <f t="shared" ref="AF8:AG8" si="24">SUM(AF5:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="25">
+        <f>SUM(AH5:AH7)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="25">
+        <f t="shared" ref="AI8:AK8" si="25">SUM(AI5:AI7)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="E10" s="90" t="s">
+      <c r="C10" s="89"/>
+      <c r="E10" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="90" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="90" t="s">
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="51" t="s">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="70">
-        <f>SUM(G5:M5)</f>
-        <v>45</v>
-      </c>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="44">
+        <f>SUM(G5:M5)+SUM(P5:U5)</f>
+        <v>52</v>
+      </c>
+      <c r="E11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="38">
         <v>771</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="39">
         <v>944</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="39">
         <v>867</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="39">
         <v>258</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="39">
         <v>811</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="39">
         <v>620</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="36"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="45" t="s">
+      <c r="M11" s="70">
+        <v>104</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="54"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="45">
         <f>SUM(G6:M6)</f>
-        <v>5</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="60">
+        <v>8</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="37">
         <v>1021</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <v>700</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="8">
         <v>876</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="8">
         <v>292</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
         <v>884</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="39">
         <v>1025</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="36"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="46" t="s">
+      <c r="M12" s="71">
+        <v>136</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="54"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="46">
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="60">
+      <c r="E13" s="100"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="37">
         <v>709</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>965</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="8">
         <v>557</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="8">
         <v>485</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="8">
         <v>1030</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="39">
         <v>985</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="36"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="47" t="s">
+      <c r="M13" s="71">
+        <v>412</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="54"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="47">
         <f>SUM(G8:M8)</f>
-        <v>50</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="60">
+        <v>60</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="37">
         <v>804</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>509</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="8">
         <v>190</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="8">
         <v>283</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="65">
+      <c r="K14" s="9"/>
+      <c r="L14" s="39">
         <v>463</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="36"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="85" t="s">
+      <c r="M14" s="71">
+        <v>942</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="54"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="60">
+      <c r="C15" s="98"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="37">
         <v>929</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="8">
         <v>561</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="8">
         <v>414</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="8">
         <v>349</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="65">
+      <c r="K15" s="9"/>
+      <c r="L15" s="39">
         <v>976</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="36"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="49" t="s">
+      <c r="M15" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="54"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="60">
+      <c r="E16" s="100"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="37">
         <v>905</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="8">
         <v>344</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="8">
         <v>100</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="8">
         <v>476</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="65">
+      <c r="K16" s="9"/>
+      <c r="L16" s="39">
         <v>1009</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="36"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="50" t="s">
+      <c r="M16" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="54"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="75">
-        <v>0</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="60">
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="37">
         <v>977</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="8">
         <v>821</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="36"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="50" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="71">
+        <v>237</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="54"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="60">
+      <c r="C18" s="49"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="37">
         <v>832</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="8">
         <v>908</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="36"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="75"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="60">
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="53"/>
+      <c r="AK18" s="54"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="49"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="37">
         <v>657</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="8">
         <v>999</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="36"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="75"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="60">
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="54"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="49"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="37">
         <v>461</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="8">
         <v>1002</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="36"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="75"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="60">
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="49"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="37">
         <v>961</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="36"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="75"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="60">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="54"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="49"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="37">
         <v>617</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="36"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="75"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="60">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="54"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="49"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="37">
         <v>728</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="36"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="75"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="60">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="54"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="49"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="37">
         <v>852</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="36"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="75"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="37"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="75"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="80" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="54"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="49"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="57"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="49"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21">
+      <c r="G26" s="68"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14">
         <v>701</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="14">
         <v>654</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="14">
         <v>979</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="14">
         <v>912</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="35"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="75"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="21">
+      <c r="M26" s="102">
+        <v>921</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="61"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="49"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="14">
         <v>951</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="36"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="75"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="36"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="75"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="36"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="75"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="36"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="75"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="36"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="75"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="37"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="83" t="s">
+      <c r="L27" s="14">
+        <v>94</v>
+      </c>
+      <c r="M27" s="102">
+        <v>861</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="54"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="49"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="54"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="49"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="54"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="49"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="54"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="49"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="54"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="49"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="57"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="49"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="36"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="75"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="36"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="75"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="36"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="75"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="36"/>
-    </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="76"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="56"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="54"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="49"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="54"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="49"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="54"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="49"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="54"/>
+    </row>
+    <row r="37" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="50"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="66"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AE10:AK10"/>
+    <mergeCell ref="F11:F25"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="O11:O37"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="B3:C8"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:M10"/>
-    <mergeCell ref="F11:F25"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E11:E37"/>
+    <mergeCell ref="O5:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I8:K8 I5:I7 M5:M7 M8" formulaRange="1"/>
+    <ignoredError sqref="I8:K8 I6:I7 M8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A403D5-CCA4-4E36-8BDC-7F81A1CE2351}">
+  <dimension ref="A2:U38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" customWidth="1"/>
+    <col min="38" max="38" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="89"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="44">
+        <f>SUM(LeetCode!G5:'LeetCode'!M5)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="45">
+        <f>SUM(LeetCode!G6:'LeetCode'!M6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46">
+        <f>SUM(LeetCode!G7:'LeetCode'!M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="47">
+        <f>SUM(LeetCode!G8:'LeetCode'!M8)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="98"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="50"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBC9B7-E8C6-4B40-A67F-977BC1BE821B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B05C0-0715-473B-B03D-DDE4B40B0A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -1145,96 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,7 +1164,52 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1218,52 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28CE84D3-B1B3-4418-8D91-8F3B9DA62C5C}" type="CELLRANGE">
+                    <a:fld id="{9B2E4779-3579-4402-9C26-BC5180452209}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A11E7E9E-9A00-441E-B45F-83F8B0C3F359}" type="CELLRANGE">
+                    <a:fld id="{43A6F220-E063-48B2-B22F-45AF726859E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3F477C5-A017-401E-8528-6FDCFF4C91FC}" type="CELLRANGE">
+                    <a:fld id="{039FBB6D-8774-469F-8C2C-6F79D10564F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C407A9E-0D10-4A2B-B95F-A2595D0DFC50}" type="CELLRANGE">
+                    <a:fld id="{A759993A-6E6C-4888-8BC3-10C50E679025}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50D654AE-3B80-483D-AB9D-9D235689E5DD}" type="CELLRANGE">
+                    <a:fld id="{D4818A31-4B9C-49EF-A9F7-DCBD73F04EAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{231D1251-0B4D-4111-86D6-E5BB89332BED}" type="CELLRANGE">
+                    <a:fld id="{1472432F-2095-4E9B-8C93-A1C049A12248}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FE8E307-4A0F-466C-B3FE-9815BCC1B208}" type="CELLRANGE">
+                    <a:fld id="{6D40C53E-9008-45E4-9AEB-5519640D990C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3231,7 +3231,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,14 +3292,14 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="E3" s="75" t="s">
+      <c r="C3" s="107"/>
+      <c r="E3" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="15">
         <v>43572</v>
       </c>
@@ -3484,9 +3484,9 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="E5" s="72" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="E5" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -3521,12 +3521,12 @@
         <v>7</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="107">
-        <f t="shared" ref="O5:T5" si="1">COUNTIF(P11:P25, "*")+COUNT(P11:P25)</f>
-        <v>0</v>
+      <c r="P5" s="77">
+        <f t="shared" ref="P5:T5" si="1">COUNTIF(P11:P25, "*")+COUNT(P11:P25)</f>
+        <v>1</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="1"/>
@@ -3609,9 +3609,9 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" ref="L6:M6" si="6">COUNT(L26:L32)</f>
+        <f t="shared" ref="L6" si="6">COUNT(L26:L32)</f>
         <v>2</v>
       </c>
       <c r="M6" s="6">
@@ -3644,8 +3644,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="108">
+      <c r="O6" s="97"/>
+      <c r="P6" s="78">
         <f t="shared" ref="P6:U6" si="8">COUNT(P26:P32)</f>
         <v>0</v>
       </c>
@@ -3730,9 +3730,9 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="E7" s="73"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" ref="L7:M7" si="13">COUNT(L33:L37)</f>
+        <f t="shared" ref="L7" si="13">COUNT(L33:L37)</f>
         <v>0</v>
       </c>
       <c r="M7" s="7">
@@ -3765,8 +3765,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="109">
+      <c r="O7" s="97"/>
+      <c r="P7" s="79">
         <f t="shared" ref="P7:U7" si="15">COUNT(P33:P37)</f>
         <v>0</v>
       </c>
@@ -3851,9 +3851,9 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
@@ -3886,10 +3886,10 @@
         <v>9</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="110">
+      <c r="O8" s="98"/>
+      <c r="P8" s="80">
         <f t="shared" ref="P8:Q8" si="20">SUM(P5:P7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="20"/>
@@ -4009,51 +4009,51 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="E10" s="85" t="s">
+      <c r="C10" s="113"/>
+      <c r="E10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="85" t="s">
+      <c r="W10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="87"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="83"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="85" t="s">
+      <c r="AE10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="87"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:M5)+SUM(P5:U5)</f>
-        <v>52</v>
-      </c>
-      <c r="E11" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="84" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="38">
@@ -4092,10 +4092,12 @@
         <v>104</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="103"/>
+      <c r="P11" s="39">
+        <v>897</v>
+      </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="9"/>
       <c r="S11" s="53"/>
@@ -4127,8 +4129,8 @@
         <f>SUM(G6:M6)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="37">
         <v>1021</v>
       </c>
@@ -4151,8 +4153,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="103"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="9"/>
       <c r="S12" s="53"/>
@@ -4184,8 +4186,8 @@
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="91"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="37">
         <v>709</v>
       </c>
@@ -4208,8 +4210,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="103"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="73"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="9"/>
       <c r="S13" s="53"/>
@@ -4241,8 +4243,8 @@
         <f>SUM(G8:M8)</f>
         <v>60</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="37">
         <v>804</v>
       </c>
@@ -4263,8 +4265,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="103"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="73"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="9"/>
       <c r="S14" s="53"/>
@@ -4289,12 +4291,12 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="37">
         <v>929</v>
       </c>
@@ -4315,8 +4317,8 @@
         <v>25</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="103"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="73"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="9"/>
       <c r="S15" s="53"/>
@@ -4347,8 +4349,8 @@
       <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="37">
         <v>905</v>
       </c>
@@ -4369,8 +4371,8 @@
         <v>24</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="103"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="73"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="9"/>
       <c r="S16" s="53"/>
@@ -4401,8 +4403,8 @@
       <c r="C17" s="49">
         <v>0</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="91"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="37">
         <v>977</v>
       </c>
@@ -4417,8 +4419,8 @@
         <v>237</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="103"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="73"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="9"/>
       <c r="S17" s="53"/>
@@ -4447,8 +4449,8 @@
         <v>22</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="37">
         <v>832</v>
       </c>
@@ -4461,8 +4463,8 @@
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="103"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="73"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="9"/>
       <c r="S18" s="53"/>
@@ -4489,8 +4491,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="32"/>
       <c r="C19" s="49"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="37">
         <v>657</v>
       </c>
@@ -4503,8 +4505,8 @@
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="103"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="73"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="9"/>
       <c r="S19" s="53"/>
@@ -4531,8 +4533,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="32"/>
       <c r="C20" s="49"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="91"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="37">
         <v>461</v>
       </c>
@@ -4545,8 +4547,8 @@
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="103"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="73"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="9"/>
       <c r="S20" s="53"/>
@@ -4573,8 +4575,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="32"/>
       <c r="C21" s="49"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="91"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="37">
         <v>961</v>
       </c>
@@ -4585,8 +4587,8 @@
       <c r="L21" s="53"/>
       <c r="M21" s="54"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="103"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="73"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="9"/>
       <c r="S21" s="53"/>
@@ -4613,8 +4615,8 @@
       <c r="A22" s="4"/>
       <c r="B22" s="32"/>
       <c r="C22" s="49"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="91"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="37">
         <v>617</v>
       </c>
@@ -4625,8 +4627,8 @@
       <c r="L22" s="53"/>
       <c r="M22" s="54"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="103"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="73"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="9"/>
       <c r="S22" s="53"/>
@@ -4653,8 +4655,8 @@
       <c r="A23" s="4"/>
       <c r="B23" s="32"/>
       <c r="C23" s="49"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="91"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="37">
         <v>728</v>
       </c>
@@ -4665,8 +4667,8 @@
       <c r="L23" s="53"/>
       <c r="M23" s="54"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="103"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="73"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="9"/>
       <c r="S23" s="53"/>
@@ -4693,8 +4695,8 @@
       <c r="A24" s="4"/>
       <c r="B24" s="32"/>
       <c r="C24" s="49"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="91"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="37">
         <v>852</v>
       </c>
@@ -4705,8 +4707,8 @@
       <c r="L24" s="53"/>
       <c r="M24" s="54"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="103"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="73"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="9"/>
       <c r="S24" s="53"/>
@@ -4733,8 +4735,8 @@
       <c r="A25" s="4"/>
       <c r="B25" s="32"/>
       <c r="C25" s="49"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="91"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="67"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -4743,8 +4745,8 @@
       <c r="L25" s="56"/>
       <c r="M25" s="57"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="104"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="74"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
       <c r="S25" s="56"/>
@@ -4771,8 +4773,8 @@
       <c r="A26" s="4"/>
       <c r="B26" s="32"/>
       <c r="C26" s="49"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="92" t="s">
+      <c r="E26" s="94"/>
+      <c r="F26" s="86" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="68"/>
@@ -4789,12 +4791,12 @@
       <c r="L26" s="14">
         <v>912</v>
       </c>
-      <c r="M26" s="102">
+      <c r="M26" s="72">
         <v>921</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="105"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="75"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="59"/>
       <c r="S26" s="60"/>
@@ -4821,8 +4823,8 @@
       <c r="A27" s="4"/>
       <c r="B27" s="32"/>
       <c r="C27" s="49"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="68"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -4833,12 +4835,12 @@
       <c r="L27" s="14">
         <v>94</v>
       </c>
-      <c r="M27" s="102">
+      <c r="M27" s="72">
         <v>861</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="103"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="73"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="9"/>
       <c r="S27" s="53"/>
@@ -4865,8 +4867,8 @@
       <c r="A28" s="4"/>
       <c r="B28" s="32"/>
       <c r="C28" s="49"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="68"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4875,8 +4877,8 @@
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="103"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="73"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="9"/>
       <c r="S28" s="53"/>
@@ -4903,8 +4905,8 @@
       <c r="A29" s="4"/>
       <c r="B29" s="32"/>
       <c r="C29" s="49"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="68"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -4913,8 +4915,8 @@
       <c r="L29" s="53"/>
       <c r="M29" s="54"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="103"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="53"/>
@@ -4941,8 +4943,8 @@
       <c r="A30" s="4"/>
       <c r="B30" s="32"/>
       <c r="C30" s="49"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="68"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -4951,8 +4953,8 @@
       <c r="L30" s="53"/>
       <c r="M30" s="54"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="103"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="73"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="9"/>
       <c r="S30" s="53"/>
@@ -4979,8 +4981,8 @@
       <c r="A31" s="4"/>
       <c r="B31" s="32"/>
       <c r="C31" s="49"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="68"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -4989,8 +4991,8 @@
       <c r="L31" s="53"/>
       <c r="M31" s="54"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="103"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="73"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="53"/>
@@ -5017,8 +5019,8 @@
       <c r="A32" s="4"/>
       <c r="B32" s="32"/>
       <c r="C32" s="49"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="67"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5029,8 +5031,8 @@
       <c r="L32" s="56"/>
       <c r="M32" s="57"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="104"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="12"/>
       <c r="S32" s="56"/>
@@ -5057,8 +5059,8 @@
       <c r="A33" s="4"/>
       <c r="B33" s="32"/>
       <c r="C33" s="49"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="95" t="s">
+      <c r="E33" s="94"/>
+      <c r="F33" s="89" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="68"/>
@@ -5069,8 +5071,8 @@
       <c r="L33" s="53"/>
       <c r="M33" s="54"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="103"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="73"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="53"/>
@@ -5097,8 +5099,8 @@
       <c r="A34" s="4"/>
       <c r="B34" s="32"/>
       <c r="C34" s="49"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="95"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="68"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5107,8 +5109,8 @@
       <c r="L34" s="53"/>
       <c r="M34" s="54"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="103"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="73"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="9"/>
       <c r="S34" s="53"/>
@@ -5135,8 +5137,8 @@
       <c r="A35" s="4"/>
       <c r="B35" s="32"/>
       <c r="C35" s="49"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="95"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="68"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5145,8 +5147,8 @@
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="103"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="53"/>
@@ -5173,8 +5175,8 @@
       <c r="A36" s="4"/>
       <c r="B36" s="32"/>
       <c r="C36" s="49"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="95"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="68"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -5183,8 +5185,8 @@
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="103"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="73"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="9"/>
       <c r="S36" s="53"/>
@@ -5211,8 +5213,8 @@
       <c r="A37" s="4"/>
       <c r="B37" s="34"/>
       <c r="C37" s="50"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="96"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="69"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -5221,8 +5223,8 @@
       <c r="L37" s="65"/>
       <c r="M37" s="66"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="106"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="76"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="64"/>
       <c r="S37" s="65"/>
@@ -5269,6 +5271,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="O5:O8"/>
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
@@ -5277,13 +5286,6 @@
     <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
     <mergeCell ref="O11:O37"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="O5:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5358,35 +5360,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5394,10 +5396,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="113"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5441,10 +5443,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="92"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B05C0-0715-473B-B03D-DDE4B40B0A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC21DD6-EF74-4C43-B077-7885304D1DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Monday</t>
   </si>
@@ -116,6 +116,9 @@
   <si>
     <t>Break</t>
   </si>
+  <si>
+    <t>Project</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -922,7 +931,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -932,59 +941,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -992,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1148,22 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,13 +1149,22 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1212,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B2E4779-3579-4402-9C26-BC5180452209}" type="CELLRANGE">
+                    <a:fld id="{1570C799-16DC-4B5F-8816-5DD0DFCCBCF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1467,7 +1419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43A6F220-E063-48B2-B22F-45AF726859E0}" type="CELLRANGE">
+                    <a:fld id="{134BFB42-2FD3-4A9D-A554-DCDAB03190EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{039FBB6D-8774-469F-8C2C-6F79D10564F0}" type="CELLRANGE">
+                    <a:fld id="{BB9A9194-DE6C-4307-B676-278EDA459792}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1535,7 +1487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A759993A-6E6C-4888-8BC3-10C50E679025}" type="CELLRANGE">
+                    <a:fld id="{3989F596-33CF-41AC-BDED-95295D2BD956}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4818A31-4B9C-49EF-A9F7-DCBD73F04EAF}" type="CELLRANGE">
+                    <a:fld id="{E79B2536-DB63-4512-9592-6CC8FA8BE2F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1603,7 +1555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1472432F-2095-4E9B-8C93-A1C049A12248}" type="CELLRANGE">
+                    <a:fld id="{BBE42E80-7D87-4C4B-8C40-648401F222D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1637,7 +1589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D40C53E-9008-45E4-9AEB-5519640D990C}" type="CELLRANGE">
+                    <a:fld id="{031EF85A-A16D-4C00-8C09-568487ECC0E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3231,7 +3183,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,7 +3199,7 @@
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" customWidth="1"/>
@@ -3292,14 +3244,14 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="E3" s="102" t="s">
+      <c r="C3" s="102"/>
+      <c r="E3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
@@ -3390,10 +3342,10 @@
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="15">
         <v>43572</v>
       </c>
@@ -3484,9 +3436,9 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="E5" s="99" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="E5" s="94" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -3521,16 +3473,15 @@
         <v>7</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="114" t="s">
+      <c r="O5" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="77">
-        <f t="shared" ref="P5:T5" si="1">COUNTIF(P11:P25, "*")+COUNT(P11:P25)</f>
-        <v>1</v>
+      <c r="P5" s="110" t="s">
+        <v>28</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="Q5:T5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
+        <v>2</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="1"/>
@@ -3609,9 +3560,9 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
@@ -3644,13 +3595,10 @@
         <v>2</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="78">
-        <f t="shared" ref="P6:U6" si="8">COUNT(P26:P32)</f>
-        <v>0</v>
-      </c>
+      <c r="O6" s="89"/>
+      <c r="P6" s="92"/>
       <c r="Q6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>0</v>
       </c>
       <c r="R6" s="6">
@@ -3730,9 +3678,9 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
@@ -3765,13 +3713,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="79">
-        <f t="shared" ref="P7:U7" si="15">COUNT(P33:P37)</f>
-        <v>0</v>
-      </c>
+      <c r="O7" s="89"/>
+      <c r="P7" s="92"/>
       <c r="Q7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q7:U7" si="15">COUNT(Q33:Q37)</f>
         <v>0</v>
       </c>
       <c r="R7" s="7">
@@ -3851,9 +3796,9 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="E8" s="101"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
@@ -3886,14 +3831,11 @@
         <v>9</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="80">
-        <f t="shared" ref="P8:Q8" si="20">SUM(P5:P7)</f>
-        <v>1</v>
-      </c>
+      <c r="O8" s="90"/>
+      <c r="P8" s="93"/>
       <c r="Q8" s="25">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="Q8" si="20">SUM(Q5:Q7)</f>
+        <v>2</v>
       </c>
       <c r="R8" s="25">
         <f>SUM(R5:R7)</f>
@@ -4009,51 +3951,51 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="E10" s="81" t="s">
+      <c r="C10" s="108"/>
+      <c r="E10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="83"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="81" t="s">
+      <c r="W10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="83"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="81" t="s">
+      <c r="AE10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="83"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="75"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4062,12 +4004,12 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:M5)+SUM(P5:U5)</f>
-        <v>53</v>
-      </c>
-      <c r="E11" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="76" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="38">
@@ -4092,13 +4034,15 @@
         <v>104</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="96" t="s">
+      <c r="O11" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="39">
         <v>897</v>
       </c>
-      <c r="Q11" s="10"/>
       <c r="R11" s="9"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
@@ -4129,8 +4073,8 @@
         <f>SUM(G6:M6)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="37">
         <v>1021</v>
       </c>
@@ -4153,9 +4097,11 @@
         <v>136</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="10"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="39">
+        <v>88</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
@@ -4186,8 +4132,8 @@
         <f>SUM(G7:M7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="37">
         <v>709</v>
       </c>
@@ -4210,8 +4156,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="73"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="92"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="9"/>
       <c r="S13" s="53"/>
@@ -4243,8 +4189,8 @@
         <f>SUM(G8:M8)</f>
         <v>60</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="37">
         <v>804</v>
       </c>
@@ -4265,8 +4211,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="73"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="92"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="9"/>
       <c r="S14" s="53"/>
@@ -4291,12 +4237,12 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="85"/>
+      <c r="C15" s="84"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="37">
         <v>929</v>
       </c>
@@ -4317,8 +4263,8 @@
         <v>25</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="73"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="92"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="9"/>
       <c r="S15" s="53"/>
@@ -4349,8 +4295,8 @@
       <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="37">
         <v>905</v>
       </c>
@@ -4371,8 +4317,8 @@
         <v>24</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="73"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="92"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="9"/>
       <c r="S16" s="53"/>
@@ -4403,8 +4349,8 @@
       <c r="C17" s="49">
         <v>0</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="37">
         <v>977</v>
       </c>
@@ -4419,8 +4365,8 @@
         <v>237</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="73"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="92"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="9"/>
       <c r="S17" s="53"/>
@@ -4449,8 +4395,8 @@
         <v>22</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="37">
         <v>832</v>
       </c>
@@ -4463,8 +4409,8 @@
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="73"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="92"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="9"/>
       <c r="S18" s="53"/>
@@ -4491,8 +4437,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="32"/>
       <c r="C19" s="49"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="37">
         <v>657</v>
       </c>
@@ -4505,8 +4451,8 @@
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="73"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="92"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="9"/>
       <c r="S19" s="53"/>
@@ -4533,8 +4479,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="32"/>
       <c r="C20" s="49"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="37">
         <v>461</v>
       </c>
@@ -4547,8 +4493,8 @@
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="73"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="92"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="9"/>
       <c r="S20" s="53"/>
@@ -4575,8 +4521,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="32"/>
       <c r="C21" s="49"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="37">
         <v>961</v>
       </c>
@@ -4587,8 +4533,8 @@
       <c r="L21" s="53"/>
       <c r="M21" s="54"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="73"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="92"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="9"/>
       <c r="S21" s="53"/>
@@ -4615,8 +4561,8 @@
       <c r="A22" s="4"/>
       <c r="B22" s="32"/>
       <c r="C22" s="49"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="37">
         <v>617</v>
       </c>
@@ -4627,8 +4573,8 @@
       <c r="L22" s="53"/>
       <c r="M22" s="54"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="73"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="92"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="9"/>
       <c r="S22" s="53"/>
@@ -4655,8 +4601,8 @@
       <c r="A23" s="4"/>
       <c r="B23" s="32"/>
       <c r="C23" s="49"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="37">
         <v>728</v>
       </c>
@@ -4667,8 +4613,8 @@
       <c r="L23" s="53"/>
       <c r="M23" s="54"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="73"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="9"/>
       <c r="S23" s="53"/>
@@ -4695,8 +4641,8 @@
       <c r="A24" s="4"/>
       <c r="B24" s="32"/>
       <c r="C24" s="49"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="37">
         <v>852</v>
       </c>
@@ -4707,8 +4653,8 @@
       <c r="L24" s="53"/>
       <c r="M24" s="54"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="73"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="92"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="9"/>
       <c r="S24" s="53"/>
@@ -4735,8 +4681,8 @@
       <c r="A25" s="4"/>
       <c r="B25" s="32"/>
       <c r="C25" s="49"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="67"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -4745,8 +4691,8 @@
       <c r="L25" s="56"/>
       <c r="M25" s="57"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="74"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="92"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
       <c r="S25" s="56"/>
@@ -4773,8 +4719,8 @@
       <c r="A26" s="4"/>
       <c r="B26" s="32"/>
       <c r="C26" s="49"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="86" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="68"/>
@@ -4795,8 +4741,8 @@
         <v>921</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="75"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="92"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="59"/>
       <c r="S26" s="60"/>
@@ -4823,8 +4769,8 @@
       <c r="A27" s="4"/>
       <c r="B27" s="32"/>
       <c r="C27" s="49"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="87"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="68"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -4839,8 +4785,8 @@
         <v>861</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="73"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="92"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="9"/>
       <c r="S27" s="53"/>
@@ -4867,8 +4813,8 @@
       <c r="A28" s="4"/>
       <c r="B28" s="32"/>
       <c r="C28" s="49"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="87"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="68"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4877,8 +4823,8 @@
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="73"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="92"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="9"/>
       <c r="S28" s="53"/>
@@ -4905,8 +4851,8 @@
       <c r="A29" s="4"/>
       <c r="B29" s="32"/>
       <c r="C29" s="49"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="87"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="68"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -4915,8 +4861,8 @@
       <c r="L29" s="53"/>
       <c r="M29" s="54"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="73"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="92"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="53"/>
@@ -4943,8 +4889,8 @@
       <c r="A30" s="4"/>
       <c r="B30" s="32"/>
       <c r="C30" s="49"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="87"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="68"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -4953,8 +4899,8 @@
       <c r="L30" s="53"/>
       <c r="M30" s="54"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="73"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="92"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="9"/>
       <c r="S30" s="53"/>
@@ -4981,8 +4927,8 @@
       <c r="A31" s="4"/>
       <c r="B31" s="32"/>
       <c r="C31" s="49"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="87"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="68"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -4991,8 +4937,8 @@
       <c r="L31" s="53"/>
       <c r="M31" s="54"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="73"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="92"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="53"/>
@@ -5019,8 +4965,8 @@
       <c r="A32" s="4"/>
       <c r="B32" s="32"/>
       <c r="C32" s="49"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="88"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="67"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5031,8 +4977,8 @@
       <c r="L32" s="56"/>
       <c r="M32" s="57"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="74"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="92"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="12"/>
       <c r="S32" s="56"/>
@@ -5059,8 +5005,8 @@
       <c r="A33" s="4"/>
       <c r="B33" s="32"/>
       <c r="C33" s="49"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="89" t="s">
+      <c r="E33" s="86"/>
+      <c r="F33" s="81" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="68"/>
@@ -5071,8 +5017,8 @@
       <c r="L33" s="53"/>
       <c r="M33" s="54"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="73"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="92"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="53"/>
@@ -5099,8 +5045,8 @@
       <c r="A34" s="4"/>
       <c r="B34" s="32"/>
       <c r="C34" s="49"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="89"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="68"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5109,8 +5055,8 @@
       <c r="L34" s="53"/>
       <c r="M34" s="54"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="73"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="92"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="9"/>
       <c r="S34" s="53"/>
@@ -5137,8 +5083,8 @@
       <c r="A35" s="4"/>
       <c r="B35" s="32"/>
       <c r="C35" s="49"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="68"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5147,8 +5093,8 @@
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="73"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="92"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="53"/>
@@ -5175,8 +5121,8 @@
       <c r="A36" s="4"/>
       <c r="B36" s="32"/>
       <c r="C36" s="49"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="89"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="68"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -5185,8 +5131,8 @@
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="73"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="92"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="9"/>
       <c r="S36" s="53"/>
@@ -5213,8 +5159,8 @@
       <c r="A37" s="4"/>
       <c r="B37" s="34"/>
       <c r="C37" s="50"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="90"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="69"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -5223,8 +5169,8 @@
       <c r="L37" s="65"/>
       <c r="M37" s="66"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="76"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="93"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="64"/>
       <c r="S37" s="65"/>
@@ -5270,7 +5216,7 @@
       <c r="U38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="B3:C8"/>
@@ -5278,6 +5224,7 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
@@ -5286,6 +5233,7 @@
     <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
     <mergeCell ref="O11:O37"/>
+    <mergeCell ref="P11:P37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5360,35 +5308,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="102"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5396,10 +5344,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="108"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5443,10 +5391,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC21DD6-EF74-4C43-B077-7885304D1DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D00B5-E704-4111-9F96-7351B4F17EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Monday</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>206i</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Break</t>
@@ -948,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1217,6 +1214,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,14 +1287,11 @@
               <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t> </a:t>
+              <a:t> Week 1</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>Record</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1386,7 +1383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1570C799-16DC-4B5F-8816-5DD0DFCCBCF5}" type="CELLRANGE">
+                    <a:fld id="{351D63D1-08B5-4562-AB2A-1AFA0A085C0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1419,7 +1416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{134BFB42-2FD3-4A9D-A554-DCDAB03190EE}" type="CELLRANGE">
+                    <a:fld id="{A2F7FB9F-9B66-478D-A0F5-74401FC6C23C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1453,7 +1450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB9A9194-DE6C-4307-B676-278EDA459792}" type="CELLRANGE">
+                    <a:fld id="{1D2B2930-ED16-4942-AFBF-41FB893FA229}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1487,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3989F596-33CF-41AC-BDED-95295D2BD956}" type="CELLRANGE">
+                    <a:fld id="{25EB1AED-58AD-4F2E-B26A-22A2ABED423B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1521,7 +1518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E79B2536-DB63-4512-9592-6CC8FA8BE2F3}" type="CELLRANGE">
+                    <a:fld id="{4BC79319-AB5B-41E5-9A54-468582F31B5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1555,7 +1552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBE42E80-7D87-4C4B-8C40-648401F222D0}" type="CELLRANGE">
+                    <a:fld id="{7A91C04E-3CE4-40F7-8ECF-DDAD79E3BC31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1589,7 +1586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{031EF85A-A16D-4C00-8C09-568487ECC0E6}" type="CELLRANGE">
+                    <a:fld id="{3AC38708-D09C-4825-9F5C-3FA45BC11362}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1875,7 +1872,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -2295,7 +2292,989 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>LeetCode</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Week 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33396456538553476"/>
+          <c:y val="2.3337078275469093E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17403630935890022"/>
+          <c:y val="0.10041762100325688"/>
+          <c:w val="0.75021686231071305"/>
+          <c:h val="0.7499973093816481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{23753A32-2832-46B4-9E59-E950400BCB24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E014-40C9-8DBD-CE8FEEB73922}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B72A0401-4D26-4FB2-95A0-22332973F3DD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E014-40C9-8DBD-CE8FEEB73922}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{251D8F1B-0BC0-4C6D-9DB8-A5CF1E5FFA24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E014-40C9-8DBD-CE8FEEB73922}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D19E5A39-BC46-4681-B014-A93D099CE891}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E014-40C9-8DBD-CE8FEEB73922}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{56164B75-FE9F-422D-BFF3-97E3CDDECB88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E014-40C9-8DBD-CE8FEEB73922}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$Q$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$Q$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>LeetCode!$Q$8:$U$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E014-40C9-8DBD-CE8FEEB73922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$Q$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$Q$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E014-40C9-8DBD-CE8FEEB73922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeetCode!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeetCode!$Q$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeetCode!$Q$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E014-40C9-8DBD-CE8FEEB73922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="776906447"/>
+        <c:axId val="771983551"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="776906447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Dates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45193873906731818"/>
+              <c:y val="0.9167098408736517"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="99000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771983551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="771983551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Problems Completed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.7387859748404084E-2"/>
+              <c:y val="0.30435751621247037"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776906447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="rnd" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35209940878546225"/>
+          <c:y val="0.10566752201481502"/>
+          <c:w val="0.4917316678698746"/>
+          <c:h val="4.3585599955436732E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2840,6 +3819,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2875,6 +4359,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4FCADF-592B-4202-92E5-08C20942E1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3183,7 +4705,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,14 +4996,14 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="110" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="110" t="s">
-        <v>28</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" ref="Q5:T5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="1"/>
@@ -3599,7 +5121,7 @@
       <c r="P6" s="92"/>
       <c r="Q6" s="6">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="8"/>
@@ -3835,7 +5357,7 @@
       <c r="P8" s="93"/>
       <c r="Q8" s="25">
         <f t="shared" ref="Q8" si="20">SUM(Q5:Q7)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R8" s="25">
         <f>SUM(R5:R7)</f>
@@ -4003,8 +5525,8 @@
         <v>11</v>
       </c>
       <c r="C11" s="44">
-        <f>SUM(G5:M5)+SUM(P5:U5)</f>
-        <v>54</v>
+        <f>SUM(G5:AC5)</f>
+        <v>67</v>
       </c>
       <c r="E11" s="85" t="s">
         <v>18</v>
@@ -4035,10 +5557,10 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="91" t="s">
         <v>27</v>
-      </c>
-      <c r="P11" s="91" t="s">
-        <v>28</v>
       </c>
       <c r="Q11" s="39">
         <v>897</v>
@@ -4070,8 +5592,8 @@
         <v>12</v>
       </c>
       <c r="C12" s="45">
-        <f>SUM(G6:M6)</f>
-        <v>8</v>
+        <f>SUM(G6:AC6)</f>
+        <v>10</v>
       </c>
       <c r="E12" s="86"/>
       <c r="F12" s="77"/>
@@ -4129,7 +5651,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="46">
-        <f>SUM(G7:M7)</f>
+        <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
       <c r="E13" s="86"/>
@@ -4158,7 +5680,9 @@
       <c r="N13" s="4"/>
       <c r="O13" s="89"/>
       <c r="P13" s="92"/>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="39">
+        <v>500</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="53"/>
       <c r="T13" s="53"/>
@@ -4186,8 +5710,8 @@
         <v>14</v>
       </c>
       <c r="C14" s="47">
-        <f>SUM(G8:M8)</f>
-        <v>60</v>
+        <f>SUM(G8:AC8)</f>
+        <v>77</v>
       </c>
       <c r="E14" s="86"/>
       <c r="F14" s="77"/>
@@ -4213,7 +5737,9 @@
       <c r="N14" s="4"/>
       <c r="O14" s="89"/>
       <c r="P14" s="92"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="39">
+        <v>806</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
@@ -4265,7 +5791,9 @@
       <c r="N15" s="4"/>
       <c r="O15" s="89"/>
       <c r="P15" s="92"/>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="39">
+        <v>872</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="53"/>
       <c r="T15" s="53"/>
@@ -4319,7 +5847,9 @@
       <c r="N16" s="4"/>
       <c r="O16" s="89"/>
       <c r="P16" s="92"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="39">
+        <v>682</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
@@ -4367,7 +5897,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="89"/>
       <c r="P17" s="92"/>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="39">
+        <v>637</v>
+      </c>
       <c r="R17" s="9"/>
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
@@ -4411,7 +5943,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="89"/>
       <c r="P18" s="92"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="39">
+        <v>937</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
@@ -4453,7 +5987,9 @@
       <c r="N19" s="4"/>
       <c r="O19" s="89"/>
       <c r="P19" s="92"/>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="39">
+        <v>226</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="S19" s="53"/>
       <c r="T19" s="53"/>
@@ -4495,7 +6031,9 @@
       <c r="N20" s="4"/>
       <c r="O20" s="89"/>
       <c r="P20" s="92"/>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="39">
+        <v>693</v>
+      </c>
       <c r="R20" s="9"/>
       <c r="S20" s="53"/>
       <c r="T20" s="53"/>
@@ -4535,7 +6073,9 @@
       <c r="N21" s="4"/>
       <c r="O21" s="89"/>
       <c r="P21" s="92"/>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="39">
+        <v>888</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="S21" s="53"/>
       <c r="T21" s="53"/>
@@ -4575,7 +6115,9 @@
       <c r="N22" s="4"/>
       <c r="O22" s="89"/>
       <c r="P22" s="92"/>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="39">
+        <v>896</v>
+      </c>
       <c r="R22" s="9"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
@@ -4615,7 +6157,9 @@
       <c r="N23" s="4"/>
       <c r="O23" s="89"/>
       <c r="P23" s="92"/>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="39">
+        <v>606</v>
+      </c>
       <c r="R23" s="9"/>
       <c r="S23" s="53"/>
       <c r="T23" s="53"/>
@@ -4655,7 +6199,9 @@
       <c r="N24" s="4"/>
       <c r="O24" s="89"/>
       <c r="P24" s="92"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="39">
+        <v>520</v>
+      </c>
       <c r="R24" s="9"/>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
@@ -4693,7 +6239,9 @@
       <c r="N25" s="4"/>
       <c r="O25" s="89"/>
       <c r="P25" s="92"/>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="39">
+        <v>993</v>
+      </c>
       <c r="R25" s="12"/>
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
@@ -4743,7 +6291,9 @@
       <c r="N26" s="4"/>
       <c r="O26" s="89"/>
       <c r="P26" s="92"/>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="14">
+        <v>791</v>
+      </c>
       <c r="R26" s="59"/>
       <c r="S26" s="60"/>
       <c r="T26" s="60"/>
@@ -4787,7 +6337,9 @@
       <c r="N27" s="4"/>
       <c r="O27" s="89"/>
       <c r="P27" s="92"/>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="111">
+        <v>856</v>
+      </c>
       <c r="R27" s="9"/>
       <c r="S27" s="53"/>
       <c r="T27" s="53"/>
@@ -4971,9 +6523,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="56"/>
       <c r="M32" s="57"/>
       <c r="N32" s="4"/>
@@ -5247,7 +6797,7 @@
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,8 +6905,8 @@
         <v>11</v>
       </c>
       <c r="C11" s="44">
-        <f>SUM(LeetCode!G5:'LeetCode'!M5)</f>
-        <v>52</v>
+        <f>LeetCode!C11</f>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5365,8 +6915,8 @@
         <v>12</v>
       </c>
       <c r="C12" s="45">
-        <f>SUM(LeetCode!G6:'LeetCode'!M6)</f>
-        <v>8</v>
+        <f>LeetCode!C12</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5375,7 +6925,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="46">
-        <f>SUM(LeetCode!G7:'LeetCode'!M7)</f>
+        <f>LeetCode!C13</f>
         <v>0</v>
       </c>
     </row>
@@ -5385,8 +6935,8 @@
         <v>14</v>
       </c>
       <c r="C14" s="47">
-        <f>SUM(LeetCode!G8:'LeetCode'!M8)</f>
-        <v>60</v>
+        <f>LeetCode!C14</f>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D00B5-E704-4111-9F96-7351B4F17EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2D669-9DB9-4BAE-A062-311F2CA6D741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1214,9 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1383,7 +1380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{351D63D1-08B5-4562-AB2A-1AFA0A085C0E}" type="CELLRANGE">
+                    <a:fld id="{0B0293BE-D815-477E-BCE2-94D33CFE84E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1416,7 +1413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2F7FB9F-9B66-478D-A0F5-74401FC6C23C}" type="CELLRANGE">
+                    <a:fld id="{B2F7D09B-B0EF-404E-8F62-1A8DFEF78E03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1450,7 +1447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D2B2930-ED16-4942-AFBF-41FB893FA229}" type="CELLRANGE">
+                    <a:fld id="{85BA8421-1505-493A-B153-0A0F66FCAE0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25EB1AED-58AD-4F2E-B26A-22A2ABED423B}" type="CELLRANGE">
+                    <a:fld id="{C1B84EC0-3D20-4426-9C47-81AA29DB4A81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1518,7 +1515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BC79319-AB5B-41E5-9A54-468582F31B5D}" type="CELLRANGE">
+                    <a:fld id="{02FE1BB9-2E47-4D4B-B827-4906F6DFDB2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1552,7 +1549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A91C04E-3CE4-40F7-8ECF-DDAD79E3BC31}" type="CELLRANGE">
+                    <a:fld id="{B4D8E2C4-FAB9-4E3A-8986-5A5AD1665DE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1586,7 +1583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AC38708-D09C-4825-9F5C-3FA45BC11362}" type="CELLRANGE">
+                    <a:fld id="{AB8EAA1E-69F5-4E0F-B153-F760A968A2AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2434,7 +2431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23753A32-2832-46B4-9E59-E950400BCB24}" type="CELLRANGE">
+                    <a:fld id="{521AECAB-6390-4ABF-9081-DED298DA612D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2468,7 +2465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72A0401-4D26-4FB2-95A0-22332973F3DD}" type="CELLRANGE">
+                    <a:fld id="{957CF90B-6451-41BC-964F-6175D9555733}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2502,7 +2499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{251D8F1B-0BC0-4C6D-9DB8-A5CF1E5FFA24}" type="CELLRANGE">
+                    <a:fld id="{BF81ED27-5486-4653-9EB9-C5F114AE0B28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2536,7 +2533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D19E5A39-BC46-4681-B014-A93D099CE891}" type="CELLRANGE">
+                    <a:fld id="{E4C877AB-AB2B-4189-B15D-D1779C2EA5FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2570,7 +2567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56164B75-FE9F-422D-BFF3-97E3CDDECB88}" type="CELLRANGE">
+                    <a:fld id="{A8FCBA54-0730-4C5E-B836-2E711F226D11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2684,7 +2681,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2708,7 +2705,7 @@
                     <c:v>17</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2790,7 +2787,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4705,7 +4702,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="R5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="1"/>
@@ -5125,7 +5122,7 @@
       </c>
       <c r="R6" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="8"/>
@@ -5361,7 +5358,7 @@
       </c>
       <c r="R8" s="25">
         <f>SUM(R5:R7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:U8" si="21">SUM(S5:S7)</f>
@@ -5526,7 +5523,7 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:AC5)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E11" s="85" t="s">
         <v>18</v>
@@ -5565,7 +5562,9 @@
       <c r="Q11" s="39">
         <v>897</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="39">
+        <v>169</v>
+      </c>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
       <c r="U11" s="54"/>
@@ -5593,7 +5592,7 @@
       </c>
       <c r="C12" s="45">
         <f>SUM(G6:AC6)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="86"/>
       <c r="F12" s="77"/>
@@ -5624,7 +5623,9 @@
       <c r="Q12" s="39">
         <v>88</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="39">
+        <v>242</v>
+      </c>
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
       <c r="U12" s="54"/>
@@ -5683,7 +5684,9 @@
       <c r="Q13" s="39">
         <v>500</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="39">
+        <v>383</v>
+      </c>
       <c r="S13" s="53"/>
       <c r="T13" s="53"/>
       <c r="U13" s="54"/>
@@ -5711,7 +5714,7 @@
       </c>
       <c r="C14" s="47">
         <f>SUM(G8:AC8)</f>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E14" s="86"/>
       <c r="F14" s="77"/>
@@ -5740,7 +5743,9 @@
       <c r="Q14" s="39">
         <v>806</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="39">
+        <v>733</v>
+      </c>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
       <c r="U14" s="54"/>
@@ -5794,7 +5799,9 @@
       <c r="Q15" s="39">
         <v>872</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="39">
+        <v>171</v>
+      </c>
       <c r="S15" s="53"/>
       <c r="T15" s="53"/>
       <c r="U15" s="54"/>
@@ -5850,7 +5857,9 @@
       <c r="Q16" s="39">
         <v>682</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="39">
+        <v>371</v>
+      </c>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
       <c r="U16" s="54"/>
@@ -5900,7 +5909,9 @@
       <c r="Q17" s="39">
         <v>637</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="39">
+        <v>453</v>
+      </c>
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
       <c r="U17" s="54"/>
@@ -6294,7 +6305,9 @@
       <c r="Q26" s="14">
         <v>791</v>
       </c>
-      <c r="R26" s="59"/>
+      <c r="R26" s="14">
+        <v>1026</v>
+      </c>
       <c r="S26" s="60"/>
       <c r="T26" s="60"/>
       <c r="U26" s="61"/>
@@ -6337,10 +6350,12 @@
       <c r="N27" s="4"/>
       <c r="O27" s="89"/>
       <c r="P27" s="92"/>
-      <c r="Q27" s="111">
+      <c r="Q27" s="14">
         <v>856</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="14">
+        <v>677</v>
+      </c>
       <c r="S27" s="53"/>
       <c r="T27" s="53"/>
       <c r="U27" s="54"/>
@@ -6378,7 +6393,9 @@
       <c r="O28" s="89"/>
       <c r="P28" s="92"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="9"/>
+      <c r="R28" s="14">
+        <v>1022</v>
+      </c>
       <c r="S28" s="53"/>
       <c r="T28" s="53"/>
       <c r="U28" s="54"/>
@@ -6906,7 +6923,7 @@
       </c>
       <c r="C11" s="44">
         <f>LeetCode!C11</f>
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6916,7 +6933,7 @@
       </c>
       <c r="C12" s="45">
         <f>LeetCode!C12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6936,7 +6953,7 @@
       </c>
       <c r="C14" s="47">
         <f>LeetCode!C14</f>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2D669-9DB9-4BAE-A062-311F2CA6D741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F8A85-79C1-4C9C-98FA-BCA010F741E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -1101,6 +1101,45 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,6 +1149,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,70 +1212,7 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B0293BE-D815-477E-BCE2-94D33CFE84E1}" type="CELLRANGE">
+                    <a:fld id="{823419AF-241D-43CA-8688-FCC4C0BC68A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1413,7 +1413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2F7D09B-B0EF-404E-8F62-1A8DFEF78E03}" type="CELLRANGE">
+                    <a:fld id="{5054D1C0-DF18-458B-B16F-66E0A21CA659}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1447,7 +1447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85BA8421-1505-493A-B153-0A0F66FCAE0F}" type="CELLRANGE">
+                    <a:fld id="{A20D16F1-F094-4A22-80F7-E9D6D4FE476D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1481,7 +1481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1B84EC0-3D20-4426-9C47-81AA29DB4A81}" type="CELLRANGE">
+                    <a:fld id="{6C48A36F-DCAE-4321-88E4-1D8BE4B3AE51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1515,7 +1515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02FE1BB9-2E47-4D4B-B827-4906F6DFDB2D}" type="CELLRANGE">
+                    <a:fld id="{D6EFA631-0109-4068-AEEF-B167CC1FAD73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1549,7 +1549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4D8E2C4-FAB9-4E3A-8986-5A5AD1665DE7}" type="CELLRANGE">
+                    <a:fld id="{6F2CFE37-D4DC-4025-ABA2-3BA64CF82D6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1583,7 +1583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB8EAA1E-69F5-4E0F-B153-F760A968A2AF}" type="CELLRANGE">
+                    <a:fld id="{134329C7-F401-418E-92DC-48DAED2381C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2431,7 +2431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{521AECAB-6390-4ABF-9081-DED298DA612D}" type="CELLRANGE">
+                    <a:fld id="{66863D12-CAE6-45E6-AB23-432AF98453EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2465,7 +2465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{957CF90B-6451-41BC-964F-6175D9555733}" type="CELLRANGE">
+                    <a:fld id="{CEF61221-0608-4AA4-9858-C8DCC2128A29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2499,7 +2499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF81ED27-5486-4653-9EB9-C5F114AE0B28}" type="CELLRANGE">
+                    <a:fld id="{1A6DDD8F-6775-4081-940F-D14C4B0986AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2533,7 +2533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4C877AB-AB2B-4189-B15D-D1779C2EA5FE}" type="CELLRANGE">
+                    <a:fld id="{80811C19-D2F5-441D-AE44-BA4784B9C5F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2567,7 +2567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8FCBA54-0730-4C5E-B836-2E711F226D11}" type="CELLRANGE">
+                    <a:fld id="{2D1753C8-E028-4EB6-83DB-BB9C27BD02C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2684,7 +2684,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2708,7 +2708,7 @@
                     <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -2790,7 +2790,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4702,7 +4702,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,14 +4763,14 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="E3" s="97" t="s">
+      <c r="C3" s="81"/>
+      <c r="E3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="15">
         <v>43572</v>
       </c>
@@ -4955,9 +4955,9 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="E5" s="94" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="E5" s="73" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -4992,10 +4992,10 @@
         <v>7</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="P5" s="94" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="5">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="S5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="1"/>
@@ -5079,9 +5079,9 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="E6" s="95"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
@@ -5114,8 +5114,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="95"/>
       <c r="Q6" s="6">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>2</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="S6" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="6">
         <f t="shared" si="8"/>
@@ -5197,9 +5197,9 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
@@ -5232,8 +5232,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="7">
         <f t="shared" ref="Q7:U7" si="15">COUNT(Q33:Q37)</f>
         <v>0</v>
@@ -5315,9 +5315,9 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
@@ -5350,8 +5350,8 @@
         <v>9</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="96"/>
       <c r="Q8" s="25">
         <f t="shared" ref="Q8" si="20">SUM(Q5:Q7)</f>
         <v>17</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:U8" si="21">SUM(S5:S7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="21"/>
@@ -5470,51 +5470,51 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="E10" s="73" t="s">
+      <c r="C10" s="90"/>
+      <c r="E10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="73" t="s">
+      <c r="O10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="75"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="73" t="s">
+      <c r="W10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="75"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="88"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="73" t="s">
+      <c r="AE10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="75"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="88"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5523,12 +5523,12 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:AC5)</f>
-        <v>74</v>
-      </c>
-      <c r="E11" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="97" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="38">
@@ -5553,10 +5553,10 @@
         <v>104</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="88" t="s">
+      <c r="O11" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="P11" s="110" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="39">
@@ -5565,7 +5565,9 @@
       <c r="R11" s="39">
         <v>169</v>
       </c>
-      <c r="S11" s="53"/>
+      <c r="S11" s="39">
+        <v>1033</v>
+      </c>
       <c r="T11" s="53"/>
       <c r="U11" s="54"/>
       <c r="V11" s="4"/>
@@ -5592,10 +5594,10 @@
       </c>
       <c r="C12" s="45">
         <f>SUM(G6:AC6)</f>
-        <v>13</v>
-      </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="77"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="107"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="37">
         <v>1021</v>
       </c>
@@ -5618,8 +5620,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="95"/>
       <c r="Q12" s="39">
         <v>88</v>
       </c>
@@ -5655,8 +5657,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="77"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="37">
         <v>709</v>
       </c>
@@ -5679,8 +5681,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="95"/>
       <c r="Q13" s="39">
         <v>500</v>
       </c>
@@ -5714,10 +5716,10 @@
       </c>
       <c r="C14" s="47">
         <f>SUM(G8:AC8)</f>
-        <v>87</v>
-      </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="77"/>
+        <v>91</v>
+      </c>
+      <c r="E14" s="107"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="37">
         <v>804</v>
       </c>
@@ -5738,8 +5740,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="95"/>
       <c r="Q14" s="39">
         <v>806</v>
       </c>
@@ -5768,12 +5770,12 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="77"/>
+      <c r="C15" s="105"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="37">
         <v>929</v>
       </c>
@@ -5794,8 +5796,8 @@
         <v>25</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="95"/>
       <c r="Q15" s="39">
         <v>872</v>
       </c>
@@ -5830,8 +5832,8 @@
       <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="37">
         <v>905</v>
       </c>
@@ -5852,8 +5854,8 @@
         <v>24</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="95"/>
       <c r="Q16" s="39">
         <v>682</v>
       </c>
@@ -5888,8 +5890,8 @@
       <c r="C17" s="49">
         <v>0</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="77"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="37">
         <v>977</v>
       </c>
@@ -5904,8 +5906,8 @@
         <v>237</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="95"/>
       <c r="Q17" s="39">
         <v>637</v>
       </c>
@@ -5938,8 +5940,8 @@
         <v>22</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="77"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="37">
         <v>832</v>
       </c>
@@ -5952,8 +5954,8 @@
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="95"/>
       <c r="Q18" s="39">
         <v>937</v>
       </c>
@@ -5982,8 +5984,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="32"/>
       <c r="C19" s="49"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="37">
         <v>657</v>
       </c>
@@ -5996,8 +5998,8 @@
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="95"/>
       <c r="Q19" s="39">
         <v>226</v>
       </c>
@@ -6026,8 +6028,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="32"/>
       <c r="C20" s="49"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="77"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="37">
         <v>461</v>
       </c>
@@ -6040,8 +6042,8 @@
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="95"/>
       <c r="Q20" s="39">
         <v>693</v>
       </c>
@@ -6070,8 +6072,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="32"/>
       <c r="C21" s="49"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="77"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="37">
         <v>961</v>
       </c>
@@ -6082,8 +6084,8 @@
       <c r="L21" s="53"/>
       <c r="M21" s="54"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="95"/>
       <c r="Q21" s="39">
         <v>888</v>
       </c>
@@ -6112,8 +6114,8 @@
       <c r="A22" s="4"/>
       <c r="B22" s="32"/>
       <c r="C22" s="49"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="77"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="37">
         <v>617</v>
       </c>
@@ -6124,8 +6126,8 @@
       <c r="L22" s="53"/>
       <c r="M22" s="54"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="95"/>
       <c r="Q22" s="39">
         <v>896</v>
       </c>
@@ -6154,8 +6156,8 @@
       <c r="A23" s="4"/>
       <c r="B23" s="32"/>
       <c r="C23" s="49"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="77"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="37">
         <v>728</v>
       </c>
@@ -6166,8 +6168,8 @@
       <c r="L23" s="53"/>
       <c r="M23" s="54"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="95"/>
       <c r="Q23" s="39">
         <v>606</v>
       </c>
@@ -6196,8 +6198,8 @@
       <c r="A24" s="4"/>
       <c r="B24" s="32"/>
       <c r="C24" s="49"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="77"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="37">
         <v>852</v>
       </c>
@@ -6208,8 +6210,8 @@
       <c r="L24" s="53"/>
       <c r="M24" s="54"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="95"/>
       <c r="Q24" s="39">
         <v>520</v>
       </c>
@@ -6238,8 +6240,8 @@
       <c r="A25" s="4"/>
       <c r="B25" s="32"/>
       <c r="C25" s="49"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="77"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="67"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -6248,8 +6250,8 @@
       <c r="L25" s="56"/>
       <c r="M25" s="57"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="95"/>
       <c r="Q25" s="39">
         <v>993</v>
       </c>
@@ -6278,8 +6280,8 @@
       <c r="A26" s="4"/>
       <c r="B26" s="32"/>
       <c r="C26" s="49"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="78" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="99" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="68"/>
@@ -6300,15 +6302,17 @@
         <v>921</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="95"/>
       <c r="Q26" s="14">
         <v>791</v>
       </c>
       <c r="R26" s="14">
         <v>1026</v>
       </c>
-      <c r="S26" s="60"/>
+      <c r="S26" s="60">
+        <v>1019</v>
+      </c>
       <c r="T26" s="60"/>
       <c r="U26" s="61"/>
       <c r="V26" s="4"/>
@@ -6332,8 +6336,8 @@
       <c r="A27" s="4"/>
       <c r="B27" s="32"/>
       <c r="C27" s="49"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="79"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="68"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -6348,15 +6352,17 @@
         <v>861</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="95"/>
       <c r="Q27" s="14">
         <v>856</v>
       </c>
       <c r="R27" s="14">
         <v>677</v>
       </c>
-      <c r="S27" s="53"/>
+      <c r="S27" s="14">
+        <v>1034</v>
+      </c>
       <c r="T27" s="53"/>
       <c r="U27" s="54"/>
       <c r="V27" s="4"/>
@@ -6380,8 +6386,8 @@
       <c r="A28" s="4"/>
       <c r="B28" s="32"/>
       <c r="C28" s="49"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="100"/>
       <c r="G28" s="68"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -6390,13 +6396,15 @@
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="95"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="14">
         <v>1022</v>
       </c>
-      <c r="S28" s="53"/>
+      <c r="S28" s="14">
+        <v>1035</v>
+      </c>
       <c r="T28" s="53"/>
       <c r="U28" s="54"/>
       <c r="V28" s="4"/>
@@ -6420,8 +6428,8 @@
       <c r="A29" s="4"/>
       <c r="B29" s="32"/>
       <c r="C29" s="49"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="79"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="100"/>
       <c r="G29" s="68"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -6430,8 +6438,8 @@
       <c r="L29" s="53"/>
       <c r="M29" s="54"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="53"/>
@@ -6458,8 +6466,8 @@
       <c r="A30" s="4"/>
       <c r="B30" s="32"/>
       <c r="C30" s="49"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="79"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="100"/>
       <c r="G30" s="68"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -6468,8 +6476,8 @@
       <c r="L30" s="53"/>
       <c r="M30" s="54"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="95"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="9"/>
       <c r="S30" s="53"/>
@@ -6496,8 +6504,8 @@
       <c r="A31" s="4"/>
       <c r="B31" s="32"/>
       <c r="C31" s="49"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="79"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="100"/>
       <c r="G31" s="68"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -6506,8 +6514,8 @@
       <c r="L31" s="53"/>
       <c r="M31" s="54"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="53"/>
@@ -6534,8 +6542,8 @@
       <c r="A32" s="4"/>
       <c r="B32" s="32"/>
       <c r="C32" s="49"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="80"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="67"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -6544,8 +6552,8 @@
       <c r="L32" s="56"/>
       <c r="M32" s="57"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="12"/>
       <c r="S32" s="56"/>
@@ -6572,8 +6580,8 @@
       <c r="A33" s="4"/>
       <c r="B33" s="32"/>
       <c r="C33" s="49"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="81" t="s">
+      <c r="E33" s="107"/>
+      <c r="F33" s="102" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="68"/>
@@ -6584,8 +6592,8 @@
       <c r="L33" s="53"/>
       <c r="M33" s="54"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="53"/>
@@ -6612,8 +6620,8 @@
       <c r="A34" s="4"/>
       <c r="B34" s="32"/>
       <c r="C34" s="49"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="81"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="68"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -6622,8 +6630,8 @@
       <c r="L34" s="53"/>
       <c r="M34" s="54"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="9"/>
       <c r="S34" s="53"/>
@@ -6650,8 +6658,8 @@
       <c r="A35" s="4"/>
       <c r="B35" s="32"/>
       <c r="C35" s="49"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="81"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="68"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6660,8 +6668,8 @@
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="95"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="53"/>
@@ -6688,8 +6696,8 @@
       <c r="A36" s="4"/>
       <c r="B36" s="32"/>
       <c r="C36" s="49"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="81"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="68"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -6698,8 +6706,8 @@
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="95"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="9"/>
       <c r="S36" s="53"/>
@@ -6726,8 +6734,8 @@
       <c r="A37" s="4"/>
       <c r="B37" s="34"/>
       <c r="C37" s="50"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="82"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="103"/>
       <c r="G37" s="69"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -6736,8 +6744,8 @@
       <c r="L37" s="65"/>
       <c r="M37" s="66"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="96"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="64"/>
       <c r="S37" s="65"/>
@@ -6784,14 +6792,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
@@ -6801,6 +6801,14 @@
     <mergeCell ref="W10:AC10"/>
     <mergeCell ref="O11:O37"/>
     <mergeCell ref="P11:P37"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6875,35 +6883,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -6911,10 +6919,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6923,7 +6931,7 @@
       </c>
       <c r="C11" s="44">
         <f>LeetCode!C11</f>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6933,7 +6941,7 @@
       </c>
       <c r="C12" s="45">
         <f>LeetCode!C12</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6953,15 +6961,15 @@
       </c>
       <c r="C14" s="47">
         <f>LeetCode!C14</f>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="105"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F8A85-79C1-4C9C-98FA-BCA010F741E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B833AB-2DC1-40E9-AADC-41595F865198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Monday</t>
   </si>
@@ -103,12 +106,6 @@
   </si>
   <si>
     <t>Problems by ID</t>
-  </si>
-  <si>
-    <t>206r</t>
-  </si>
-  <si>
-    <t>206i</t>
   </si>
   <si>
     <t>Break</t>
@@ -286,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -940,12 +937,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1215,6 +1249,36 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1224,10 +1288,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF55211F"/>
       <color rgb="FFA50021"/>
       <color rgb="FFC4934C"/>
       <color rgb="FFB44742"/>
-      <color rgb="FF55211F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1380,7 +1444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{823419AF-241D-43CA-8688-FCC4C0BC68A1}" type="CELLRANGE">
+                    <a:fld id="{93D6D898-3CDB-4785-B8E1-34528E769C00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1413,7 +1477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5054D1C0-DF18-458B-B16F-66E0A21CA659}" type="CELLRANGE">
+                    <a:fld id="{CB8CB4F8-D183-429E-A7A0-CFB54BF10C71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1447,7 +1511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A20D16F1-F094-4A22-80F7-E9D6D4FE476D}" type="CELLRANGE">
+                    <a:fld id="{58A76FB9-8D4C-4635-9BAE-A222C0A732D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1481,7 +1545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C48A36F-DCAE-4321-88E4-1D8BE4B3AE51}" type="CELLRANGE">
+                    <a:fld id="{C0BAFCBA-0D5B-447C-ACAB-AF3607F15EC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1515,7 +1579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6EFA631-0109-4068-AEEF-B167CC1FAD73}" type="CELLRANGE">
+                    <a:fld id="{4B464723-E8E7-4A2A-A03F-E5C4CB929FA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1549,7 +1613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F2CFE37-D4DC-4025-ABA2-3BA64CF82D6E}" type="CELLRANGE">
+                    <a:fld id="{ECDFFBE9-6814-40C5-9F5C-91BB4975F383}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1583,7 +1647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{134329C7-F401-418E-92DC-48DAED2381C9}" type="CELLRANGE">
+                    <a:fld id="{78A29E2E-2FE5-4F34-ADC9-9FCC3E2CFF44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1718,7 +1782,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1812,7 @@
                     <c:v>8</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9</c:v>
+                    <c:v>8</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2431,7 +2495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66863D12-CAE6-45E6-AB23-432AF98453EE}" type="CELLRANGE">
+                    <a:fld id="{0DCC8E02-284E-483D-BA73-BD87A3E7F126}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2465,7 +2529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEF61221-0608-4AA4-9858-C8DCC2128A29}" type="CELLRANGE">
+                    <a:fld id="{708BABEE-628E-4DFB-9530-722D40C8E5A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2499,7 +2563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A6DDD8F-6775-4081-940F-D14C4B0986AB}" type="CELLRANGE">
+                    <a:fld id="{1B42909E-AEDE-4E95-98DD-642BD76B888E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2533,7 +2597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80811C19-D2F5-441D-AE44-BA4784B9C5F1}" type="CELLRANGE">
+                    <a:fld id="{D83C109A-C871-4795-BD3B-5692FF1430F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2567,7 +2631,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D1753C8-E028-4EB6-83DB-BB9C27BD02C6}" type="CELLRANGE">
+                    <a:fld id="{A582DDB2-5D7B-45FD-93B5-C6FF42BAB1CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2684,13 +2748,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,13 +2772,13 @@
                     <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>15</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2790,10 +2854,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4702,7 +4766,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4989,14 +5053,14 @@
       </c>
       <c r="M5" s="5">
         <f>COUNTIF(M11:M25, "*")+COUNT(M11:M25)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" ref="Q5:T5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
@@ -5008,15 +5072,15 @@
       </c>
       <c r="S5" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(T11:T23, "*")+COUNT(T11:T23)</f>
+        <v>13</v>
       </c>
       <c r="U5" s="20">
         <f>COUNTIF(U11:U25, "*")+COUNT(U11:U25)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="17">
@@ -5125,12 +5189,12 @@
         <v>3</v>
       </c>
       <c r="S6" s="6">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>COUNT(S26:S32)</f>
+        <v>2</v>
       </c>
       <c r="T6" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="21">
         <f t="shared" si="8"/>
@@ -5216,42 +5280,42 @@
         <v>0</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7:K7" si="12">COUNT(J33:J37)</f>
+        <f>COUNT(J33:J37)</f>
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="12"/>
+        <f>COUNT(K33:K37)</f>
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" ref="L7" si="13">COUNT(L33:L37)</f>
+        <f t="shared" ref="L7" si="12">COUNT(L33:L37)</f>
         <v>0</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" ref="M7" si="14">COUNT(M33:M37)</f>
+        <f t="shared" ref="M7" si="13">COUNT(M33:M37)</f>
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="92"/>
       <c r="P7" s="95"/>
       <c r="Q7" s="7">
-        <f t="shared" ref="Q7:U7" si="15">COUNT(Q33:Q37)</f>
+        <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
         <v>0</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U7" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V7" s="4"/>
@@ -5260,27 +5324,27 @@
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" ref="X7:AC7" si="16">COUNT(X33:X37)</f>
+        <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA7" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB7" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC7" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD7" s="4"/>
@@ -5289,27 +5353,27 @@
         <v>0</v>
       </c>
       <c r="AF7" s="7">
-        <f t="shared" ref="AF7:AK7" si="17">COUNT(AF33:AF37)</f>
+        <f t="shared" ref="AF7:AK7" si="16">COUNT(AF33:AF37)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK7" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5326,11 +5390,11 @@
         <v>14</v>
       </c>
       <c r="H8" s="25">
-        <f t="shared" ref="H8:M8" si="18">SUM(H5:H7)</f>
+        <f t="shared" ref="H8:M8" si="17">SUM(H5:H7)</f>
         <v>10</v>
       </c>
       <c r="I8" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J8" s="25">
@@ -5338,22 +5402,22 @@
         <v>7</v>
       </c>
       <c r="K8" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L8" s="25">
-        <f t="shared" ref="L8" si="19">SUM(L5:L7)</f>
+        <f t="shared" ref="L8" si="18">SUM(L5:L7)</f>
         <v>8</v>
       </c>
       <c r="M8" s="26">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="93"/>
       <c r="P8" s="96"/>
       <c r="Q8" s="25">
-        <f t="shared" ref="Q8" si="20">SUM(Q5:Q7)</f>
+        <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
         <v>17</v>
       </c>
       <c r="R8" s="25">
@@ -5361,16 +5425,16 @@
         <v>10</v>
       </c>
       <c r="S8" s="25">
-        <f t="shared" ref="S8:U8" si="21">SUM(S5:S7)</f>
-        <v>4</v>
+        <f t="shared" ref="S8:U8" si="20">SUM(S5:S7)</f>
+        <v>11</v>
       </c>
       <c r="T8" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>15</v>
       </c>
       <c r="U8" s="26">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>11</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="36">
@@ -5378,11 +5442,11 @@
         <v>0</v>
       </c>
       <c r="X8" s="25">
-        <f t="shared" ref="X8:Y8" si="22">SUM(X5:X7)</f>
+        <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z8" s="25">
@@ -5390,15 +5454,15 @@
         <v>0</v>
       </c>
       <c r="AA8" s="25">
-        <f t="shared" ref="AA8:AC8" si="23">SUM(AA5:AA7)</f>
+        <f t="shared" ref="AA8:AC8" si="22">SUM(AA5:AA7)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC8" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD8" s="4"/>
@@ -5407,11 +5471,11 @@
         <v>0</v>
       </c>
       <c r="AF8" s="25">
-        <f t="shared" ref="AF8:AG8" si="24">SUM(AF5:AF7)</f>
+        <f t="shared" ref="AF8:AG8" si="23">SUM(AF5:AF7)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AH8" s="25">
@@ -5419,15 +5483,15 @@
         <v>0</v>
       </c>
       <c r="AI8" s="25">
-        <f t="shared" ref="AI8:AK8" si="25">SUM(AI5:AI7)</f>
+        <f t="shared" ref="AI8:AK8" si="24">SUM(AI5:AI7)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK8" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5486,15 +5550,15 @@
       <c r="L10" s="87"/>
       <c r="M10" s="88"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="88"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
       <c r="V10" s="4"/>
       <c r="W10" s="86" t="s">
         <v>23</v>
@@ -5523,7 +5587,7 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:AC5)</f>
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E11" s="106" t="s">
         <v>18</v>
@@ -5554,22 +5618,26 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P11" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="39">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="116">
         <v>897</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="116">
         <v>169</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="116">
         <v>1033</v>
       </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
+      <c r="T11" s="116">
+        <v>9</v>
+      </c>
+      <c r="U11" s="117">
+        <v>155</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="W11" s="52"/>
       <c r="X11" s="10"/>
@@ -5594,7 +5662,7 @@
       </c>
       <c r="C12" s="45">
         <f>SUM(G6:AC6)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="107"/>
       <c r="F12" s="98"/>
@@ -5628,9 +5696,15 @@
       <c r="R12" s="39">
         <v>242</v>
       </c>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="54"/>
+      <c r="S12" s="8">
+        <v>1010</v>
+      </c>
+      <c r="T12" s="8">
+        <v>13</v>
+      </c>
+      <c r="U12" s="71">
+        <v>189</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="52"/>
       <c r="X12" s="10"/>
@@ -5689,9 +5763,15 @@
       <c r="R13" s="39">
         <v>383</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
+      <c r="S13" s="8">
+        <v>771</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="71">
+        <v>202</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="52"/>
       <c r="X13" s="10"/>
@@ -5716,7 +5796,7 @@
       </c>
       <c r="C14" s="47">
         <f>SUM(G8:AC8)</f>
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E14" s="107"/>
       <c r="F14" s="98"/>
@@ -5748,9 +5828,15 @@
       <c r="R14" s="39">
         <v>733</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
+      <c r="S14" s="8">
+        <v>791</v>
+      </c>
+      <c r="T14" s="8">
+        <v>20</v>
+      </c>
+      <c r="U14" s="71">
+        <v>235</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="52"/>
       <c r="X14" s="10"/>
@@ -5792,8 +5878,8 @@
       <c r="L15" s="39">
         <v>976</v>
       </c>
-      <c r="M15" s="71" t="s">
-        <v>25</v>
+      <c r="M15" s="71">
+        <v>206</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="92"/>
@@ -5804,9 +5890,15 @@
       <c r="R15" s="39">
         <v>171</v>
       </c>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
+      <c r="S15" s="8">
+        <v>844</v>
+      </c>
+      <c r="T15" s="8">
+        <v>387</v>
+      </c>
+      <c r="U15" s="71">
+        <v>496</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="52"/>
       <c r="X15" s="10"/>
@@ -5850,8 +5942,8 @@
       <c r="L16" s="39">
         <v>1009</v>
       </c>
-      <c r="M16" s="71" t="s">
-        <v>24</v>
+      <c r="M16" s="71">
+        <v>237</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="92"/>
@@ -5862,9 +5954,15 @@
       <c r="R16" s="39">
         <v>371</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
+      <c r="S16" s="8">
+        <v>868</v>
+      </c>
+      <c r="T16" s="8">
+        <v>448</v>
+      </c>
+      <c r="U16" s="71">
+        <v>559</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="52"/>
       <c r="X16" s="10"/>
@@ -5902,9 +6000,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="71">
-        <v>237</v>
-      </c>
+      <c r="M17" s="54"/>
       <c r="N17" s="4"/>
       <c r="O17" s="92"/>
       <c r="P17" s="95"/>
@@ -5914,9 +6010,15 @@
       <c r="R17" s="39">
         <v>453</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
+      <c r="S17" s="8">
+        <v>917</v>
+      </c>
+      <c r="T17" s="8">
+        <v>27</v>
+      </c>
+      <c r="U17" s="71">
+        <v>590</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="52"/>
       <c r="X17" s="10"/>
@@ -5960,9 +6062,15 @@
         <v>937</v>
       </c>
       <c r="R18" s="9"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54"/>
+      <c r="S18" s="8">
+        <v>933</v>
+      </c>
+      <c r="T18" s="8">
+        <v>28</v>
+      </c>
+      <c r="U18" s="71">
+        <v>700</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="52"/>
       <c r="X18" s="10"/>
@@ -6004,9 +6112,15 @@
         <v>226</v>
       </c>
       <c r="R19" s="9"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
+      <c r="S19" s="8">
+        <v>938</v>
+      </c>
+      <c r="T19" s="8">
+        <v>35</v>
+      </c>
+      <c r="U19" s="71">
+        <v>701</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="52"/>
       <c r="X19" s="10"/>
@@ -6049,8 +6163,12 @@
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54"/>
+      <c r="T20" s="113">
+        <v>69</v>
+      </c>
+      <c r="U20" s="71">
+        <v>21</v>
+      </c>
       <c r="V20" s="4"/>
       <c r="W20" s="52"/>
       <c r="X20" s="10"/>
@@ -6091,8 +6209,12 @@
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
+      <c r="T21" s="113">
+        <v>941</v>
+      </c>
+      <c r="U21" s="118">
+        <v>26</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="W21" s="52"/>
       <c r="X21" s="10"/>
@@ -6133,8 +6255,10 @@
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54"/>
+      <c r="T22" s="113">
+        <v>1018</v>
+      </c>
+      <c r="U22" s="119"/>
       <c r="V22" s="4"/>
       <c r="W22" s="52"/>
       <c r="X22" s="10"/>
@@ -6175,8 +6299,10 @@
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
+      <c r="T23" s="113">
+        <v>1022</v>
+      </c>
+      <c r="U23" s="120"/>
       <c r="V23" s="4"/>
       <c r="W23" s="52"/>
       <c r="X23" s="10"/>
@@ -6218,7 +6344,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
+      <c r="U24" s="120"/>
       <c r="V24" s="4"/>
       <c r="W24" s="52"/>
       <c r="X24" s="10"/>
@@ -6258,7 +6384,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
-      <c r="U25" s="57"/>
+      <c r="U25" s="114"/>
       <c r="V25" s="4"/>
       <c r="W25" s="55"/>
       <c r="X25" s="11"/>
@@ -6310,11 +6436,13 @@
       <c r="R26" s="14">
         <v>1026</v>
       </c>
-      <c r="S26" s="60">
-        <v>1019</v>
-      </c>
-      <c r="T26" s="60"/>
-      <c r="U26" s="61"/>
+      <c r="S26" s="14">
+        <v>1034</v>
+      </c>
+      <c r="T26" s="14">
+        <v>2</v>
+      </c>
+      <c r="U26" s="54"/>
       <c r="V26" s="4"/>
       <c r="W26" s="58"/>
       <c r="X26" s="13"/>
@@ -6361,9 +6489,11 @@
         <v>677</v>
       </c>
       <c r="S27" s="14">
-        <v>1034</v>
-      </c>
-      <c r="T27" s="53"/>
+        <v>1035</v>
+      </c>
+      <c r="T27" s="14">
+        <v>817</v>
+      </c>
       <c r="U27" s="54"/>
       <c r="V27" s="4"/>
       <c r="W27" s="52"/>
@@ -6400,11 +6530,9 @@
       <c r="P28" s="95"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="14">
-        <v>1022</v>
-      </c>
-      <c r="S28" s="14">
-        <v>1035</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="S28" s="53"/>
       <c r="T28" s="53"/>
       <c r="U28" s="54"/>
       <c r="V28" s="4"/>
@@ -6931,7 +7059,7 @@
       </c>
       <c r="C11" s="44">
         <f>LeetCode!C11</f>
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6941,7 +7069,7 @@
       </c>
       <c r="C12" s="45">
         <f>LeetCode!C12</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6961,7 +7089,7 @@
       </c>
       <c r="C14" s="47">
         <f>LeetCode!C14</f>
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B833AB-2DC1-40E9-AADC-41595F865198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920981F-5A02-4725-8E7A-7CFD03B80737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>Monday</t>
   </si>
@@ -113,12 +114,36 @@
   <si>
     <t>Project</t>
   </si>
+  <si>
+    <t>0 pts, 0/4</t>
+  </si>
+  <si>
+    <t>9 pts, 2/4</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>10 Dynamic Programming Questions</t>
+  </si>
+  <si>
+    <t>Project Euler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +180,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +321,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -974,12 +1024,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1135,6 +1226,188 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,144 +1417,40 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1444,7 +1613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93D6D898-3CDB-4785-B8E1-34528E769C00}" type="CELLRANGE">
+                    <a:fld id="{3BCDC585-6666-41CB-8D23-C5CD86B1B06C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1477,7 +1646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB8CB4F8-D183-429E-A7A0-CFB54BF10C71}" type="CELLRANGE">
+                    <a:fld id="{93A151A1-3BD9-4CDC-910A-96190B90C261}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1511,7 +1680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58A76FB9-8D4C-4635-9BAE-A222C0A732D0}" type="CELLRANGE">
+                    <a:fld id="{394A9E49-F1FA-4D95-BC25-5EB1FAA04687}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1545,7 +1714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0BAFCBA-0D5B-447C-ACAB-AF3607F15EC7}" type="CELLRANGE">
+                    <a:fld id="{8D523CDF-BF55-4425-82F9-8C405AD6C047}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1579,7 +1748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B464723-E8E7-4A2A-A03F-E5C4CB929FA6}" type="CELLRANGE">
+                    <a:fld id="{2F8A3BD6-3B9E-4ABB-90A0-EC8CF215FF02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1613,7 +1782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECDFFBE9-6814-40C5-9F5C-91BB4975F383}" type="CELLRANGE">
+                    <a:fld id="{CA57CB09-952F-4D7C-94A6-6C786BFD69C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1647,7 +1816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78A29E2E-2FE5-4F34-ADC9-9FCC3E2CFF44}" type="CELLRANGE">
+                    <a:fld id="{CB42FCE2-B0C4-41AA-B692-E0E89CE70620}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2495,7 +2664,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DCC8E02-284E-483D-BA73-BD87A3E7F126}" type="CELLRANGE">
+                    <a:fld id="{3D84D6DD-28B1-4C42-8666-E7AEB05A12DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2529,7 +2698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{708BABEE-628E-4DFB-9530-722D40C8E5A3}" type="CELLRANGE">
+                    <a:fld id="{37DA065F-0C6C-4C38-9ED6-66CC548F5C21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2563,7 +2732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B42909E-AEDE-4E95-98DD-642BD76B888E}" type="CELLRANGE">
+                    <a:fld id="{D197AB67-20B5-4743-9BD0-CE264A065BFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2597,7 +2766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D83C109A-C871-4795-BD3B-5692FF1430F6}" type="CELLRANGE">
+                    <a:fld id="{B3DC3FBE-E9D7-4EEF-BE48-81DF257325EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2631,7 +2800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A582DDB2-5D7B-45FD-93B5-C6FF42BAB1CC}" type="CELLRANGE">
+                    <a:fld id="{12F0BD72-D256-4815-9731-1399E2D7059B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4766,7 +4935,7 @@
   <dimension ref="A2:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,14 +4996,14 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="130"/>
+      <c r="E3" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="77"/>
+      <c r="F3" s="126"/>
       <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
@@ -4925,10 +5094,10 @@
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="15">
         <v>43572</v>
       </c>
@@ -5019,9 +5188,9 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="E5" s="73" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="E5" s="141" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -5056,14 +5225,14 @@
         <v>6</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="91" t="s">
+      <c r="O5" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="138" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" ref="Q5:T5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
+        <f t="shared" ref="Q5:S5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
         <v>15</v>
       </c>
       <c r="R5" s="5">
@@ -5083,9 +5252,8 @@
         <v>11</v>
       </c>
       <c r="V5" s="4"/>
-      <c r="W5" s="17">
-        <f>COUNT(W11:W25)</f>
-        <v>0</v>
+      <c r="W5" s="137" t="s">
+        <v>24</v>
       </c>
       <c r="X5" s="5">
         <f t="shared" ref="X5:AA5" si="2">COUNT(X11:X25)</f>
@@ -5093,11 +5261,11 @@
       </c>
       <c r="Y5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="2"/>
@@ -5143,9 +5311,9 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
@@ -5178,8 +5346,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="95"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="123"/>
       <c r="Q6" s="6">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>2</v>
@@ -5201,21 +5369,18 @@
         <v>0</v>
       </c>
       <c r="V6" s="4"/>
-      <c r="W6" s="18">
-        <f>COUNT(W26:W32)</f>
-        <v>0</v>
-      </c>
+      <c r="W6" s="120"/>
       <c r="X6" s="6">
         <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="9"/>
@@ -5261,9 +5426,9 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
@@ -5296,8 +5461,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="95"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="123"/>
       <c r="Q7" s="7">
         <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
         <v>0</v>
@@ -5319,10 +5484,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="19">
-        <f>COUNT(W33:W37)</f>
-        <v>0</v>
-      </c>
+      <c r="W7" s="120"/>
       <c r="X7" s="7">
         <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
         <v>0</v>
@@ -5379,9 +5541,9 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="E8" s="75"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
@@ -5414,8 +5576,8 @@
         <v>8</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="96"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="124"/>
       <c r="Q8" s="25">
         <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
         <v>17</v>
@@ -5437,21 +5599,18 @@
         <v>11</v>
       </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="36">
-        <f>SUM(W5:W7)</f>
-        <v>0</v>
-      </c>
+      <c r="W8" s="121"/>
       <c r="X8" s="25">
         <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="25">
         <f>SUM(Z5:Z7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="25">
         <f t="shared" ref="AA8:AC8" si="22">SUM(AA5:AA7)</f>
@@ -5534,51 +5693,51 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="E10" s="86" t="s">
+      <c r="C10" s="136"/>
+      <c r="E10" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="86" t="s">
+      <c r="W10" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="88"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="118"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="86" t="s">
+      <c r="AE10" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="88"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5587,12 +5746,12 @@
       </c>
       <c r="C11" s="44">
         <f>SUM(G5:AC5)</f>
-        <v>106</v>
-      </c>
-      <c r="E11" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="104" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="38">
@@ -5617,35 +5776,41 @@
         <v>104</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="109" t="s">
+      <c r="O11" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="110" t="s">
+      <c r="P11" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="116">
+      <c r="Q11" s="75">
         <v>897</v>
       </c>
-      <c r="R11" s="116">
+      <c r="R11" s="75">
         <v>169</v>
       </c>
-      <c r="S11" s="116">
+      <c r="S11" s="75">
         <v>1033</v>
       </c>
-      <c r="T11" s="116">
+      <c r="T11" s="75">
         <v>9</v>
       </c>
-      <c r="U11" s="117">
+      <c r="U11" s="76">
         <v>155</v>
       </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
+      <c r="W11" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="98">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="75">
+        <v>111</v>
+      </c>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="100"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="52"/>
       <c r="AF11" s="10"/>
@@ -5662,10 +5827,10 @@
       </c>
       <c r="C12" s="45">
         <f>SUM(G6:AC6)</f>
-        <v>17</v>
-      </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="98"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="37">
         <v>1021</v>
       </c>
@@ -5688,8 +5853,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="95"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="123"/>
       <c r="Q12" s="39">
         <v>88</v>
       </c>
@@ -5706,10 +5871,14 @@
         <v>189</v>
       </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="52"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="9"/>
+      <c r="Y12" s="94">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>219</v>
+      </c>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
       <c r="AC12" s="54"/>
@@ -5731,8 +5900,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="98"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="37">
         <v>709</v>
       </c>
@@ -5755,8 +5924,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="95"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="123"/>
       <c r="Q13" s="39">
         <v>500</v>
       </c>
@@ -5773,10 +5942,14 @@
         <v>202</v>
       </c>
       <c r="V13" s="4"/>
-      <c r="W13" s="52"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
+      <c r="Y13" s="94">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>507</v>
+      </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
       <c r="AC13" s="54"/>
@@ -5796,10 +5969,10 @@
       </c>
       <c r="C14" s="47">
         <f>SUM(G8:AC8)</f>
-        <v>123</v>
-      </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="98"/>
+        <v>139</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="37">
         <v>804</v>
       </c>
@@ -5820,8 +5993,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="95"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="123"/>
       <c r="Q14" s="39">
         <v>806</v>
       </c>
@@ -5838,10 +6011,14 @@
         <v>235</v>
       </c>
       <c r="V14" s="4"/>
-      <c r="W14" s="52"/>
+      <c r="W14" s="120"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="9"/>
+      <c r="Y14" s="94">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>160</v>
+      </c>
       <c r="AA14" s="53"/>
       <c r="AB14" s="53"/>
       <c r="AC14" s="54"/>
@@ -5856,12 +6033,12 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="98"/>
+      <c r="C15" s="112"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="37">
         <v>929</v>
       </c>
@@ -5882,8 +6059,8 @@
         <v>206</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="95"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="123"/>
       <c r="Q15" s="39">
         <v>872</v>
       </c>
@@ -5900,10 +6077,14 @@
         <v>496</v>
       </c>
       <c r="V15" s="4"/>
-      <c r="W15" s="52"/>
+      <c r="W15" s="120"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="9"/>
+      <c r="Y15" s="94">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>168</v>
+      </c>
       <c r="AA15" s="53"/>
       <c r="AB15" s="53"/>
       <c r="AC15" s="54"/>
@@ -5924,8 +6105,8 @@
       <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="98"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="37">
         <v>905</v>
       </c>
@@ -5946,8 +6127,8 @@
         <v>237</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="95"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="123"/>
       <c r="Q16" s="39">
         <v>682</v>
       </c>
@@ -5964,9 +6145,11 @@
         <v>559</v>
       </c>
       <c r="V16" s="4"/>
-      <c r="W16" s="52"/>
+      <c r="W16" s="120"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="94">
+        <v>6</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="53"/>
       <c r="AB16" s="53"/>
@@ -5985,11 +6168,11 @@
       <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="49">
-        <v>0</v>
-      </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="98"/>
+      <c r="C17" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="37">
         <v>977</v>
       </c>
@@ -6002,8 +6185,8 @@
       <c r="L17" s="53"/>
       <c r="M17" s="54"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="95"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="123"/>
       <c r="Q17" s="39">
         <v>637</v>
       </c>
@@ -6020,9 +6203,11 @@
         <v>590</v>
       </c>
       <c r="V17" s="4"/>
-      <c r="W17" s="52"/>
+      <c r="W17" s="120"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="94">
+        <v>7</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="53"/>
       <c r="AB17" s="53"/>
@@ -6041,9 +6226,11 @@
       <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="98"/>
+      <c r="C18" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="114"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="37">
         <v>832</v>
       </c>
@@ -6056,8 +6243,8 @@
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="95"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="123"/>
       <c r="Q18" s="39">
         <v>937</v>
       </c>
@@ -6072,9 +6259,11 @@
         <v>700</v>
       </c>
       <c r="V18" s="4"/>
-      <c r="W18" s="52"/>
+      <c r="W18" s="120"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="139" t="s">
+        <v>33</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="53"/>
       <c r="AB18" s="53"/>
@@ -6092,8 +6281,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="32"/>
       <c r="C19" s="49"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="98"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="37">
         <v>657</v>
       </c>
@@ -6106,8 +6295,8 @@
       <c r="L19" s="53"/>
       <c r="M19" s="54"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="95"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="123"/>
       <c r="Q19" s="39">
         <v>226</v>
       </c>
@@ -6122,9 +6311,9 @@
         <v>701</v>
       </c>
       <c r="V19" s="4"/>
-      <c r="W19" s="52"/>
+      <c r="W19" s="120"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="140"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="53"/>
       <c r="AB19" s="53"/>
@@ -6142,8 +6331,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="32"/>
       <c r="C20" s="49"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="98"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="37">
         <v>461</v>
       </c>
@@ -6156,23 +6345,23 @@
       <c r="L20" s="53"/>
       <c r="M20" s="54"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="95"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="123"/>
       <c r="Q20" s="39">
         <v>693</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="53"/>
-      <c r="T20" s="113">
+      <c r="T20" s="73">
         <v>69</v>
       </c>
       <c r="U20" s="71">
         <v>21</v>
       </c>
       <c r="V20" s="4"/>
-      <c r="W20" s="52"/>
+      <c r="W20" s="120"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="95"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="53"/>
       <c r="AB20" s="53"/>
@@ -6190,8 +6379,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="32"/>
       <c r="C21" s="49"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="98"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="37">
         <v>961</v>
       </c>
@@ -6202,23 +6391,23 @@
       <c r="L21" s="53"/>
       <c r="M21" s="54"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="95"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="123"/>
       <c r="Q21" s="39">
         <v>888</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="53"/>
-      <c r="T21" s="113">
+      <c r="T21" s="73">
         <v>941</v>
       </c>
-      <c r="U21" s="118">
+      <c r="U21" s="77">
         <v>26</v>
       </c>
       <c r="V21" s="4"/>
-      <c r="W21" s="52"/>
+      <c r="W21" s="120"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="95"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="53"/>
       <c r="AB21" s="53"/>
@@ -6236,8 +6425,8 @@
       <c r="A22" s="4"/>
       <c r="B22" s="32"/>
       <c r="C22" s="49"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="98"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="37">
         <v>617</v>
       </c>
@@ -6248,21 +6437,21 @@
       <c r="L22" s="53"/>
       <c r="M22" s="54"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="95"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="123"/>
       <c r="Q22" s="39">
         <v>896</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="53"/>
-      <c r="T22" s="113">
+      <c r="T22" s="73">
         <v>1018</v>
       </c>
-      <c r="U22" s="119"/>
+      <c r="U22" s="78"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="52"/>
+      <c r="W22" s="120"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="95"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="53"/>
       <c r="AB22" s="53"/>
@@ -6280,8 +6469,8 @@
       <c r="A23" s="4"/>
       <c r="B23" s="32"/>
       <c r="C23" s="49"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="98"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="37">
         <v>728</v>
       </c>
@@ -6292,21 +6481,21 @@
       <c r="L23" s="53"/>
       <c r="M23" s="54"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="95"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="123"/>
       <c r="Q23" s="39">
         <v>606</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="53"/>
-      <c r="T23" s="113">
+      <c r="T23" s="73">
         <v>1022</v>
       </c>
-      <c r="U23" s="120"/>
+      <c r="U23" s="79"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="52"/>
+      <c r="W23" s="120"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="95"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="53"/>
       <c r="AB23" s="53"/>
@@ -6324,8 +6513,8 @@
       <c r="A24" s="4"/>
       <c r="B24" s="32"/>
       <c r="C24" s="49"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="98"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="37">
         <v>852</v>
       </c>
@@ -6336,19 +6525,19 @@
       <c r="L24" s="53"/>
       <c r="M24" s="54"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="95"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="123"/>
       <c r="Q24" s="39">
         <v>520</v>
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
-      <c r="U24" s="120"/>
+      <c r="U24" s="79"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="52"/>
+      <c r="W24" s="120"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="95"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="53"/>
       <c r="AB24" s="53"/>
@@ -6366,8 +6555,8 @@
       <c r="A25" s="4"/>
       <c r="B25" s="32"/>
       <c r="C25" s="49"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="98"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="67"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -6376,19 +6565,19 @@
       <c r="L25" s="56"/>
       <c r="M25" s="57"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="95"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="123"/>
       <c r="Q25" s="39">
         <v>993</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
-      <c r="U25" s="114"/>
+      <c r="U25" s="74"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="55"/>
+      <c r="W25" s="120"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
+      <c r="Y25" s="96"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="56"/>
       <c r="AB25" s="56"/>
@@ -6406,8 +6595,8 @@
       <c r="A26" s="4"/>
       <c r="B26" s="32"/>
       <c r="C26" s="49"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="99" t="s">
+      <c r="E26" s="114"/>
+      <c r="F26" s="106" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="68"/>
@@ -6428,8 +6617,8 @@
         <v>921</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="95"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="123"/>
       <c r="Q26" s="14">
         <v>791</v>
       </c>
@@ -6444,10 +6633,16 @@
       </c>
       <c r="U26" s="54"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="59"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="14">
+        <v>338</v>
+      </c>
+      <c r="Y26" s="94">
+        <v>77</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>814</v>
+      </c>
       <c r="AA26" s="60"/>
       <c r="AB26" s="60"/>
       <c r="AC26" s="61"/>
@@ -6464,8 +6659,8 @@
       <c r="A27" s="4"/>
       <c r="B27" s="32"/>
       <c r="C27" s="49"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="100"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="68"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -6480,8 +6675,8 @@
         <v>861</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="95"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="123"/>
       <c r="Q27" s="14">
         <v>856</v>
       </c>
@@ -6496,9 +6691,13 @@
       </c>
       <c r="U27" s="54"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="14">
+        <v>877</v>
+      </c>
+      <c r="Y27" s="139" t="s">
+        <v>33</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="53"/>
       <c r="AB27" s="53"/>
@@ -6516,8 +6715,8 @@
       <c r="A28" s="4"/>
       <c r="B28" s="32"/>
       <c r="C28" s="49"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="100"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="68"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -6526,8 +6725,8 @@
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="95"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="123"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="14">
         <v>535</v>
@@ -6536,9 +6735,9 @@
       <c r="T28" s="53"/>
       <c r="U28" s="54"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="52"/>
+      <c r="W28" s="120"/>
       <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="140"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="53"/>
       <c r="AB28" s="53"/>
@@ -6556,8 +6755,8 @@
       <c r="A29" s="4"/>
       <c r="B29" s="32"/>
       <c r="C29" s="49"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="100"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="68"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -6566,15 +6765,15 @@
       <c r="L29" s="53"/>
       <c r="M29" s="54"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="95"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="123"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="53"/>
       <c r="T29" s="53"/>
       <c r="U29" s="54"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="52"/>
+      <c r="W29" s="120"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="9"/>
@@ -6594,8 +6793,8 @@
       <c r="A30" s="4"/>
       <c r="B30" s="32"/>
       <c r="C30" s="49"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="100"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="68"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -6604,15 +6803,15 @@
       <c r="L30" s="53"/>
       <c r="M30" s="54"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="95"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="123"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="9"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
       <c r="U30" s="54"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="52"/>
+      <c r="W30" s="120"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="9"/>
@@ -6632,8 +6831,8 @@
       <c r="A31" s="4"/>
       <c r="B31" s="32"/>
       <c r="C31" s="49"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="100"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="68"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -6642,15 +6841,15 @@
       <c r="L31" s="53"/>
       <c r="M31" s="54"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="95"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="123"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
       <c r="U31" s="54"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="52"/>
+      <c r="W31" s="120"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="9"/>
@@ -6670,8 +6869,8 @@
       <c r="A32" s="4"/>
       <c r="B32" s="32"/>
       <c r="C32" s="49"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="101"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="67"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -6680,15 +6879,15 @@
       <c r="L32" s="56"/>
       <c r="M32" s="57"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="95"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="123"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="12"/>
       <c r="S32" s="56"/>
       <c r="T32" s="56"/>
       <c r="U32" s="57"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="55"/>
+      <c r="W32" s="120"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
@@ -6708,8 +6907,8 @@
       <c r="A33" s="4"/>
       <c r="B33" s="32"/>
       <c r="C33" s="49"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="114"/>
+      <c r="F33" s="109" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="68"/>
@@ -6720,15 +6919,15 @@
       <c r="L33" s="53"/>
       <c r="M33" s="54"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="95"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="123"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="53"/>
       <c r="T33" s="53"/>
       <c r="U33" s="54"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="52"/>
+      <c r="W33" s="120"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="9"/>
@@ -6748,8 +6947,8 @@
       <c r="A34" s="4"/>
       <c r="B34" s="32"/>
       <c r="C34" s="49"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="102"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="68"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -6758,15 +6957,15 @@
       <c r="L34" s="53"/>
       <c r="M34" s="54"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="95"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="123"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="9"/>
       <c r="S34" s="53"/>
       <c r="T34" s="53"/>
       <c r="U34" s="54"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="52"/>
+      <c r="W34" s="120"/>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="9"/>
@@ -6786,8 +6985,8 @@
       <c r="A35" s="4"/>
       <c r="B35" s="32"/>
       <c r="C35" s="49"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="102"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="68"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6796,15 +6995,15 @@
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="95"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="53"/>
       <c r="T35" s="53"/>
       <c r="U35" s="54"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="52"/>
+      <c r="W35" s="120"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="9"/>
@@ -6824,8 +7023,8 @@
       <c r="A36" s="4"/>
       <c r="B36" s="32"/>
       <c r="C36" s="49"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="102"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="68"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -6834,15 +7033,15 @@
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="95"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="123"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="9"/>
       <c r="S36" s="53"/>
       <c r="T36" s="53"/>
       <c r="U36" s="54"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="52"/>
+      <c r="W36" s="120"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="9"/>
@@ -6862,8 +7061,8 @@
       <c r="A37" s="4"/>
       <c r="B37" s="34"/>
       <c r="C37" s="50"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="103"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="69"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -6872,15 +7071,15 @@
       <c r="L37" s="65"/>
       <c r="M37" s="66"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="96"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="124"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="64"/>
       <c r="S37" s="65"/>
       <c r="T37" s="65"/>
       <c r="U37" s="66"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="62"/>
+      <c r="W37" s="121"/>
       <c r="X37" s="63"/>
       <c r="Y37" s="63"/>
       <c r="Z37" s="64"/>
@@ -6919,7 +7118,17 @@
       <c r="U38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="W11:W37"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
@@ -6929,14 +7138,8 @@
     <mergeCell ref="W10:AC10"/>
     <mergeCell ref="O11:O37"/>
     <mergeCell ref="P11:P37"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Y27:Y28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6950,7 +7153,7 @@
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7011,35 +7214,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="130"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -7047,10 +7250,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="136"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7059,7 +7262,7 @@
       </c>
       <c r="C11" s="44">
         <f>LeetCode!C11</f>
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -7069,7 +7272,7 @@
       </c>
       <c r="C12" s="45">
         <f>LeetCode!C12</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -7089,45 +7292,51 @@
       </c>
       <c r="C14" s="47">
         <f>LeetCode!C14</f>
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="112"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="81" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="49">
-        <v>0</v>
+      <c r="B17" s="85" t="str">
+        <f>LeetCode!B17</f>
+        <v>133 - 21/4/2019</v>
+      </c>
+      <c r="C17" s="49" t="str">
+        <f>LeetCode!C17</f>
+        <v>0 pts, 0/4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="49"/>
+      <c r="B18" s="85" t="str">
+        <f>LeetCode!B18</f>
+        <v>134 - 28/4/2019</v>
+      </c>
+      <c r="C18" s="49" t="str">
+        <f>LeetCode!C18</f>
+        <v>9 pts, 2/4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="82"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -7250,4 +7459,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E6347-4DCB-4A71-8AF2-BFC0C36F3AD8}">
+  <dimension ref="A2:U38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" customWidth="1"/>
+    <col min="38" max="38" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="130"/>
+      <c r="E3" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="90">
+        <v>43587</v>
+      </c>
+      <c r="G4" s="89">
+        <v>43588</v>
+      </c>
+      <c r="H4" s="89">
+        <v>43589</v>
+      </c>
+      <c r="I4" s="89">
+        <v>43590</v>
+      </c>
+      <c r="J4" s="89">
+        <v>43591</v>
+      </c>
+      <c r="K4" s="89">
+        <v>43592</v>
+      </c>
+      <c r="L4" s="91">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="E5" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="145"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="88"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="E7" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="147"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="44">
+        <f>LeetCode!C11</f>
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="45">
+        <f>LeetCode!C12</f>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46">
+        <f>LeetCode!C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="47">
+        <f>LeetCode!C14</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="112"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="85" t="str">
+        <f>LeetCode!B17</f>
+        <v>133 - 21/4/2019</v>
+      </c>
+      <c r="C17" s="49" t="str">
+        <f>LeetCode!C17</f>
+        <v>0 pts, 0/4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="85" t="str">
+        <f>LeetCode!B18</f>
+        <v>134 - 28/4/2019</v>
+      </c>
+      <c r="C18" s="49" t="str">
+        <f>LeetCode!C18</f>
+        <v>9 pts, 2/4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="82"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="50"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920981F-5A02-4725-8E7A-7CFD03B80737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E0C7F-8C3B-48EB-8096-E3E1EB3180E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Project Euler</t>
+  </si>
+  <si>
+    <t>135 - 05/5/2019</t>
+  </si>
+  <si>
+    <t>8 pts, 2/4</t>
+  </si>
+  <si>
+    <t>Applying for Jobs</t>
   </si>
 </sst>
 </file>
@@ -1055,13 +1064,13 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1076,7 +1085,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1282,12 +1290,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,6 +1362,24 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1396,27 +1416,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1446,6 +1448,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1613,7 +1624,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BCDC585-6666-41CB-8D23-C5CD86B1B06C}" type="CELLRANGE">
+                    <a:fld id="{341AC09E-D91A-4CEF-A008-15734867E4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1646,7 +1657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93A151A1-3BD9-4CDC-910A-96190B90C261}" type="CELLRANGE">
+                    <a:fld id="{C7836F09-045B-4C8A-8F4E-287747432C18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1680,7 +1691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{394A9E49-F1FA-4D95-BC25-5EB1FAA04687}" type="CELLRANGE">
+                    <a:fld id="{D1558F92-261B-4ABA-B8C9-79E6EB314809}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1714,7 +1725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D523CDF-BF55-4425-82F9-8C405AD6C047}" type="CELLRANGE">
+                    <a:fld id="{46C793C3-B52C-4D27-A416-0C60EC755E9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1748,7 +1759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F8A3BD6-3B9E-4ABB-90A0-EC8CF215FF02}" type="CELLRANGE">
+                    <a:fld id="{0A2E065D-E51D-42DC-875C-1B0EEE836126}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1782,7 +1793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA57CB09-952F-4D7C-94A6-6C786BFD69C4}" type="CELLRANGE">
+                    <a:fld id="{C8F63456-C001-4654-ACF2-4625E4F8E4FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1816,7 +1827,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB42FCE2-B0C4-41AA-B692-E0E89CE70620}" type="CELLRANGE">
+                    <a:fld id="{5D27FD93-D010-4061-BC9E-03D3F484D55B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2664,7 +2675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D84D6DD-28B1-4C42-8666-E7AEB05A12DE}" type="CELLRANGE">
+                    <a:fld id="{83AE15C7-A740-4EDA-ADF6-83F06D67E4F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2698,7 +2709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37DA065F-0C6C-4C38-9ED6-66CC548F5C21}" type="CELLRANGE">
+                    <a:fld id="{BA96D970-B447-4F58-8383-D75AA7C10BC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2732,7 +2743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D197AB67-20B5-4743-9BD0-CE264A065BFE}" type="CELLRANGE">
+                    <a:fld id="{A5FEA5CC-8C7E-4D2A-AAD0-B2600EB1DDF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2766,7 +2777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3DC3FBE-E9D7-4EEF-BE48-81DF257325EE}" type="CELLRANGE">
+                    <a:fld id="{D4049425-00FE-43CD-8372-8E5250FFCFCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2800,7 +2811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12F0BD72-D256-4815-9731-1399E2D7059B}" type="CELLRANGE">
+                    <a:fld id="{ED0ACE15-4B15-4420-9C5A-057EE23B339D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4932,10 +4943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="A2:AK38"/>
+  <dimension ref="A2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,133 +4983,133 @@
     <col min="38" max="38" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="129" t="s">
+    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="E3" s="125" t="s">
+      <c r="C3" s="133"/>
+      <c r="E3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="35" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AA3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="35" t="s">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="23" t="s">
+      <c r="AH3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="15">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="14">
         <v>43572</v>
       </c>
       <c r="H4" s="1">
@@ -5116,11 +5127,11 @@
       <c r="L4" s="1">
         <v>43577</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>43578</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="15">
+      <c r="N4" s="3"/>
+      <c r="O4" s="14">
         <v>43579</v>
       </c>
       <c r="P4" s="1">
@@ -5138,11 +5149,11 @@
       <c r="T4" s="1">
         <v>43584</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>43585</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="15">
+      <c r="V4" s="3"/>
+      <c r="W4" s="14">
         <v>43586</v>
       </c>
       <c r="X4" s="1">
@@ -5160,11 +5171,11 @@
       <c r="AB4" s="1">
         <v>43591</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <v>43592</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="15">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="14">
         <v>43593</v>
       </c>
       <c r="AF4" s="1">
@@ -5182,1943 +5193,1969 @@
       <c r="AJ4" s="1">
         <v>43598</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <v>43599</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
-      <c r="E5" s="141" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="E5" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:L5" si="0">COUNTIF(G11:G25, "*")+COUNT(G11:G25)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="19">
         <f>COUNTIF(M11:M25, "*")+COUNT(M11:M25)</f>
         <v>6</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="137" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="138" t="s">
+      <c r="P5" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <f t="shared" ref="Q5:S5" si="1">COUNTIF(Q11:Q25, "*")+COUNT(Q11:Q25)</f>
         <v>15</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f>COUNTIF(T11:T23, "*")+COUNT(T11:T23)</f>
         <v>13</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="19">
         <f>COUNTIF(U11:U25, "*")+COUNT(U11:U25)</f>
         <v>11</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="137" t="s">
+      <c r="V5" s="3"/>
+      <c r="W5" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="5">
-        <f t="shared" ref="X5:AA5" si="2">COUNT(X11:X25)</f>
+      <c r="X5" s="4">
+        <f t="shared" ref="X5:Z5" si="2">COUNT(X11:X25)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5">
-        <f>COUNT(AB11:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="20">
-        <f>COUNT(AC11:AC25)</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="17">
+      <c r="AA5" s="4">
+        <f>COUNT(AA11:AA24)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>COUNT(AB11:AB24)</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="19">
+        <f>COUNT(AC11:AC24)</f>
+        <v>3</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="16">
         <f>COUNT(AE11:AE25)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <f t="shared" ref="AF5:AI5" si="3">COUNT(AF11:AF25)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="4">
         <f>COUNT(AJ11:AJ25)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AK5" s="19">
         <f>COUNT(AK11:AK25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="41" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f>COUNT(G26:G32)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" ref="H6:I6" si="4">COUNT(H26:H32)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" ref="J6:K6" si="5">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" ref="L6" si="6">COUNT(L26:L32)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="20">
         <f t="shared" ref="M6" si="7">COUNT(M26:M32)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="6">
+      <c r="N6" s="3"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>2</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <f>COUNT(S26:S32)</f>
         <v>2</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="6">
+      <c r="V6" s="3"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="5">
         <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
         <v>2</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="5">
+        <f>COUNT(AA26:AA32)</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="20">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="18">
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="17">
         <f>COUNT(AE26:AE32)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <f t="shared" ref="AF6:AK6" si="10">COUNT(AF26:AF32)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="42" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>COUNT(G33:G37)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" ref="H7:I7" si="11">COUNT(H33:H37)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>COUNT(J33:J37)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f>COUNT(K33:K37)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" ref="L7" si="12">COUNT(L33:L37)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="21">
         <f t="shared" ref="M7" si="13">COUNT(M33:M37)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="7">
+      <c r="N7" s="3"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="6">
         <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="7">
+      <c r="V7" s="3"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="6">
         <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="19">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="18">
         <f>COUNT(AE33:AE37)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="6">
         <f t="shared" ref="AF7:AK7" si="16">COUNT(AF33:AF37)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="43" t="s">
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f>SUM(G5:G7)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f t="shared" ref="H8:M8" si="17">SUM(H5:H7)</f>
         <v>10</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <f>SUM(J5:J7)</f>
         <v>7</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <f t="shared" ref="L8" si="18">SUM(L5:L7)</f>
         <v>8</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="25">
+      <c r="N8" s="3"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="24">
         <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
         <v>17</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="24">
         <f>SUM(R5:R7)</f>
         <v>10</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="24">
         <f t="shared" ref="S8:U8" si="20">SUM(S5:S7)</f>
         <v>11</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="24">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="25">
         <f t="shared" si="20"/>
         <v>11</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="25">
+      <c r="V8" s="3"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="24">
         <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
         <v>2</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Y8" s="24">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Z8" s="25">
+      <c r="Z8" s="24">
         <f>SUM(Z5:Z7)</f>
-        <v>6</v>
-      </c>
-      <c r="AA8" s="25">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="24">
         <f t="shared" ref="AA8:AC8" si="22">SUM(AA5:AA7)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="25">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="36">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="35">
         <f>SUM(AE5:AE7)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="25">
+      <c r="AF8" s="24">
         <f t="shared" ref="AF8:AG8" si="23">SUM(AF5:AF7)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AG8" s="24">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="25">
+      <c r="AH8" s="24">
         <f>SUM(AH5:AH7)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="25">
+      <c r="AI8" s="24">
         <f t="shared" ref="AI8:AK8" si="24">SUM(AI5:AI7)</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="25">
+      <c r="AJ8" s="24">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="26">
+      <c r="AK8" s="25">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="4"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="4"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="3"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-      <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="135" t="s">
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="139"/>
+      <c r="E10" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="116" t="s">
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="116" t="s">
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="101" t="s">
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="103"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="33" t="s">
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="100"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <f>SUM(G5:AC5)</f>
-        <v>118</v>
-      </c>
-      <c r="E11" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>771</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>944</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="38">
         <v>867</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>258</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>811</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <v>620</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="69">
         <v>104</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="119" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="122" t="s">
+      <c r="P11" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="75">
+      <c r="Q11" s="74">
         <v>897</v>
       </c>
-      <c r="R11" s="75">
+      <c r="R11" s="74">
         <v>169</v>
       </c>
-      <c r="S11" s="75">
+      <c r="S11" s="74">
         <v>1033</v>
       </c>
-      <c r="T11" s="75">
+      <c r="T11" s="74">
         <v>9</v>
       </c>
-      <c r="U11" s="76">
+      <c r="U11" s="75">
         <v>155</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="119" t="s">
+      <c r="V11" s="3"/>
+      <c r="W11" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="98">
+      <c r="X11" s="96"/>
+      <c r="Y11" s="97">
         <v>1</v>
       </c>
-      <c r="Z11" s="75">
+      <c r="Z11" s="74">
         <v>111</v>
       </c>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="54"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
+      <c r="AA11" s="74">
+        <v>1037</v>
+      </c>
+      <c r="AB11" s="74">
+        <v>849</v>
+      </c>
+      <c r="AC11" s="75">
+        <v>589</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="53"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <f>SUM(G6:AC6)</f>
-        <v>21</v>
-      </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="37">
+        <v>24</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="36">
         <v>1021</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>700</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>876</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>292</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>884</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <v>1025</v>
       </c>
-      <c r="M12" s="71">
+      <c r="M12" s="70">
         <v>136</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="39">
+      <c r="N12" s="3"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="38">
         <v>88</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="38">
         <v>242</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <v>1010</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>13</v>
       </c>
-      <c r="U12" s="71">
+      <c r="U12" s="70">
         <v>189</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="94">
+      <c r="V12" s="3"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="93">
         <v>2</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <v>219</v>
       </c>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="54"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="28" t="s">
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="38">
+        <v>859</v>
+      </c>
+      <c r="AC12" s="70">
+        <v>824</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="53"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="37">
+      <c r="E13" s="111"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="36">
         <v>709</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>965</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>557</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>485</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>1030</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <v>985</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="70">
         <v>412</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="39">
+      <c r="N13" s="3"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="38">
         <v>500</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="38">
         <v>383</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <v>771</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <v>14</v>
       </c>
-      <c r="U13" s="71">
+      <c r="U13" s="70">
         <v>202</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="94">
+      <c r="V13" s="3"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="93">
         <v>3</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="7">
         <v>507</v>
       </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="54"/>
-    </row>
-    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="29" t="s">
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="70">
+        <v>762</v>
+      </c>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="53"/>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <f>SUM(G8:AC8)</f>
-        <v>139</v>
-      </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="37">
+        <v>148</v>
+      </c>
+      <c r="E14" s="111"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="36">
         <v>804</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>509</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>190</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>283</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="39">
+      <c r="K14" s="8"/>
+      <c r="L14" s="38">
         <v>463</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="70">
         <v>942</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="39">
+      <c r="N14" s="3"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="38">
         <v>806</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="38">
         <v>733</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <v>791</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <v>20</v>
       </c>
-      <c r="U14" s="71">
+      <c r="U14" s="70">
         <v>235</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="94">
+      <c r="V14" s="3"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="93">
         <v>4</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="7">
         <v>160</v>
       </c>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="54"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="111" t="s">
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="53"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="37">
+      <c r="C15" s="109"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="36">
         <v>929</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>561</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>414</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>349</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="39">
+      <c r="K15" s="8"/>
+      <c r="L15" s="38">
         <v>976</v>
       </c>
-      <c r="M15" s="71">
+      <c r="M15" s="70">
         <v>206</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="39">
+      <c r="N15" s="3"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="38">
         <v>872</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="38">
         <v>171</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="7">
         <v>844</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <v>387</v>
       </c>
-      <c r="U15" s="71">
+      <c r="U15" s="70">
         <v>496</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="94">
+      <c r="V15" s="3"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="93">
         <v>5</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="7">
         <v>168</v>
       </c>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="54"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="31" t="s">
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="53"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="37">
+      <c r="E16" s="111"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="36">
         <v>905</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>344</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>100</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>476</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="39">
+      <c r="K16" s="8"/>
+      <c r="L16" s="38">
         <v>1009</v>
       </c>
-      <c r="M16" s="71">
+      <c r="M16" s="70">
         <v>237</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="39">
+      <c r="N16" s="3"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="38">
         <v>682</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="38">
         <v>371</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <v>868</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <v>448</v>
       </c>
-      <c r="U16" s="71">
+      <c r="U16" s="70">
         <v>559</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="94">
+      <c r="V16" s="3"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="93">
         <v>6</v>
       </c>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="54"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="37">
+      <c r="E17" s="111"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="36">
         <v>977</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>821</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="39">
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="38">
         <v>637</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="38">
         <v>453</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="7">
         <v>917</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <v>27</v>
       </c>
-      <c r="U17" s="71">
+      <c r="U17" s="70">
         <v>590</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="94">
+      <c r="V17" s="3"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="93">
         <v>7</v>
       </c>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="54"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="53"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="37">
+      <c r="E18" s="111"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="36">
         <v>832</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>908</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="39">
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="38">
         <v>937</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="8">
+      <c r="R18" s="8"/>
+      <c r="S18" s="7">
         <v>933</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>28</v>
       </c>
-      <c r="U18" s="71">
+      <c r="U18" s="70">
         <v>700</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="139" t="s">
+      <c r="V18" s="3"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="54"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="53"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="49"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="37">
+      <c r="A19" s="3"/>
+      <c r="B19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="36">
         <v>657</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>999</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="39">
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="38">
         <v>226</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="8">
+      <c r="R19" s="8"/>
+      <c r="S19" s="7">
         <v>938</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>35</v>
       </c>
-      <c r="U19" s="71">
+      <c r="U19" s="70">
         <v>701</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="54"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="53"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="49"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="37">
+      <c r="A20" s="3"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="48"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="36">
         <v>461</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>1002</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="39">
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="38">
         <v>693</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="73">
+      <c r="R20" s="8"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="72">
         <v>69</v>
       </c>
-      <c r="U20" s="71">
+      <c r="U20" s="70">
         <v>21</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="54"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="53"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="49"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="37">
+      <c r="A21" s="3"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="48"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="36">
         <v>961</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="39">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="38">
         <v>888</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="73">
+      <c r="R21" s="8"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="72">
         <v>941</v>
       </c>
-      <c r="U21" s="77">
+      <c r="U21" s="76">
         <v>26</v>
       </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="54"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="53"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="49"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="37">
+      <c r="A22" s="3"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="48"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="36">
         <v>617</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="39">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="38">
         <v>896</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="73">
+      <c r="R22" s="8"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="72">
         <v>1018</v>
       </c>
-      <c r="U22" s="78"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="54"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="53"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="49"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="37">
+      <c r="A23" s="3"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="48"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="36">
         <v>728</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="39">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="38">
         <v>606</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="73">
+      <c r="R23" s="8"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="72">
         <v>1022</v>
       </c>
-      <c r="U23" s="79"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="54"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="53"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="49"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="37">
+      <c r="A24" s="3"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="48"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="36">
         <v>852</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="39">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="38">
         <v>520</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="54"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="53"/>
     </row>
     <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="49"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="39">
+      <c r="A25" s="3"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="48"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="38">
         <v>993</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="57"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="49"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="106" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="48"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14">
+      <c r="G26" s="67"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13">
         <v>701</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>654</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>979</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>912</v>
       </c>
-      <c r="M26" s="72">
+      <c r="M26" s="71">
         <v>921</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="14">
+      <c r="N26" s="3"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="13">
         <v>791</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="13">
         <v>1026</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="13">
         <v>1034</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="13">
         <v>2</v>
       </c>
-      <c r="U26" s="54"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="14">
+      <c r="U26" s="53"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="13">
         <v>338</v>
       </c>
-      <c r="Y26" s="94">
+      <c r="Y26" s="93">
         <v>77</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z26" s="13">
         <v>814</v>
       </c>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="61"/>
+      <c r="AA26" s="13">
+        <v>1038</v>
+      </c>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="71">
+        <v>513</v>
+      </c>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="60"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="49"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="48"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="13">
         <v>951</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <v>94</v>
       </c>
-      <c r="M27" s="72">
+      <c r="M27" s="71">
         <v>861</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="14">
+      <c r="N27" s="3"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="13">
         <v>856</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="13">
         <v>677</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="13">
         <v>1035</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="13">
         <v>817</v>
       </c>
-      <c r="U27" s="54"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="14">
+      <c r="U27" s="53"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="13">
         <v>877</v>
       </c>
-      <c r="Y27" s="139" t="s">
+      <c r="Y27" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="54"/>
+      <c r="Z27" s="13">
+        <v>508</v>
+      </c>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="53"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="49"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="14">
+      <c r="A28" s="3"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="48"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="13">
         <v>535</v>
       </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="54"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="123"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="53"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="49"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="54"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="48"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="53"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="49"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="54"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="48"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="49"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="54"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="48"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="53"/>
     </row>
     <row r="32" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="49"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="57"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="48"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="56"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="49"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="109" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="48"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="54"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="53"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="49"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="54"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="48"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="53"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="49"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="54"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="48"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="53"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="49"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="54"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="48"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="53"/>
     </row>
     <row r="37" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="50"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="66"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="49"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="62"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="65"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="AA20:AC20"/>
     <mergeCell ref="W5:W8"/>
     <mergeCell ref="W11:W37"/>
     <mergeCell ref="E5:E8"/>
@@ -7191,264 +7228,264 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="133"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="139"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <f>LeetCode!C11</f>
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <f>LeetCode!C12</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <f>LeetCode!C13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <f>LeetCode!C14</f>
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="112"/>
+      <c r="C15" s="109"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="85" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="84" t="str">
         <f>LeetCode!B17</f>
         <v>133 - 21/4/2019</v>
       </c>
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="48" t="str">
         <f>LeetCode!C17</f>
         <v>0 pts, 0/4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="85" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="84" t="str">
         <f>LeetCode!B18</f>
         <v>134 - 28/4/2019</v>
       </c>
-      <c r="C18" s="49" t="str">
+      <c r="C18" s="48" t="str">
         <f>LeetCode!C18</f>
         <v>9 pts, 2/4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="81"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="49"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="49"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="49"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="49"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7505,155 +7542,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="E3" s="125" t="s">
+      <c r="C3" s="133"/>
+      <c r="E3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="90">
+      <c r="A4" s="3"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="89">
         <v>43587</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="88">
         <v>43588</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="88">
         <v>43589</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="88">
         <v>43590</v>
       </c>
-      <c r="J4" s="89">
+      <c r="J4" s="88">
         <v>43591</v>
       </c>
-      <c r="K4" s="89">
+      <c r="K4" s="88">
         <v>43592</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="90">
         <v>43593</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
-      <c r="E5" s="150" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="E5" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="88"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="88"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
-      <c r="E7" s="152" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="E7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="139"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -7665,13 +7702,13 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <f>LeetCode!C11</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -7699,13 +7736,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <f>LeetCode!C12</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7733,172 +7770,172 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <f>LeetCode!C13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <f>LeetCode!C14</f>
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="112"/>
+      <c r="C15" s="109"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="85" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="84" t="str">
         <f>LeetCode!B17</f>
         <v>133 - 21/4/2019</v>
       </c>
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="48" t="str">
         <f>LeetCode!C17</f>
         <v>0 pts, 0/4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="85" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="84" t="str">
         <f>LeetCode!B18</f>
         <v>134 - 28/4/2019</v>
       </c>
-      <c r="C18" s="49" t="str">
+      <c r="C18" s="48" t="str">
         <f>LeetCode!C18</f>
         <v>9 pts, 2/4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="81"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="49"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="49"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="49"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="49"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E0C7F-8C3B-48EB-8096-E3E1EB3180E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D99B27-ADBE-4995-9DE5-0CEA0554524B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1189,9 +1189,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1368,9 +1365,45 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1392,33 +1425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1449,13 +1455,13 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1624,12 +1630,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{341AC09E-D91A-4CEF-A008-15734867E4D9}" type="CELLRANGE">
+                    <a:fld id="{DBC09720-EA6B-4AE4-A120-3C9EEB78DE26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1657,12 +1663,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7836F09-045B-4C8A-8F4E-287747432C18}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{24363240-A9D1-4EF9-9D55-EF23AD83209F}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1691,12 +1697,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1558F92-261B-4ABA-B8C9-79E6EB314809}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{94D2B364-3EC5-437E-A3AE-6AAA9C101F9C}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1725,12 +1731,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46C793C3-B52C-4D27-A416-0C60EC755E9B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0AAC64FA-2C75-40C6-A320-3B110D85EED8}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1759,12 +1765,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A2E065D-E51D-42DC-875C-1B0EEE836126}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EB32746B-26AE-42B3-B66A-FEBC3E9E7F7A}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1793,12 +1799,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8F63456-C001-4654-ACF2-4625E4F8E4FA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DFC2652B-A0BB-4084-9A65-091DB4F429E9}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1827,12 +1833,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D27FD93-D010-4061-BC9E-03D3F484D55B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{05BDAC0C-CA82-4A7E-A223-13CE84DED08E}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2675,12 +2681,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83AE15C7-A740-4EDA-ADF6-83F06D67E4F2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2E17F270-5A42-4A08-8E6E-7C48E1D56EC6}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2709,12 +2715,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA96D970-B447-4F58-8383-D75AA7C10BC7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F9907B89-9DFB-4C7D-8A1D-E1486FCDC43D}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2743,12 +2749,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5FEA5CC-8C7E-4D2A-AAD0-B2600EB1DDF6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6590EFB5-5CB2-4846-9AE3-CCC83221ADDA}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2777,12 +2783,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4049425-00FE-43CD-8372-8E5250FFCFCB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{715B0DE9-7780-401E-A994-CE102D0CD84D}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2811,12 +2817,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED0ACE15-4B15-4420-9C5A-057EE23B339D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{52C10F6E-95FC-4A36-AADB-97598E8D5079}" type="CELLRANGE">
+                      <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-NZ"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4946,7 +4952,7 @@
   <dimension ref="A2:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,14 +5013,14 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="124"/>
+      <c r="E3" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="129"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5105,10 +5111,10 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="14">
         <v>43572</v>
       </c>
@@ -5199,9 +5205,9 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="E5" s="125" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="E5" s="136" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -5236,10 +5242,10 @@
         <v>6</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="140" t="s">
+      <c r="P5" s="132" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="4">
@@ -5263,7 +5269,7 @@
         <v>11</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="124" t="s">
+      <c r="W5" s="131" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="4">
@@ -5293,7 +5299,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="16">
         <f>COUNT(AE11:AE25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" ref="AF5:AI5" si="3">COUNT(AF11:AF25)</f>
@@ -5322,9 +5328,9 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="E6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
@@ -5357,8 +5363,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="120"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="119"/>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>2</v>
@@ -5380,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="117"/>
+      <c r="W6" s="116"/>
       <c r="X6" s="5">
         <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
         <v>2</v>
@@ -5403,12 +5409,12 @@
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="17">
         <f>COUNT(AE26:AE32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="5">
         <f t="shared" ref="AF6:AK6" si="10">COUNT(AF26:AF32)</f>
@@ -5437,9 +5443,9 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
@@ -5472,8 +5478,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="120"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="119"/>
       <c r="Q7" s="6">
         <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
         <v>0</v>
@@ -5495,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="117"/>
+      <c r="W7" s="116"/>
       <c r="X7" s="6">
         <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
         <v>0</v>
@@ -5552,9 +5558,9 @@
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="E8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="42" t="s">
         <v>14</v>
       </c>
@@ -5587,8 +5593,8 @@
         <v>8</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="121"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
       <c r="Q8" s="24">
         <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
         <v>17</v>
@@ -5610,7 +5616,7 @@
         <v>11</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="118"/>
+      <c r="W8" s="117"/>
       <c r="X8" s="24">
         <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
         <v>2</v>
@@ -5633,12 +5639,12 @@
       </c>
       <c r="AC8" s="25">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="35">
         <f>SUM(AE5:AE7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="24">
         <f t="shared" ref="AF8:AG8" si="23">SUM(AF5:AF7)</f>
@@ -5705,51 +5711,51 @@
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="E10" s="98" t="s">
+      <c r="C10" s="130"/>
+      <c r="E10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="113" t="s">
+      <c r="O10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="115"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="114"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="113" t="s">
+      <c r="W10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="115"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="98" t="s">
+      <c r="AE10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="100"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="99"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -5760,10 +5766,10 @@
         <f>SUM(G5:AC5)</f>
         <v>124</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="37">
@@ -5784,53 +5790,55 @@
       <c r="L11" s="38">
         <v>620</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="68">
         <v>104</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="119" t="s">
+      <c r="P11" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="74">
+      <c r="Q11" s="73">
         <v>897</v>
       </c>
-      <c r="R11" s="74">
+      <c r="R11" s="73">
         <v>169</v>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="73">
         <v>1033</v>
       </c>
-      <c r="T11" s="74">
+      <c r="T11" s="73">
         <v>9</v>
       </c>
-      <c r="U11" s="75">
+      <c r="U11" s="74">
         <v>155</v>
       </c>
       <c r="V11" s="3"/>
-      <c r="W11" s="116" t="s">
+      <c r="W11" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="97">
+      <c r="X11" s="95"/>
+      <c r="Y11" s="96">
         <v>1</v>
       </c>
-      <c r="Z11" s="74">
+      <c r="Z11" s="73">
         <v>111</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="73">
         <v>1037</v>
       </c>
-      <c r="AB11" s="74">
+      <c r="AB11" s="73">
         <v>849</v>
       </c>
-      <c r="AC11" s="75">
+      <c r="AC11" s="74">
         <v>589</v>
       </c>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="51"/>
+      <c r="AE11" s="153">
+        <v>389</v>
+      </c>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="8"/>
@@ -5845,10 +5853,10 @@
       </c>
       <c r="C12" s="44">
         <f>SUM(G6:AC6)</f>
-        <v>24</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="102"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="36">
         <v>1021</v>
       </c>
@@ -5867,12 +5875,12 @@
       <c r="L12" s="38">
         <v>1025</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="69">
         <v>136</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="120"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="119"/>
       <c r="Q12" s="38">
         <v>88</v>
       </c>
@@ -5885,13 +5893,13 @@
       <c r="T12" s="7">
         <v>13</v>
       </c>
-      <c r="U12" s="70">
+      <c r="U12" s="69">
         <v>189</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="117"/>
+      <c r="W12" s="116"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="93">
+      <c r="Y12" s="92">
         <v>2</v>
       </c>
       <c r="Z12" s="7">
@@ -5901,7 +5909,7 @@
       <c r="AB12" s="38">
         <v>859</v>
       </c>
-      <c r="AC12" s="70">
+      <c r="AC12" s="69">
         <v>824</v>
       </c>
       <c r="AD12" s="3"/>
@@ -5922,8 +5930,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="102"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="36">
         <v>709</v>
       </c>
@@ -5942,12 +5950,12 @@
       <c r="L13" s="38">
         <v>985</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="69">
         <v>412</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="120"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="119"/>
       <c r="Q13" s="38">
         <v>500</v>
       </c>
@@ -5960,13 +5968,13 @@
       <c r="T13" s="7">
         <v>14</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="69">
         <v>202</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="117"/>
+      <c r="W13" s="116"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="93">
+      <c r="Y13" s="92">
         <v>3</v>
       </c>
       <c r="Z13" s="7">
@@ -5974,7 +5982,7 @@
       </c>
       <c r="AA13" s="52"/>
       <c r="AB13" s="52"/>
-      <c r="AC13" s="70">
+      <c r="AC13" s="69">
         <v>762</v>
       </c>
       <c r="AD13" s="3"/>
@@ -5993,10 +6001,10 @@
       </c>
       <c r="C14" s="46">
         <f>SUM(G8:AC8)</f>
-        <v>148</v>
-      </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="102"/>
+        <v>149</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="36">
         <v>804</v>
       </c>
@@ -6013,12 +6021,12 @@
       <c r="L14" s="38">
         <v>463</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="69">
         <v>942</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="120"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="119"/>
       <c r="Q14" s="38">
         <v>806</v>
       </c>
@@ -6031,13 +6039,13 @@
       <c r="T14" s="7">
         <v>20</v>
       </c>
-      <c r="U14" s="70">
+      <c r="U14" s="69">
         <v>235</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="117"/>
+      <c r="W14" s="116"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="93">
+      <c r="Y14" s="92">
         <v>4</v>
       </c>
       <c r="Z14" s="7">
@@ -6057,12 +6065,12 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="102"/>
+      <c r="C15" s="108"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="36">
         <v>929</v>
       </c>
@@ -6079,12 +6087,12 @@
       <c r="L15" s="38">
         <v>976</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="69">
         <v>206</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="120"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="119"/>
       <c r="Q15" s="38">
         <v>872</v>
       </c>
@@ -6097,13 +6105,13 @@
       <c r="T15" s="7">
         <v>387</v>
       </c>
-      <c r="U15" s="70">
+      <c r="U15" s="69">
         <v>496</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="117"/>
+      <c r="W15" s="116"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="93">
+      <c r="Y15" s="92">
         <v>5</v>
       </c>
       <c r="Z15" s="7">
@@ -6129,8 +6137,8 @@
       <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="102"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="36">
         <v>905</v>
       </c>
@@ -6147,12 +6155,12 @@
       <c r="L16" s="38">
         <v>1009</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="69">
         <v>237</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="120"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="119"/>
       <c r="Q16" s="38">
         <v>682</v>
       </c>
@@ -6165,13 +6173,13 @@
       <c r="T16" s="7">
         <v>448</v>
       </c>
-      <c r="U16" s="70">
+      <c r="U16" s="69">
         <v>559</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="117"/>
+      <c r="W16" s="116"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="93">
+      <c r="Y16" s="92">
         <v>6</v>
       </c>
       <c r="Z16" s="8"/>
@@ -6192,11 +6200,11 @@
       <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="36">
         <v>977</v>
       </c>
@@ -6209,8 +6217,8 @@
       <c r="L17" s="52"/>
       <c r="M17" s="53"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="120"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="38">
         <v>637</v>
       </c>
@@ -6223,13 +6231,13 @@
       <c r="T17" s="7">
         <v>27</v>
       </c>
-      <c r="U17" s="70">
+      <c r="U17" s="69">
         <v>590</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="117"/>
+      <c r="W17" s="116"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="93">
+      <c r="Y17" s="92">
         <v>7</v>
       </c>
       <c r="Z17" s="8"/>
@@ -6250,11 +6258,11 @@
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="102"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="36">
         <v>832</v>
       </c>
@@ -6267,8 +6275,8 @@
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="120"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="119"/>
       <c r="Q18" s="38">
         <v>937</v>
       </c>
@@ -6279,13 +6287,13 @@
       <c r="T18" s="7">
         <v>28</v>
       </c>
-      <c r="U18" s="70">
+      <c r="U18" s="69">
         <v>700</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="117"/>
+      <c r="W18" s="116"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="122" t="s">
+      <c r="Y18" s="121" t="s">
         <v>33</v>
       </c>
       <c r="Z18" s="8"/>
@@ -6306,11 +6314,11 @@
       <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="102"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="36">
         <v>657</v>
       </c>
@@ -6323,8 +6331,8 @@
       <c r="L19" s="52"/>
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="120"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="38">
         <v>226</v>
       </c>
@@ -6335,13 +6343,13 @@
       <c r="T19" s="7">
         <v>35</v>
       </c>
-      <c r="U19" s="70">
+      <c r="U19" s="69">
         <v>701</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="117"/>
+      <c r="W19" s="116"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="123"/>
+      <c r="Y19" s="122"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
@@ -6359,8 +6367,8 @@
       <c r="A20" s="3"/>
       <c r="B20" s="31"/>
       <c r="C20" s="48"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="102"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="36">
         <v>461</v>
       </c>
@@ -6373,29 +6381,29 @@
       <c r="L20" s="52"/>
       <c r="M20" s="53"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="120"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="119"/>
       <c r="Q20" s="38">
         <v>693</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="52"/>
-      <c r="T20" s="72">
+      <c r="T20" s="71">
         <v>69</v>
       </c>
-      <c r="U20" s="70">
+      <c r="U20" s="69">
         <v>21</v>
       </c>
       <c r="V20" s="3"/>
-      <c r="W20" s="117"/>
+      <c r="W20" s="116"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="94"/>
+      <c r="Y20" s="93"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="151" t="s">
+      <c r="AA20" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="153"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="135"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="9"/>
@@ -6409,8 +6417,8 @@
       <c r="A21" s="3"/>
       <c r="B21" s="31"/>
       <c r="C21" s="48"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="102"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="36">
         <v>961</v>
       </c>
@@ -6421,23 +6429,23 @@
       <c r="L21" s="52"/>
       <c r="M21" s="53"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="120"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="119"/>
       <c r="Q21" s="38">
         <v>888</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="52"/>
-      <c r="T21" s="72">
+      <c r="T21" s="71">
         <v>941</v>
       </c>
-      <c r="U21" s="76">
+      <c r="U21" s="75">
         <v>26</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="117"/>
+      <c r="W21" s="116"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="94"/>
+      <c r="Y21" s="93"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="52"/>
       <c r="AB21" s="52"/>
@@ -6455,8 +6463,8 @@
       <c r="A22" s="3"/>
       <c r="B22" s="31"/>
       <c r="C22" s="48"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="102"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="36">
         <v>617</v>
       </c>
@@ -6467,21 +6475,21 @@
       <c r="L22" s="52"/>
       <c r="M22" s="53"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="120"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="38">
         <v>896</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="52"/>
-      <c r="T22" s="72">
+      <c r="T22" s="71">
         <v>1018</v>
       </c>
-      <c r="U22" s="77"/>
+      <c r="U22" s="76"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="117"/>
+      <c r="W22" s="116"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="94"/>
+      <c r="Y22" s="93"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="52"/>
       <c r="AB22" s="52"/>
@@ -6499,8 +6507,8 @@
       <c r="A23" s="3"/>
       <c r="B23" s="31"/>
       <c r="C23" s="48"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="102"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="36">
         <v>728</v>
       </c>
@@ -6511,21 +6519,21 @@
       <c r="L23" s="52"/>
       <c r="M23" s="53"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="120"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="119"/>
       <c r="Q23" s="38">
         <v>606</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="52"/>
-      <c r="T23" s="72">
+      <c r="T23" s="71">
         <v>1022</v>
       </c>
-      <c r="U23" s="78"/>
+      <c r="U23" s="77"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="117"/>
+      <c r="W23" s="116"/>
       <c r="X23" s="9"/>
-      <c r="Y23" s="94"/>
+      <c r="Y23" s="93"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
@@ -6543,8 +6551,8 @@
       <c r="A24" s="3"/>
       <c r="B24" s="31"/>
       <c r="C24" s="48"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="102"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="36">
         <v>852</v>
       </c>
@@ -6555,19 +6563,19 @@
       <c r="L24" s="52"/>
       <c r="M24" s="53"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="120"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="119"/>
       <c r="Q24" s="38">
         <v>520</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
-      <c r="U24" s="78"/>
+      <c r="U24" s="77"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="117"/>
+      <c r="W24" s="116"/>
       <c r="X24" s="9"/>
-      <c r="Y24" s="94"/>
+      <c r="Y24" s="93"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="52"/>
       <c r="AB24" s="52"/>
@@ -6585,9 +6593,9 @@
       <c r="A25" s="3"/>
       <c r="B25" s="31"/>
       <c r="C25" s="48"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="66"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
@@ -6595,19 +6603,19 @@
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="120"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="119"/>
       <c r="Q25" s="38">
         <v>993</v>
       </c>
       <c r="R25" s="11"/>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
-      <c r="U25" s="73"/>
+      <c r="U25" s="72"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="117"/>
+      <c r="W25" s="116"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="95"/>
+      <c r="Y25" s="94"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="52"/>
       <c r="AB25" s="52"/>
@@ -6625,11 +6633,11 @@
       <c r="A26" s="3"/>
       <c r="B26" s="31"/>
       <c r="C26" s="48"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="103" t="s">
+      <c r="E26" s="110"/>
+      <c r="F26" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13">
         <v>701</v>
@@ -6643,12 +6651,12 @@
       <c r="L26" s="13">
         <v>912</v>
       </c>
-      <c r="M26" s="71">
+      <c r="M26" s="70">
         <v>921</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="120"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="119"/>
       <c r="Q26" s="13">
         <v>791</v>
       </c>
@@ -6663,11 +6671,11 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="117"/>
+      <c r="W26" s="116"/>
       <c r="X26" s="13">
         <v>338</v>
       </c>
-      <c r="Y26" s="93">
+      <c r="Y26" s="92">
         <v>77</v>
       </c>
       <c r="Z26" s="13">
@@ -6676,26 +6684,28 @@
       <c r="AA26" s="13">
         <v>1038</v>
       </c>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="71">
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="70">
         <v>513</v>
       </c>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="12"/>
+      <c r="AE26" s="155">
+        <v>495</v>
+      </c>
+      <c r="AF26" s="154"/>
       <c r="AG26" s="12"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="60"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="59"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="31"/>
       <c r="C27" s="48"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="67"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6705,12 +6715,12 @@
       <c r="L27" s="13">
         <v>94</v>
       </c>
-      <c r="M27" s="71">
+      <c r="M27" s="70">
         <v>861</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="120"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="119"/>
       <c r="Q27" s="13">
         <v>856</v>
       </c>
@@ -6725,11 +6735,11 @@
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="117"/>
+      <c r="W27" s="116"/>
       <c r="X27" s="13">
         <v>877</v>
       </c>
-      <c r="Y27" s="122" t="s">
+      <c r="Y27" s="121" t="s">
         <v>33</v>
       </c>
       <c r="Z27" s="13">
@@ -6737,7 +6747,9 @@
       </c>
       <c r="AA27" s="52"/>
       <c r="AB27" s="52"/>
-      <c r="AC27" s="53"/>
+      <c r="AC27" s="70">
+        <v>442</v>
+      </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="9"/>
@@ -6751,9 +6763,9 @@
       <c r="A28" s="3"/>
       <c r="B28" s="31"/>
       <c r="C28" s="48"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="67"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6761,8 +6773,8 @@
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="120"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="119"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="13">
         <v>535</v>
@@ -6771,9 +6783,9 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="117"/>
+      <c r="W28" s="116"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="123"/>
+      <c r="Y28" s="122"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
@@ -6791,9 +6803,9 @@
       <c r="A29" s="3"/>
       <c r="B29" s="31"/>
       <c r="C29" s="48"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6801,15 +6813,15 @@
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="120"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="119"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="8"/>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="53"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="117"/>
+      <c r="W29" s="116"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="8"/>
@@ -6829,9 +6841,9 @@
       <c r="A30" s="3"/>
       <c r="B30" s="31"/>
       <c r="C30" s="48"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="67"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6839,15 +6851,15 @@
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="120"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="119"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="8"/>
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="117"/>
+      <c r="W30" s="116"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="8"/>
@@ -6867,9 +6879,9 @@
       <c r="A31" s="3"/>
       <c r="B31" s="31"/>
       <c r="C31" s="48"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="67"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6877,15 +6889,15 @@
       <c r="L31" s="52"/>
       <c r="M31" s="53"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="120"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="119"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="8"/>
       <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="53"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="117"/>
+      <c r="W31" s="116"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="8"/>
@@ -6905,9 +6917,9 @@
       <c r="A32" s="3"/>
       <c r="B32" s="31"/>
       <c r="C32" s="48"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="66"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -6915,15 +6927,15 @@
       <c r="L32" s="55"/>
       <c r="M32" s="56"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="120"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="119"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="56"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="117"/>
+      <c r="W32" s="116"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="11"/>
@@ -6943,11 +6955,11 @@
       <c r="A33" s="3"/>
       <c r="B33" s="31"/>
       <c r="C33" s="48"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="106" t="s">
+      <c r="E33" s="110"/>
+      <c r="F33" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6955,15 +6967,15 @@
       <c r="L33" s="52"/>
       <c r="M33" s="53"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="120"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="119"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="8"/>
       <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="53"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="117"/>
+      <c r="W33" s="116"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="8"/>
@@ -6983,9 +6995,9 @@
       <c r="A34" s="3"/>
       <c r="B34" s="31"/>
       <c r="C34" s="48"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="67"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6993,15 +7005,15 @@
       <c r="L34" s="52"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="120"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="119"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="8"/>
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="53"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="117"/>
+      <c r="W34" s="116"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="8"/>
@@ -7021,9 +7033,9 @@
       <c r="A35" s="3"/>
       <c r="B35" s="31"/>
       <c r="C35" s="48"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="67"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -7031,15 +7043,15 @@
       <c r="L35" s="52"/>
       <c r="M35" s="53"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="120"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="119"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="8"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="53"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="117"/>
+      <c r="W35" s="116"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="8"/>
@@ -7059,9 +7071,9 @@
       <c r="A36" s="3"/>
       <c r="B36" s="31"/>
       <c r="C36" s="48"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -7069,15 +7081,15 @@
       <c r="L36" s="52"/>
       <c r="M36" s="53"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="120"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="119"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="8"/>
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="53"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="117"/>
+      <c r="W36" s="116"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="8"/>
@@ -7097,39 +7109,39 @@
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="49"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="65"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="64"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="65"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="64"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="61"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
-      <c r="AH37" s="63"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="65"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="64"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -7155,7 +7167,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AA20:AC20"/>
     <mergeCell ref="W5:W8"/>
     <mergeCell ref="W11:W37"/>
     <mergeCell ref="E5:E8"/>
@@ -7177,6 +7188,7 @@
     <mergeCell ref="P11:P37"/>
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="AA20:AC20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7251,35 +7263,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7287,10 +7299,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="130"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -7309,7 +7321,7 @@
       </c>
       <c r="C12" s="44">
         <f>LeetCode!C12</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -7329,28 +7341,28 @@
       </c>
       <c r="C14" s="46">
         <f>LeetCode!C14</f>
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="109"/>
+      <c r="C15" s="108"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="83" t="str">
         <f>LeetCode!B17</f>
         <v>133 - 21/4/2019</v>
       </c>
@@ -7361,7 +7373,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="83" t="str">
         <f>LeetCode!B18</f>
         <v>134 - 28/4/2019</v>
       </c>
@@ -7372,8 +7384,8 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="80"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -7565,11 +7577,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="124"/>
+      <c r="E3" s="139" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="34" t="s">
@@ -7596,90 +7608,90 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="89">
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="88">
         <v>43587</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="87">
         <v>43588</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="87">
         <v>43589</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="87">
         <v>43590</v>
       </c>
-      <c r="J4" s="88">
+      <c r="J4" s="87">
         <v>43591</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="87">
         <v>43592</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="89">
         <v>43593</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="E5" s="147" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="E5" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="87"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="142"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="87"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="E7" s="149" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="E7" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7687,10 +7699,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="130"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -7742,7 +7754,7 @@
       </c>
       <c r="C12" s="44">
         <f>LeetCode!C12</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7786,28 +7798,28 @@
       </c>
       <c r="C14" s="46">
         <f>LeetCode!C14</f>
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="109"/>
+      <c r="C15" s="108"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="83" t="str">
         <f>LeetCode!B17</f>
         <v>133 - 21/4/2019</v>
       </c>
@@ -7818,7 +7830,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="83" t="str">
         <f>LeetCode!B18</f>
         <v>134 - 28/4/2019</v>
       </c>
@@ -7829,8 +7841,8 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="80"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D99B27-ADBE-4995-9DE5-0CEA0554524B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47A5A5-B2EC-423A-9E9D-B4FC84FAF64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Applying for Jobs</t>
+  </si>
+  <si>
+    <t>Studying MERN stack</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1287,6 +1290,78 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,6 +1371,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,69 +1416,15 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,27 +1434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1455,13 +1464,13 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24363240-A9D1-4EF9-9D55-EF23AD83209F}" type="CELLRANGE">
+                    <a:fld id="{DA273CA1-73B7-415E-B8C6-27A53364BA56}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1697,7 +1706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94D2B364-3EC5-437E-A3AE-6AAA9C101F9C}" type="CELLRANGE">
+                    <a:fld id="{7DA51257-4C2F-417B-8EB2-F4FAFA1CD429}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1731,7 +1740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AAC64FA-2C75-40C6-A320-3B110D85EED8}" type="CELLRANGE">
+                    <a:fld id="{AB694EFA-6963-41D9-98FD-4E5C9CC18D3E}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1765,7 +1774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB32746B-26AE-42B3-B66A-FEBC3E9E7F7A}" type="CELLRANGE">
+                    <a:fld id="{9FC88CCC-9ECE-4BFA-991A-EC25FF447D3C}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFC2652B-A0BB-4084-9A65-091DB4F429E9}" type="CELLRANGE">
+                    <a:fld id="{096955F0-663A-4EDA-B7BA-2223E2195C6E}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1833,7 +1842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05BDAC0C-CA82-4A7E-A223-13CE84DED08E}" type="CELLRANGE">
+                    <a:fld id="{69A2CE0F-15F2-421A-AFEB-A30FB1E9EAB8}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2681,7 +2690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E17F270-5A42-4A08-8E6E-7C48E1D56EC6}" type="CELLRANGE">
+                    <a:fld id="{988C3247-8893-454C-945A-34B13E9055EF}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2715,7 +2724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9907B89-9DFB-4C7D-8A1D-E1486FCDC43D}" type="CELLRANGE">
+                    <a:fld id="{CE60A84D-832C-4FA8-8B5A-0174F0434FC4}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2749,7 +2758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6590EFB5-5CB2-4846-9AE3-CCC83221ADDA}" type="CELLRANGE">
+                    <a:fld id="{DE6CEE2F-14BF-4C93-8663-B5C1342ED854}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2783,7 +2792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{715B0DE9-7780-401E-A994-CE102D0CD84D}" type="CELLRANGE">
+                    <a:fld id="{91816E13-3F3B-4123-B24D-6E3694F57175}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2817,7 +2826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52C10F6E-95FC-4A36-AADB-97598E8D5079}" type="CELLRANGE">
+                    <a:fld id="{B26E3CED-B5D3-4F77-BC38-3E30C31227A6}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4951,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
   <dimension ref="A2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE31" sqref="AE31"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,14 +5022,14 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="111"/>
+      <c r="E3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="140"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5111,10 +5120,10 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="14">
         <v>43572</v>
       </c>
@@ -5205,9 +5214,9 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="E5" s="136" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="E5" s="103" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -5242,10 +5251,10 @@
         <v>6</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="131" t="s">
+      <c r="O5" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="132" t="s">
+      <c r="P5" s="124" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="4">
@@ -5269,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="131" t="s">
+      <c r="W5" s="99" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="4">
@@ -5303,23 +5312,23 @@
       </c>
       <c r="AF5" s="4">
         <f t="shared" ref="AF5:AI5" si="3">COUNT(AF11:AF25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="4">
         <f>COUNT(AJ11:AJ25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="19">
         <f>COUNT(AK11:AK25)</f>
@@ -5328,9 +5337,9 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="E6" s="137"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
@@ -5363,8 +5372,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="119"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="125"/>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
         <v>2</v>
@@ -5386,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="116"/>
+      <c r="W6" s="100"/>
       <c r="X6" s="5">
         <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
         <v>2</v>
@@ -5418,11 +5427,11 @@
       </c>
       <c r="AF6" s="5">
         <f t="shared" ref="AF6:AK6" si="10">COUNT(AF26:AF32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="5">
         <f t="shared" si="10"/>
@@ -5443,9 +5452,9 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
@@ -5478,8 +5487,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="119"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="125"/>
       <c r="Q7" s="6">
         <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
         <v>0</v>
@@ -5501,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="116"/>
+      <c r="W7" s="100"/>
       <c r="X7" s="6">
         <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
         <v>0</v>
@@ -5558,9 +5567,9 @@
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="E8" s="138"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="42" t="s">
         <v>14</v>
       </c>
@@ -5593,8 +5602,8 @@
         <v>8</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="120"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="126"/>
       <c r="Q8" s="24">
         <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
         <v>17</v>
@@ -5616,7 +5625,7 @@
         <v>11</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="117"/>
+      <c r="W8" s="101"/>
       <c r="X8" s="24">
         <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
         <v>2</v>
@@ -5648,23 +5657,23 @@
       </c>
       <c r="AF8" s="24">
         <f t="shared" ref="AF8:AG8" si="23">SUM(AF5:AF7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="24">
         <f>SUM(AH5:AH7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="24">
         <f t="shared" ref="AI8:AK8" si="24">SUM(AI5:AI7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="24">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="25">
         <f t="shared" si="24"/>
@@ -5711,51 +5720,51 @@
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="E10" s="97" t="s">
+      <c r="C10" s="120"/>
+      <c r="E10" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="123"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="112" t="s">
+      <c r="O10" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="112" t="s">
+      <c r="W10" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="118"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="97" t="s">
+      <c r="AE10" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="123"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -5766,10 +5775,10 @@
         <f>SUM(G5:AC5)</f>
         <v>124</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="127" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="37">
@@ -5794,10 +5803,10 @@
         <v>104</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="118" t="s">
+      <c r="P11" s="139" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="73">
@@ -5816,7 +5825,7 @@
         <v>155</v>
       </c>
       <c r="V11" s="3"/>
-      <c r="W11" s="115" t="s">
+      <c r="W11" s="102" t="s">
         <v>24</v>
       </c>
       <c r="X11" s="95"/>
@@ -5836,14 +5845,24 @@
         <v>589</v>
       </c>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="153">
+      <c r="AE11" s="97">
         <v>389</v>
       </c>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
+      <c r="AF11" s="73">
+        <v>70</v>
+      </c>
+      <c r="AG11" s="73">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="73">
+        <v>671</v>
+      </c>
+      <c r="AI11" s="73">
+        <v>1041</v>
+      </c>
+      <c r="AJ11" s="73">
+        <v>101</v>
+      </c>
       <c r="AK11" s="53"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -5855,8 +5874,8 @@
         <f>SUM(G6:AC6)</f>
         <v>25</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="101"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="36">
         <v>1021</v>
       </c>
@@ -5879,8 +5898,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="119"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="125"/>
       <c r="Q12" s="38">
         <v>88</v>
       </c>
@@ -5897,7 +5916,7 @@
         <v>189</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="116"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="92">
         <v>2</v>
@@ -5914,9 +5933,15 @@
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="51"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="8"/>
+      <c r="AF12" s="38">
+        <v>746</v>
+      </c>
+      <c r="AG12" s="38">
+        <v>504</v>
+      </c>
+      <c r="AH12" s="38">
+        <v>415</v>
+      </c>
       <c r="AI12" s="52"/>
       <c r="AJ12" s="52"/>
       <c r="AK12" s="53"/>
@@ -5930,8 +5955,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="101"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="36">
         <v>709</v>
       </c>
@@ -5954,8 +5979,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="119"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="125"/>
       <c r="Q13" s="38">
         <v>500</v>
       </c>
@@ -5972,7 +5997,7 @@
         <v>202</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="116"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="92">
         <v>3</v>
@@ -5988,8 +6013,12 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="8"/>
+      <c r="AG13" s="38">
+        <v>744</v>
+      </c>
+      <c r="AH13" s="38">
+        <v>83</v>
+      </c>
       <c r="AI13" s="52"/>
       <c r="AJ13" s="52"/>
       <c r="AK13" s="53"/>
@@ -6003,8 +6032,8 @@
         <f>SUM(G8:AC8)</f>
         <v>149</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="36">
         <v>804</v>
       </c>
@@ -6025,8 +6054,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="119"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="125"/>
       <c r="Q14" s="38">
         <v>806</v>
       </c>
@@ -6043,7 +6072,7 @@
         <v>235</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="116"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="92">
         <v>4</v>
@@ -6058,19 +6087,21 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="8"/>
+      <c r="AH14" s="38">
+        <v>819</v>
+      </c>
       <c r="AI14" s="52"/>
       <c r="AJ14" s="52"/>
       <c r="AK14" s="53"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="101"/>
+      <c r="C15" s="135"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="128"/>
       <c r="G15" s="36">
         <v>929</v>
       </c>
@@ -6091,8 +6122,8 @@
         <v>206</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="119"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="125"/>
       <c r="Q15" s="38">
         <v>872</v>
       </c>
@@ -6109,7 +6140,7 @@
         <v>496</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="116"/>
+      <c r="W15" s="100"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="92">
         <v>5</v>
@@ -6137,8 +6168,8 @@
       <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="101"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="36">
         <v>905</v>
       </c>
@@ -6159,8 +6190,8 @@
         <v>237</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="119"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="125"/>
       <c r="Q16" s="38">
         <v>682</v>
       </c>
@@ -6177,7 +6208,7 @@
         <v>559</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="116"/>
+      <c r="W16" s="100"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="92">
         <v>6</v>
@@ -6203,8 +6234,8 @@
       <c r="C17" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="36">
         <v>977</v>
       </c>
@@ -6217,8 +6248,8 @@
       <c r="L17" s="52"/>
       <c r="M17" s="53"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="119"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="125"/>
       <c r="Q17" s="38">
         <v>637</v>
       </c>
@@ -6235,7 +6266,7 @@
         <v>590</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="116"/>
+      <c r="W17" s="100"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="92">
         <v>7</v>
@@ -6261,8 +6292,8 @@
       <c r="C18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="101"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="36">
         <v>832</v>
       </c>
@@ -6275,8 +6306,8 @@
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="119"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="125"/>
       <c r="Q18" s="38">
         <v>937</v>
       </c>
@@ -6291,9 +6322,9 @@
         <v>700</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="116"/>
+      <c r="W18" s="100"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="121" t="s">
+      <c r="Y18" s="140" t="s">
         <v>33</v>
       </c>
       <c r="Z18" s="8"/>
@@ -6317,8 +6348,8 @@
       <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="101"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="36">
         <v>657</v>
       </c>
@@ -6331,8 +6362,8 @@
       <c r="L19" s="52"/>
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="125"/>
       <c r="Q19" s="38">
         <v>226</v>
       </c>
@@ -6347,9 +6378,9 @@
         <v>701</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="116"/>
+      <c r="W19" s="100"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="122"/>
+      <c r="Y19" s="141"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
@@ -6367,8 +6398,8 @@
       <c r="A20" s="3"/>
       <c r="B20" s="31"/>
       <c r="C20" s="48"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="101"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="36">
         <v>461</v>
       </c>
@@ -6381,8 +6412,8 @@
       <c r="L20" s="52"/>
       <c r="M20" s="53"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="119"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="125"/>
       <c r="Q20" s="38">
         <v>693</v>
       </c>
@@ -6395,30 +6426,32 @@
         <v>21</v>
       </c>
       <c r="V20" s="3"/>
-      <c r="W20" s="116"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="93"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="133" t="s">
+      <c r="AA20" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="135"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="144"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
+      <c r="AE20" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="156"/>
+      <c r="AH20" s="156"/>
+      <c r="AI20" s="156"/>
+      <c r="AJ20" s="157"/>
       <c r="AK20" s="53"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="31"/>
       <c r="C21" s="48"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="101"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="36">
         <v>961</v>
       </c>
@@ -6429,8 +6462,8 @@
       <c r="L21" s="52"/>
       <c r="M21" s="53"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="119"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="38">
         <v>888</v>
       </c>
@@ -6443,7 +6476,7 @@
         <v>26</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="116"/>
+      <c r="W21" s="100"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="93"/>
       <c r="Z21" s="8"/>
@@ -6463,8 +6496,8 @@
       <c r="A22" s="3"/>
       <c r="B22" s="31"/>
       <c r="C22" s="48"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="36">
         <v>617</v>
       </c>
@@ -6475,8 +6508,8 @@
       <c r="L22" s="52"/>
       <c r="M22" s="53"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="125"/>
       <c r="Q22" s="38">
         <v>896</v>
       </c>
@@ -6487,7 +6520,7 @@
       </c>
       <c r="U22" s="76"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="116"/>
+      <c r="W22" s="100"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="93"/>
       <c r="Z22" s="8"/>
@@ -6507,8 +6540,8 @@
       <c r="A23" s="3"/>
       <c r="B23" s="31"/>
       <c r="C23" s="48"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="101"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="128"/>
       <c r="G23" s="36">
         <v>728</v>
       </c>
@@ -6519,8 +6552,8 @@
       <c r="L23" s="52"/>
       <c r="M23" s="53"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="119"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="125"/>
       <c r="Q23" s="38">
         <v>606</v>
       </c>
@@ -6531,7 +6564,7 @@
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="116"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="93"/>
       <c r="Z23" s="8"/>
@@ -6551,8 +6584,8 @@
       <c r="A24" s="3"/>
       <c r="B24" s="31"/>
       <c r="C24" s="48"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="36">
         <v>852</v>
       </c>
@@ -6563,8 +6596,8 @@
       <c r="L24" s="52"/>
       <c r="M24" s="53"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="119"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="125"/>
       <c r="Q24" s="38">
         <v>520</v>
       </c>
@@ -6573,7 +6606,7 @@
       <c r="T24" s="52"/>
       <c r="U24" s="77"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="116"/>
+      <c r="W24" s="100"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="93"/>
       <c r="Z24" s="8"/>
@@ -6593,8 +6626,8 @@
       <c r="A25" s="3"/>
       <c r="B25" s="31"/>
       <c r="C25" s="48"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -6603,8 +6636,8 @@
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="119"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="125"/>
       <c r="Q25" s="38">
         <v>993</v>
       </c>
@@ -6613,7 +6646,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="72"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="116"/>
+      <c r="W25" s="100"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="94"/>
       <c r="Z25" s="11"/>
@@ -6633,8 +6666,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="31"/>
       <c r="C26" s="48"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="102" t="s">
+      <c r="E26" s="137"/>
+      <c r="F26" s="129" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="66"/>
@@ -6655,8 +6688,8 @@
         <v>921</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="119"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="125"/>
       <c r="Q26" s="13">
         <v>791</v>
       </c>
@@ -6671,7 +6704,7 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="116"/>
+      <c r="W26" s="100"/>
       <c r="X26" s="13">
         <v>338</v>
       </c>
@@ -6689,11 +6722,15 @@
         <v>513</v>
       </c>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="155">
+      <c r="AE26" s="98">
         <v>495</v>
       </c>
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="12"/>
+      <c r="AF26" s="13">
+        <v>648</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>137</v>
+      </c>
       <c r="AH26" s="57"/>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
@@ -6703,8 +6740,8 @@
       <c r="A27" s="3"/>
       <c r="B27" s="31"/>
       <c r="C27" s="48"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="103"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="66"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -6719,8 +6756,8 @@
         <v>861</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="119"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="125"/>
       <c r="Q27" s="13">
         <v>856</v>
       </c>
@@ -6735,11 +6772,11 @@
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="116"/>
+      <c r="W27" s="100"/>
       <c r="X27" s="13">
         <v>877</v>
       </c>
-      <c r="Y27" s="121" t="s">
+      <c r="Y27" s="140" t="s">
         <v>33</v>
       </c>
       <c r="Z27" s="13">
@@ -6763,8 +6800,8 @@
       <c r="A28" s="3"/>
       <c r="B28" s="31"/>
       <c r="C28" s="48"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="103"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="130"/>
       <c r="G28" s="66"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -6773,8 +6810,8 @@
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="119"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="125"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="13">
         <v>535</v>
@@ -6783,9 +6820,9 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="116"/>
+      <c r="W28" s="100"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="122"/>
+      <c r="Y28" s="141"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
@@ -6803,8 +6840,8 @@
       <c r="A29" s="3"/>
       <c r="B29" s="31"/>
       <c r="C29" s="48"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="103"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="130"/>
       <c r="G29" s="66"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -6813,15 +6850,15 @@
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="119"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="125"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="8"/>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="53"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="116"/>
+      <c r="W29" s="100"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="8"/>
@@ -6841,8 +6878,8 @@
       <c r="A30" s="3"/>
       <c r="B30" s="31"/>
       <c r="C30" s="48"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="103"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="130"/>
       <c r="G30" s="66"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -6851,15 +6888,15 @@
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="119"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="125"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="8"/>
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="116"/>
+      <c r="W30" s="100"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="8"/>
@@ -6879,8 +6916,8 @@
       <c r="A31" s="3"/>
       <c r="B31" s="31"/>
       <c r="C31" s="48"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="103"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="130"/>
       <c r="G31" s="66"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -6889,15 +6926,15 @@
       <c r="L31" s="52"/>
       <c r="M31" s="53"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="119"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="125"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="8"/>
       <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="53"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="116"/>
+      <c r="W31" s="100"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="8"/>
@@ -6917,8 +6954,8 @@
       <c r="A32" s="3"/>
       <c r="B32" s="31"/>
       <c r="C32" s="48"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="104"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="65"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6927,15 +6964,15 @@
       <c r="L32" s="55"/>
       <c r="M32" s="56"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="119"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="125"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="56"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="116"/>
+      <c r="W32" s="100"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="11"/>
@@ -6955,8 +6992,8 @@
       <c r="A33" s="3"/>
       <c r="B33" s="31"/>
       <c r="C33" s="48"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="105" t="s">
+      <c r="E33" s="137"/>
+      <c r="F33" s="132" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="66"/>
@@ -6967,15 +7004,15 @@
       <c r="L33" s="52"/>
       <c r="M33" s="53"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="119"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="125"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="8"/>
       <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="53"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="116"/>
+      <c r="W33" s="100"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="8"/>
@@ -6995,8 +7032,8 @@
       <c r="A34" s="3"/>
       <c r="B34" s="31"/>
       <c r="C34" s="48"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="105"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="132"/>
       <c r="G34" s="66"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -7005,15 +7042,15 @@
       <c r="L34" s="52"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="119"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="125"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="8"/>
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="53"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="116"/>
+      <c r="W34" s="100"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="8"/>
@@ -7033,8 +7070,8 @@
       <c r="A35" s="3"/>
       <c r="B35" s="31"/>
       <c r="C35" s="48"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="105"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="66"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7043,15 +7080,15 @@
       <c r="L35" s="52"/>
       <c r="M35" s="53"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="119"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="125"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="8"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="53"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="116"/>
+      <c r="W35" s="100"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="8"/>
@@ -7071,8 +7108,8 @@
       <c r="A36" s="3"/>
       <c r="B36" s="31"/>
       <c r="C36" s="48"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="105"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="132"/>
       <c r="G36" s="66"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -7081,15 +7118,15 @@
       <c r="L36" s="52"/>
       <c r="M36" s="53"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="119"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="125"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="8"/>
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="53"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="116"/>
+      <c r="W36" s="100"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="8"/>
@@ -7109,8 +7146,8 @@
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="49"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="106"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="133"/>
       <c r="G37" s="67"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
@@ -7119,15 +7156,15 @@
       <c r="L37" s="63"/>
       <c r="M37" s="64"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="120"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="126"/>
       <c r="Q37" s="61"/>
       <c r="R37" s="62"/>
       <c r="S37" s="63"/>
       <c r="T37" s="63"/>
       <c r="U37" s="64"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="117"/>
+      <c r="W37" s="101"/>
       <c r="X37" s="61"/>
       <c r="Y37" s="61"/>
       <c r="Z37" s="62"/>
@@ -7166,17 +7203,7 @@
       <c r="U38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="W11:W37"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
+  <mergeCells count="23">
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
@@ -7189,6 +7216,17 @@
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="W11:W37"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7263,35 +7301,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7299,10 +7337,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="120"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -7346,10 +7384,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="135"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -7577,11 +7615,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="111"/>
+      <c r="E3" s="106" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="34" t="s">
@@ -7608,9 +7646,9 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="E4" s="141"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="88">
         <v>43587</v>
       </c>
@@ -7635,15 +7673,15 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="E5" s="149" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="E5" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7652,11 +7690,11 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="144"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7665,15 +7703,15 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="E7" s="151" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="E7" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="145" t="s">
+      <c r="F7" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="146"/>
+      <c r="G7" s="148"/>
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -7682,11 +7720,11 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
@@ -7699,10 +7737,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="120"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -7803,10 +7841,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="135"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47A5A5-B2EC-423A-9E9D-B4FC84FAF64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA87B1-8E7E-4232-8DEA-32C7470C139B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Monday</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Studying MERN stack</t>
+  </si>
+  <si>
+    <t>4 pts, 1/4</t>
+  </si>
+  <si>
+    <t>136 - 12/5/2019</t>
+  </si>
+  <si>
+    <t>137 - 05/5/2019</t>
+  </si>
+  <si>
+    <t>13 pts, 3/4</t>
   </si>
 </sst>
 </file>
@@ -1296,16 +1308,112 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1317,69 +1425,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,37 +1446,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1463,15 +1484,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1672,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA273CA1-73B7-415E-B8C6-27A53364BA56}" type="CELLRANGE">
+                    <a:fld id="{BF0E1D07-1212-4C11-8593-25AC8030FB3F}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1706,7 +1718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DA51257-4C2F-417B-8EB2-F4FAFA1CD429}" type="CELLRANGE">
+                    <a:fld id="{F533EC0E-98E8-4CC5-AA46-648B9B2BA159}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1740,7 +1752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB694EFA-6963-41D9-98FD-4E5C9CC18D3E}" type="CELLRANGE">
+                    <a:fld id="{B97AD5DA-AB02-4053-9C83-015531FAF8BE}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1774,7 +1786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FC88CCC-9ECE-4BFA-991A-EC25FF447D3C}" type="CELLRANGE">
+                    <a:fld id="{EACDD9F6-901F-4F2C-B3FB-61AA186923D2}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1808,7 +1820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{096955F0-663A-4EDA-B7BA-2223E2195C6E}" type="CELLRANGE">
+                    <a:fld id="{68F45A17-8572-4EF5-B94F-E8DBB24719E7}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1842,7 +1854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69A2CE0F-15F2-421A-AFEB-A30FB1E9EAB8}" type="CELLRANGE">
+                    <a:fld id="{F9CD2E4B-827D-46E0-9379-6520AF6111EC}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2690,7 +2702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{988C3247-8893-454C-945A-34B13E9055EF}" type="CELLRANGE">
+                    <a:fld id="{5E18F81C-E9B6-43F1-A850-B3AC378913DB}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2724,7 +2736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE60A84D-832C-4FA8-8B5A-0174F0434FC4}" type="CELLRANGE">
+                    <a:fld id="{A7E806AF-C0D3-4E59-8C95-7AA5E8AC2CA6}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2758,7 +2770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE6CEE2F-14BF-4C93-8663-B5C1342ED854}" type="CELLRANGE">
+                    <a:fld id="{495F998E-6F58-4932-8E3D-9E02AC8811BD}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2792,7 +2804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91816E13-3F3B-4123-B24D-6E3694F57175}" type="CELLRANGE">
+                    <a:fld id="{ABD758E6-EF51-4FED-81AA-A7D2B16C5354}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2826,7 +2838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B26E3CED-B5D3-4F77-BC38-3E30C31227A6}" type="CELLRANGE">
+                    <a:fld id="{C288A430-1A62-42E2-93AF-C22D6294603F}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4958,15 +4970,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="A2:AL38"/>
+  <dimension ref="A2:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -4998,7 +5011,7 @@
     <col min="38" max="38" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5020,16 +5033,16 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="E3" s="106" t="s">
+      <c r="C3" s="123"/>
+      <c r="E3" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="119"/>
       <c r="G3" s="34" t="s">
         <v>2</v>
       </c>
@@ -5117,13 +5130,34 @@
       <c r="AK3" s="23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="14">
         <v>43572</v>
       </c>
@@ -5211,12 +5245,33 @@
       <c r="AK4" s="15">
         <v>43599</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4" s="14">
+        <v>43600</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>43601</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>43602</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>43603</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>43604</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>43605</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="E5" s="103" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="E5" s="135" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -5251,10 +5306,10 @@
         <v>6</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="134" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="4">
@@ -5278,7 +5333,7 @@
         <v>11</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="99" t="s">
+      <c r="W5" s="133" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="4">
@@ -5334,12 +5389,40 @@
         <f>COUNT(AK11:AK25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5" s="16">
+        <f t="shared" ref="AM5:AS5" si="4">COUNT(AL11:AL25)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AS5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
@@ -5348,38 +5431,38 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:I6" si="4">COUNT(H26:H32)</f>
+        <f t="shared" ref="H6:I6" si="5">COUNT(H26:H32)</f>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:K6" si="5">COUNT(J26:J32)</f>
+        <f t="shared" ref="J6:K6" si="6">COUNT(J26:J32)</f>
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6" si="6">COUNT(L26:L32)</f>
+        <f t="shared" ref="L6" si="7">COUNT(L26:L32)</f>
         <v>2</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" ref="M6" si="7">COUNT(M26:M32)</f>
+        <f t="shared" ref="M6" si="8">COUNT(M26:M32)</f>
         <v>2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="125"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="5">
-        <f t="shared" ref="Q6:U6" si="8">COUNT(Q26:Q32)</f>
+        <f t="shared" ref="Q6:U6" si="9">COUNT(Q26:Q32)</f>
         <v>2</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S6" s="5">
@@ -5387,25 +5470,25 @@
         <v>2</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U6" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="100"/>
+      <c r="W6" s="108"/>
       <c r="X6" s="5">
-        <f t="shared" ref="X6:AC6" si="9">COUNT(X26:X32)</f>
+        <f t="shared" ref="X6:AC6" si="10">COUNT(X26:X32)</f>
         <v>2</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA6" s="5">
@@ -5413,11 +5496,11 @@
         <v>1</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC6" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD6" s="3"/>
@@ -5426,35 +5509,63 @@
         <v>1</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" ref="AF6:AK6" si="10">COUNT(AF26:AF32)</f>
+        <f t="shared" ref="AF6:AK6" si="11">COUNT(AF26:AF32)</f>
         <v>1</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK6" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6" s="17">
+        <f t="shared" ref="AM6:AS6" si="12">COUNT(AL26:AL32)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="E7" s="104"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="E7" s="136"/>
       <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
@@ -5463,11 +5574,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H7:I7" si="11">COUNT(H33:H37)</f>
+        <f t="shared" ref="H7:I7" si="13">COUNT(H33:H37)</f>
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -5479,60 +5590,60 @@
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" ref="L7" si="12">COUNT(L33:L37)</f>
+        <f t="shared" ref="L7" si="14">COUNT(L33:L37)</f>
         <v>0</v>
       </c>
       <c r="M7" s="21">
-        <f t="shared" ref="M7" si="13">COUNT(M33:M37)</f>
+        <f t="shared" ref="M7" si="15">COUNT(M33:M37)</f>
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="125"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="111"/>
       <c r="Q7" s="6">
-        <f t="shared" ref="Q7:U7" si="14">COUNT(Q33:Q37)</f>
+        <f t="shared" ref="Q7:U7" si="16">COUNT(Q33:Q37)</f>
         <v>0</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U7" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="100"/>
+      <c r="W7" s="108"/>
       <c r="X7" s="6">
-        <f t="shared" ref="X7:AC7" si="15">COUNT(X33:X37)</f>
+        <f t="shared" ref="X7:AC7" si="17">COUNT(X33:X37)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC7" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD7" s="3"/>
@@ -5541,35 +5652,63 @@
         <v>0</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" ref="AF7:AK7" si="16">COUNT(AF33:AF37)</f>
+        <f t="shared" ref="AF7:AK7" si="18">COUNT(AF33:AF37)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK7" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM7" s="18">
+        <f t="shared" ref="AM7:AS7" si="19">COUNT(AL33:AL37)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="42" t="s">
         <v>14</v>
       </c>
@@ -5578,11 +5717,11 @@
         <v>14</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" ref="H8:M8" si="17">SUM(H5:H7)</f>
+        <f t="shared" ref="H8:M8" si="20">SUM(H5:H7)</f>
         <v>10</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J8" s="24">
@@ -5590,22 +5729,22 @@
         <v>7</v>
       </c>
       <c r="K8" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" ref="L8" si="18">SUM(L5:L7)</f>
+        <f t="shared" ref="L8" si="21">SUM(L5:L7)</f>
         <v>8</v>
       </c>
       <c r="M8" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="126"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="24">
-        <f t="shared" ref="Q8" si="19">SUM(Q5:Q7)</f>
+        <f t="shared" ref="Q8" si="22">SUM(Q5:Q7)</f>
         <v>17</v>
       </c>
       <c r="R8" s="24">
@@ -5613,25 +5752,25 @@
         <v>10</v>
       </c>
       <c r="S8" s="24">
-        <f t="shared" ref="S8:U8" si="20">SUM(S5:S7)</f>
+        <f t="shared" ref="S8:U8" si="23">SUM(S5:S7)</f>
         <v>11</v>
       </c>
       <c r="T8" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="U8" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="101"/>
+      <c r="W8" s="109"/>
       <c r="X8" s="24">
-        <f t="shared" ref="X8:Y8" si="21">SUM(X5:X7)</f>
+        <f t="shared" ref="X8:Y8" si="24">SUM(X5:X7)</f>
         <v>2</v>
       </c>
       <c r="Y8" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="Z8" s="24">
@@ -5639,15 +5778,15 @@
         <v>7</v>
       </c>
       <c r="AA8" s="24">
-        <f t="shared" ref="AA8:AC8" si="22">SUM(AA5:AA7)</f>
+        <f t="shared" ref="AA8:AC8" si="25">SUM(AA5:AA7)</f>
         <v>2</v>
       </c>
       <c r="AB8" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AC8" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AD8" s="3"/>
@@ -5656,11 +5795,11 @@
         <v>2</v>
       </c>
       <c r="AF8" s="24">
-        <f t="shared" ref="AF8:AG8" si="23">SUM(AF5:AF7)</f>
+        <f t="shared" ref="AF8:AG8" si="26">SUM(AF5:AF7)</f>
         <v>3</v>
       </c>
       <c r="AG8" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="AH8" s="24">
@@ -5668,19 +5807,47 @@
         <v>4</v>
       </c>
       <c r="AI8" s="24">
-        <f t="shared" ref="AI8:AK8" si="24">SUM(AI5:AI7)</f>
+        <f t="shared" ref="AI8:AK8" si="27">SUM(AI5:AI7)</f>
         <v>1</v>
       </c>
       <c r="AJ8" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AK8" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM8" s="35">
+        <f>SUM(AM5:AM7)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="24">
+        <f t="shared" ref="AN8:AO8" si="28">SUM(AN5:AN7)</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="24">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="24">
+        <f>SUM(AP5:AP7)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="24">
+        <f t="shared" ref="AQ8:AR8" si="29">SUM(AQ5:AQ7)</f>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="24">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AS8" s="24">
+        <f t="shared" ref="AS8" si="30">SUM(AS5:AS7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
@@ -5718,55 +5885,64 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="E10" s="121" t="s">
+      <c r="C10" s="129"/>
+      <c r="E10" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="123"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="116" t="s">
+      <c r="O10" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="118"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="106"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="116" t="s">
+      <c r="W10" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="118"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="106"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="121" t="s">
+      <c r="AE10" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="123"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="131"/>
+      <c r="AH10" s="131"/>
+      <c r="AI10" s="131"/>
+      <c r="AJ10" s="131"/>
+      <c r="AK10" s="132"/>
+      <c r="AM10" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN10" s="131"/>
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="131"/>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="131"/>
+      <c r="AS10" s="132"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="32" t="s">
         <v>11</v>
@@ -5775,10 +5951,10 @@
         <f>SUM(G5:AC5)</f>
         <v>124</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="138" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="37">
@@ -5803,10 +5979,10 @@
         <v>104</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="102" t="s">
+      <c r="O11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="139" t="s">
+      <c r="P11" s="110" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="73">
@@ -5825,7 +6001,7 @@
         <v>155</v>
       </c>
       <c r="V11" s="3"/>
-      <c r="W11" s="102" t="s">
+      <c r="W11" s="107" t="s">
         <v>24</v>
       </c>
       <c r="X11" s="95"/>
@@ -5864,8 +6040,19 @@
         <v>101</v>
       </c>
       <c r="AK11" s="53"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11" s="97">
+        <v>783</v>
+      </c>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="73">
+        <v>1046</v>
+      </c>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="53"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
         <v>12</v>
@@ -5874,8 +6061,8 @@
         <f>SUM(G6:AC6)</f>
         <v>25</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="128"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="36">
         <v>1021</v>
       </c>
@@ -5898,8 +6085,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="125"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="111"/>
       <c r="Q12" s="38">
         <v>88</v>
       </c>
@@ -5916,7 +6103,7 @@
         <v>189</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="100"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="92">
         <v>2</v>
@@ -5945,8 +6132,17 @@
       <c r="AI12" s="52"/>
       <c r="AJ12" s="52"/>
       <c r="AK12" s="53"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="38">
+        <v>1047</v>
+      </c>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="53"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="27" t="s">
         <v>13</v>
@@ -5955,8 +6151,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="128"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="36">
         <v>709</v>
       </c>
@@ -5979,8 +6175,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="125"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="111"/>
       <c r="Q13" s="38">
         <v>500</v>
       </c>
@@ -5997,7 +6193,7 @@
         <v>202</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="100"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="92">
         <v>3</v>
@@ -6022,8 +6218,15 @@
       <c r="AI13" s="52"/>
       <c r="AJ13" s="52"/>
       <c r="AK13" s="53"/>
-    </row>
-    <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="53"/>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="28" t="s">
         <v>14</v>
@@ -6032,8 +6235,8 @@
         <f>SUM(G8:AC8)</f>
         <v>149</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="128"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="36">
         <v>804</v>
       </c>
@@ -6054,8 +6257,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="125"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="111"/>
       <c r="Q14" s="38">
         <v>806</v>
       </c>
@@ -6072,7 +6275,7 @@
         <v>235</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="100"/>
+      <c r="W14" s="108"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="92">
         <v>4</v>
@@ -6093,15 +6296,22 @@
       <c r="AI14" s="52"/>
       <c r="AJ14" s="52"/>
       <c r="AK14" s="53"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="53"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="128"/>
+      <c r="C15" s="100"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="36">
         <v>929</v>
       </c>
@@ -6122,8 +6332,8 @@
         <v>206</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="125"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="111"/>
       <c r="Q15" s="38">
         <v>872</v>
       </c>
@@ -6140,7 +6350,7 @@
         <v>496</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="100"/>
+      <c r="W15" s="108"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="92">
         <v>5</v>
@@ -6159,8 +6369,15 @@
       <c r="AI15" s="52"/>
       <c r="AJ15" s="52"/>
       <c r="AK15" s="53"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="53"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>15</v>
@@ -6168,8 +6385,8 @@
       <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="128"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="36">
         <v>905</v>
       </c>
@@ -6190,8 +6407,8 @@
         <v>237</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="125"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="111"/>
       <c r="Q16" s="38">
         <v>682</v>
       </c>
@@ -6208,7 +6425,7 @@
         <v>559</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="100"/>
+      <c r="W16" s="108"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="92">
         <v>6</v>
@@ -6225,8 +6442,15 @@
       <c r="AI16" s="52"/>
       <c r="AJ16" s="52"/>
       <c r="AK16" s="53"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="53"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="31" t="s">
         <v>17</v>
@@ -6234,8 +6458,8 @@
       <c r="C17" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="128"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="36">
         <v>977</v>
       </c>
@@ -6248,8 +6472,8 @@
       <c r="L17" s="52"/>
       <c r="M17" s="53"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="125"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="111"/>
       <c r="Q17" s="38">
         <v>637</v>
       </c>
@@ -6266,7 +6490,7 @@
         <v>590</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="100"/>
+      <c r="W17" s="108"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="92">
         <v>7</v>
@@ -6283,8 +6507,15 @@
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
       <c r="AK17" s="53"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="53"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
@@ -6292,8 +6523,8 @@
       <c r="C18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="128"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="36">
         <v>832</v>
       </c>
@@ -6306,8 +6537,8 @@
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="125"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="111"/>
       <c r="Q18" s="38">
         <v>937</v>
       </c>
@@ -6322,9 +6553,9 @@
         <v>700</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="100"/>
+      <c r="W18" s="108"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="140" t="s">
+      <c r="Y18" s="113" t="s">
         <v>33</v>
       </c>
       <c r="Z18" s="8"/>
@@ -6339,8 +6570,15 @@
       <c r="AI18" s="52"/>
       <c r="AJ18" s="52"/>
       <c r="AK18" s="53"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="53"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="31" t="s">
         <v>34</v>
@@ -6348,8 +6586,8 @@
       <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="128"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="36">
         <v>657</v>
       </c>
@@ -6362,8 +6600,8 @@
       <c r="L19" s="52"/>
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="125"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="111"/>
       <c r="Q19" s="38">
         <v>226</v>
       </c>
@@ -6378,9 +6616,9 @@
         <v>701</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="100"/>
+      <c r="W19" s="108"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="141"/>
+      <c r="Y19" s="114"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
@@ -6393,13 +6631,24 @@
       <c r="AI19" s="52"/>
       <c r="AJ19" s="52"/>
       <c r="AK19" s="53"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="53"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="48"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="128"/>
+      <c r="B20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="36">
         <v>461</v>
       </c>
@@ -6412,8 +6661,8 @@
       <c r="L20" s="52"/>
       <c r="M20" s="53"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="125"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="111"/>
       <c r="Q20" s="38">
         <v>693</v>
       </c>
@@ -6426,32 +6675,43 @@
         <v>21</v>
       </c>
       <c r="V20" s="3"/>
-      <c r="W20" s="100"/>
+      <c r="W20" s="108"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="93"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="142" t="s">
+      <c r="AA20" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="144"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="117"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="155" t="s">
+      <c r="AE20" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="156"/>
-      <c r="AI20" s="156"/>
-      <c r="AJ20" s="157"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="147"/>
       <c r="AK20" s="53"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="53"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="48"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="128"/>
+      <c r="B21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="36">
         <v>961</v>
       </c>
@@ -6462,8 +6722,8 @@
       <c r="L21" s="52"/>
       <c r="M21" s="53"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="125"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="111"/>
       <c r="Q21" s="38">
         <v>888</v>
       </c>
@@ -6476,7 +6736,7 @@
         <v>26</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="100"/>
+      <c r="W21" s="108"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="93"/>
       <c r="Z21" s="8"/>
@@ -6491,13 +6751,20 @@
       <c r="AI21" s="52"/>
       <c r="AJ21" s="52"/>
       <c r="AK21" s="53"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="53"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="31"/>
       <c r="C22" s="48"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="128"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="36">
         <v>617</v>
       </c>
@@ -6508,8 +6775,8 @@
       <c r="L22" s="52"/>
       <c r="M22" s="53"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="125"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="111"/>
       <c r="Q22" s="38">
         <v>896</v>
       </c>
@@ -6520,7 +6787,7 @@
       </c>
       <c r="U22" s="76"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="100"/>
+      <c r="W22" s="108"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="93"/>
       <c r="Z22" s="8"/>
@@ -6535,13 +6802,20 @@
       <c r="AI22" s="52"/>
       <c r="AJ22" s="52"/>
       <c r="AK22" s="53"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="53"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="31"/>
       <c r="C23" s="48"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="128"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="36">
         <v>728</v>
       </c>
@@ -6552,8 +6826,8 @@
       <c r="L23" s="52"/>
       <c r="M23" s="53"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="125"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="111"/>
       <c r="Q23" s="38">
         <v>606</v>
       </c>
@@ -6564,7 +6838,7 @@
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="100"/>
+      <c r="W23" s="108"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="93"/>
       <c r="Z23" s="8"/>
@@ -6579,13 +6853,20 @@
       <c r="AI23" s="52"/>
       <c r="AJ23" s="52"/>
       <c r="AK23" s="53"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="53"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="31"/>
       <c r="C24" s="48"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="128"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="36">
         <v>852</v>
       </c>
@@ -6596,8 +6877,8 @@
       <c r="L24" s="52"/>
       <c r="M24" s="53"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="125"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="111"/>
       <c r="Q24" s="38">
         <v>520</v>
       </c>
@@ -6606,7 +6887,7 @@
       <c r="T24" s="52"/>
       <c r="U24" s="77"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="100"/>
+      <c r="W24" s="108"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="93"/>
       <c r="Z24" s="8"/>
@@ -6621,13 +6902,20 @@
       <c r="AI24" s="52"/>
       <c r="AJ24" s="52"/>
       <c r="AK24" s="53"/>
-    </row>
-    <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="53"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="31"/>
       <c r="C25" s="48"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="128"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -6636,8 +6924,8 @@
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="125"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="111"/>
       <c r="Q25" s="38">
         <v>993</v>
       </c>
@@ -6646,7 +6934,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="72"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="100"/>
+      <c r="W25" s="108"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="94"/>
       <c r="Z25" s="11"/>
@@ -6661,13 +6949,20 @@
       <c r="AI25" s="55"/>
       <c r="AJ25" s="55"/>
       <c r="AK25" s="56"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="56"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="31"/>
       <c r="C26" s="48"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="129" t="s">
+      <c r="E26" s="102"/>
+      <c r="F26" s="140" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="66"/>
@@ -6688,8 +6983,8 @@
         <v>921</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="125"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="111"/>
       <c r="Q26" s="13">
         <v>791</v>
       </c>
@@ -6704,7 +6999,7 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="100"/>
+      <c r="W26" s="108"/>
       <c r="X26" s="13">
         <v>338</v>
       </c>
@@ -6735,13 +7030,22 @@
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="59"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="13">
+        <v>1048</v>
+      </c>
+      <c r="AR26" s="58"/>
+      <c r="AS26" s="59"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="31"/>
       <c r="C27" s="48"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="130"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="66"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -6756,8 +7060,8 @@
         <v>861</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="125"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="111"/>
       <c r="Q27" s="13">
         <v>856</v>
       </c>
@@ -6772,11 +7076,11 @@
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="100"/>
+      <c r="W27" s="108"/>
       <c r="X27" s="13">
         <v>877</v>
       </c>
-      <c r="Y27" s="140" t="s">
+      <c r="Y27" s="113" t="s">
         <v>33</v>
       </c>
       <c r="Z27" s="13">
@@ -6795,13 +7099,20 @@
       <c r="AI27" s="52"/>
       <c r="AJ27" s="52"/>
       <c r="AK27" s="53"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="53"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="31"/>
       <c r="C28" s="48"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="130"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="66"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -6810,8 +7121,8 @@
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="125"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="111"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="13">
         <v>535</v>
@@ -6820,9 +7131,9 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="100"/>
+      <c r="W28" s="108"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="141"/>
+      <c r="Y28" s="114"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
@@ -6835,13 +7146,20 @@
       <c r="AI28" s="52"/>
       <c r="AJ28" s="52"/>
       <c r="AK28" s="53"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="53"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="31"/>
       <c r="C29" s="48"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="130"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="66"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -6850,15 +7168,15 @@
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="125"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="111"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="8"/>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="53"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="100"/>
+      <c r="W29" s="108"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="8"/>
@@ -6873,13 +7191,20 @@
       <c r="AI29" s="52"/>
       <c r="AJ29" s="52"/>
       <c r="AK29" s="53"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="53"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="31"/>
       <c r="C30" s="48"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="130"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="66"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -6888,15 +7213,15 @@
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="125"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="111"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="8"/>
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="100"/>
+      <c r="W30" s="108"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="8"/>
@@ -6911,13 +7236,20 @@
       <c r="AI30" s="52"/>
       <c r="AJ30" s="52"/>
       <c r="AK30" s="53"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="53"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="31"/>
       <c r="C31" s="48"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="130"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="66"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -6926,15 +7258,15 @@
       <c r="L31" s="52"/>
       <c r="M31" s="53"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="125"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="111"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="8"/>
       <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="53"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="100"/>
+      <c r="W31" s="108"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="8"/>
@@ -6949,13 +7281,20 @@
       <c r="AI31" s="52"/>
       <c r="AJ31" s="52"/>
       <c r="AK31" s="53"/>
-    </row>
-    <row r="32" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="53"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="31"/>
       <c r="C32" s="48"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="131"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="142"/>
       <c r="G32" s="65"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6964,15 +7303,15 @@
       <c r="L32" s="55"/>
       <c r="M32" s="56"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="125"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="111"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="56"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="100"/>
+      <c r="W32" s="108"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="11"/>
@@ -6987,13 +7326,20 @@
       <c r="AI32" s="55"/>
       <c r="AJ32" s="55"/>
       <c r="AK32" s="56"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="56"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="31"/>
       <c r="C33" s="48"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="132" t="s">
+      <c r="E33" s="102"/>
+      <c r="F33" s="143" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="66"/>
@@ -7004,15 +7350,15 @@
       <c r="L33" s="52"/>
       <c r="M33" s="53"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="125"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="111"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="8"/>
       <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="53"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="100"/>
+      <c r="W33" s="108"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="8"/>
@@ -7027,13 +7373,20 @@
       <c r="AI33" s="52"/>
       <c r="AJ33" s="52"/>
       <c r="AK33" s="53"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="53"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="31"/>
       <c r="C34" s="48"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="132"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="143"/>
       <c r="G34" s="66"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -7042,15 +7395,15 @@
       <c r="L34" s="52"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="125"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="111"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="8"/>
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="53"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="100"/>
+      <c r="W34" s="108"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="8"/>
@@ -7065,13 +7418,20 @@
       <c r="AI34" s="52"/>
       <c r="AJ34" s="52"/>
       <c r="AK34" s="53"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="52"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="53"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="31"/>
       <c r="C35" s="48"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="132"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="143"/>
       <c r="G35" s="66"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7080,15 +7440,15 @@
       <c r="L35" s="52"/>
       <c r="M35" s="53"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="125"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="111"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="8"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="53"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="100"/>
+      <c r="W35" s="108"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="8"/>
@@ -7103,13 +7463,20 @@
       <c r="AI35" s="52"/>
       <c r="AJ35" s="52"/>
       <c r="AK35" s="53"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="53"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="31"/>
       <c r="C36" s="48"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="132"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="66"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -7118,15 +7485,15 @@
       <c r="L36" s="52"/>
       <c r="M36" s="53"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="125"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="111"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="8"/>
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="53"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="100"/>
+      <c r="W36" s="108"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="8"/>
@@ -7141,13 +7508,20 @@
       <c r="AI36" s="52"/>
       <c r="AJ36" s="52"/>
       <c r="AK36" s="53"/>
-    </row>
-    <row r="37" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="53"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="49"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="133"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="144"/>
       <c r="G37" s="67"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
@@ -7156,15 +7530,15 @@
       <c r="L37" s="63"/>
       <c r="M37" s="64"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="126"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="112"/>
       <c r="Q37" s="61"/>
       <c r="R37" s="62"/>
       <c r="S37" s="63"/>
       <c r="T37" s="63"/>
       <c r="U37" s="64"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="101"/>
+      <c r="W37" s="109"/>
       <c r="X37" s="61"/>
       <c r="Y37" s="61"/>
       <c r="Z37" s="62"/>
@@ -7179,8 +7553,15 @@
       <c r="AI37" s="63"/>
       <c r="AJ37" s="63"/>
       <c r="AK37" s="64"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="62"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="64"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -7203,11 +7584,23 @@
       <c r="U38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="W11:W37"/>
+    <mergeCell ref="E5:E8"/>
     <mergeCell ref="AE10:AK10"/>
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="F33:F37"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
@@ -7216,17 +7609,6 @@
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AE20:AJ20"/>
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="W11:W37"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7240,7 +7622,7 @@
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,35 +7683,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111"/>
+      <c r="C3" s="123"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7337,10 +7719,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120"/>
+      <c r="C10" s="129"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -7384,10 +7766,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="135"/>
+      <c r="C15" s="100"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -7615,11 +7997,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="E3" s="106" t="s">
+      <c r="C3" s="123"/>
+      <c r="E3" s="118" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="34" t="s">
@@ -7646,9 +8028,9 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="88">
         <v>43587</v>
       </c>
@@ -7673,15 +8055,15 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="E5" s="151" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="E5" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="149"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7690,11 +8072,11 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="146"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7703,15 +8085,15 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="E7" s="153" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="E7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="148"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -7720,11 +8102,11 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
@@ -7737,10 +8119,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120"/>
+      <c r="C10" s="129"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -7841,10 +8223,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="135"/>
+      <c r="C15" s="100"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill Li\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA87B1-8E7E-4232-8DEA-32C7470C139B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159E2B3-3628-4A02-A254-3B6233DCD989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6143333D-C90C-4E83-8A8F-03E6D88CE1AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
   <si>
     <t>Monday</t>
   </si>
@@ -145,22 +145,19 @@
     <t>8 pts, 2/4</t>
   </si>
   <si>
-    <t>Applying for Jobs</t>
-  </si>
-  <si>
-    <t>Studying MERN stack</t>
-  </si>
-  <si>
     <t>4 pts, 1/4</t>
   </si>
   <si>
     <t>136 - 12/5/2019</t>
   </si>
   <si>
-    <t>137 - 05/5/2019</t>
+    <t>13 pts, 3/4</t>
   </si>
   <si>
-    <t>13 pts, 3/4</t>
+    <t>137 - 19/5/2019</t>
+  </si>
+  <si>
+    <t>138 - 26/5/2019</t>
   </si>
 </sst>
 </file>
@@ -357,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1077,24 +1074,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1308,6 +1294,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1356,15 +1351,6 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,15 +1387,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,15 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1684,7 +1652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF0E1D07-1212-4C11-8593-25AC8030FB3F}" type="CELLRANGE">
+                    <a:fld id="{3B480910-0C99-4A40-AC0F-3B57205B0DF9}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1718,7 +1686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F533EC0E-98E8-4CC5-AA46-648B9B2BA159}" type="CELLRANGE">
+                    <a:fld id="{75052622-A7A5-4304-8BFC-8F28E63B2701}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1752,7 +1720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B97AD5DA-AB02-4053-9C83-015531FAF8BE}" type="CELLRANGE">
+                    <a:fld id="{8109077B-9EE1-4C9F-89D2-DF3740D050E8}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1786,7 +1754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EACDD9F6-901F-4F2C-B3FB-61AA186923D2}" type="CELLRANGE">
+                    <a:fld id="{999BFA97-7BDB-4CF9-AA03-26D43B0B4C18}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1820,7 +1788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68F45A17-8572-4EF5-B94F-E8DBB24719E7}" type="CELLRANGE">
+                    <a:fld id="{314563BE-529A-4CDA-8E50-149931A417A1}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1854,7 +1822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9CD2E4B-827D-46E0-9379-6520AF6111EC}" type="CELLRANGE">
+                    <a:fld id="{3C15230B-DFA7-46F2-968A-818E87146533}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2702,7 +2670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E18F81C-E9B6-43F1-A850-B3AC378913DB}" type="CELLRANGE">
+                    <a:fld id="{CAE3E37D-A981-4097-B510-EE283F50E35C}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2736,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7E806AF-C0D3-4E59-8C95-7AA5E8AC2CA6}" type="CELLRANGE">
+                    <a:fld id="{183FBE03-740F-4A71-ABF7-84C2DEA2D822}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2770,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{495F998E-6F58-4932-8E3D-9E02AC8811BD}" type="CELLRANGE">
+                    <a:fld id="{5CD5BEF0-0507-4096-8AF8-6CBE8E1E9BC5}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2804,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABD758E6-EF51-4FED-81AA-A7D2B16C5354}" type="CELLRANGE">
+                    <a:fld id="{6C51EF89-999E-4C24-AB42-C8773F5CDBB3}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2838,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C288A430-1A62-42E2-93AF-C22D6294603F}" type="CELLRANGE">
+                    <a:fld id="{FD056B8B-9DFA-4E76-AAF4-915C66AD0335}" type="CELLRANGE">
                       <a:rPr lang="en-NZ"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4970,10 +4938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7A6F-ADB0-475A-9B6E-FF8D8C6B3628}">
-  <dimension ref="A2:AS38"/>
+  <dimension ref="A2:AS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,14 +4952,14 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" customWidth="1"/>
     <col min="20" max="20" width="8.42578125" customWidth="1"/>
@@ -5271,7 +5239,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="124"/>
       <c r="C5" s="125"/>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="132" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -5306,10 +5274,10 @@
         <v>6</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="134" t="s">
+      <c r="P5" s="131" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="4">
@@ -5333,7 +5301,7 @@
         <v>11</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="133" t="s">
+      <c r="W5" s="130" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="4">
@@ -5422,7 +5390,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="124"/>
       <c r="C6" s="125"/>
-      <c r="E6" s="136"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
@@ -5455,8 +5423,8 @@
         <v>2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="114"/>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="9">COUNT(Q26:Q32)</f>
         <v>2</v>
@@ -5478,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="108"/>
+      <c r="W6" s="111"/>
       <c r="X6" s="5">
         <f t="shared" ref="X6:AC6" si="10">COUNT(X26:X32)</f>
         <v>2</v>
@@ -5565,7 +5533,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
-      <c r="E7" s="136"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
@@ -5598,8 +5566,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="114"/>
       <c r="Q7" s="6">
         <f t="shared" ref="Q7:U7" si="16">COUNT(Q33:Q37)</f>
         <v>0</v>
@@ -5621,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="108"/>
+      <c r="W7" s="111"/>
       <c r="X7" s="6">
         <f t="shared" ref="X7:AC7" si="17">COUNT(X33:X37)</f>
         <v>0</v>
@@ -5708,7 +5676,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="126"/>
       <c r="C8" s="127"/>
-      <c r="E8" s="137"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="42" t="s">
         <v>14</v>
       </c>
@@ -5741,8 +5709,8 @@
         <v>8</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="115"/>
       <c r="Q8" s="24">
         <f t="shared" ref="Q8" si="22">SUM(Q5:Q7)</f>
         <v>17</v>
@@ -5764,7 +5732,7 @@
         <v>11</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="109"/>
+      <c r="W8" s="112"/>
       <c r="X8" s="24">
         <f t="shared" ref="X8:Y8" si="24">SUM(X5:X7)</f>
         <v>2</v>
@@ -5891,56 +5859,56 @@
         <v>19</v>
       </c>
       <c r="C10" s="129"/>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="132"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="104" t="s">
+      <c r="O10" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="106"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="109"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="104" t="s">
+      <c r="W10" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="106"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="130" t="s">
+      <c r="AE10" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="132"/>
-      <c r="AM10" s="130" t="s">
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="101"/>
+      <c r="AM10" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="131"/>
-      <c r="AO10" s="131"/>
-      <c r="AP10" s="131"/>
-      <c r="AQ10" s="131"/>
-      <c r="AR10" s="131"/>
-      <c r="AS10" s="132"/>
+      <c r="AN10" s="100"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="100"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="100"/>
+      <c r="AS10" s="101"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -5951,10 +5919,10 @@
         <f>SUM(G5:AC5)</f>
         <v>124</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="135" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="37">
@@ -5979,10 +5947,10 @@
         <v>104</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="107" t="s">
+      <c r="O11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="110" t="s">
+      <c r="P11" s="113" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="73">
@@ -6001,7 +5969,7 @@
         <v>155</v>
       </c>
       <c r="V11" s="3"/>
-      <c r="W11" s="107" t="s">
+      <c r="W11" s="110" t="s">
         <v>24</v>
       </c>
       <c r="X11" s="95"/>
@@ -6049,7 +6017,7 @@
       <c r="AQ11" s="73">
         <v>1046</v>
       </c>
-      <c r="AR11" s="73"/>
+      <c r="AR11" s="52"/>
       <c r="AS11" s="53"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -6061,8 +6029,8 @@
         <f>SUM(G6:AC6)</f>
         <v>25</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="139"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="36">
         <v>1021</v>
       </c>
@@ -6085,8 +6053,8 @@
         <v>136</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="114"/>
       <c r="Q12" s="38">
         <v>88</v>
       </c>
@@ -6103,7 +6071,7 @@
         <v>189</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="108"/>
+      <c r="W12" s="111"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="92">
         <v>2</v>
@@ -6151,8 +6119,8 @@
         <f>SUM(G7:AC7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="139"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="36">
         <v>709</v>
       </c>
@@ -6175,8 +6143,8 @@
         <v>412</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="114"/>
       <c r="Q13" s="38">
         <v>500</v>
       </c>
@@ -6193,7 +6161,7 @@
         <v>202</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="108"/>
+      <c r="W13" s="111"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="92">
         <v>3</v>
@@ -6235,8 +6203,8 @@
         <f>SUM(G8:AC8)</f>
         <v>149</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="139"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="36">
         <v>804</v>
       </c>
@@ -6257,8 +6225,8 @@
         <v>942</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="114"/>
       <c r="Q14" s="38">
         <v>806</v>
       </c>
@@ -6275,7 +6243,7 @@
         <v>235</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="108"/>
+      <c r="W14" s="111"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="92">
         <v>4</v>
@@ -6306,12 +6274,12 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="139"/>
+      <c r="C15" s="103"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="36">
         <v>929</v>
       </c>
@@ -6332,8 +6300,8 @@
         <v>206</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="114"/>
       <c r="Q15" s="38">
         <v>872</v>
       </c>
@@ -6350,7 +6318,7 @@
         <v>496</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="108"/>
+      <c r="W15" s="111"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="92">
         <v>5</v>
@@ -6385,8 +6353,8 @@
       <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="139"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="36">
         <v>905</v>
       </c>
@@ -6407,8 +6375,8 @@
         <v>237</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="114"/>
       <c r="Q16" s="38">
         <v>682</v>
       </c>
@@ -6425,7 +6393,7 @@
         <v>559</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="108"/>
+      <c r="W16" s="111"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="92">
         <v>6</v>
@@ -6458,8 +6426,8 @@
       <c r="C17" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="139"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="36">
         <v>977</v>
       </c>
@@ -6472,8 +6440,8 @@
       <c r="L17" s="52"/>
       <c r="M17" s="53"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="114"/>
       <c r="Q17" s="38">
         <v>637</v>
       </c>
@@ -6490,7 +6458,7 @@
         <v>590</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="108"/>
+      <c r="W17" s="111"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="92">
         <v>7</v>
@@ -6523,8 +6491,8 @@
       <c r="C18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="139"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="36">
         <v>832</v>
       </c>
@@ -6537,8 +6505,8 @@
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="114"/>
       <c r="Q18" s="38">
         <v>937</v>
       </c>
@@ -6553,9 +6521,9 @@
         <v>700</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="108"/>
+      <c r="W18" s="111"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="113" t="s">
+      <c r="Y18" s="116" t="s">
         <v>33</v>
       </c>
       <c r="Z18" s="8"/>
@@ -6586,8 +6554,8 @@
       <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="139"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="136"/>
       <c r="G19" s="36">
         <v>657</v>
       </c>
@@ -6600,8 +6568,8 @@
       <c r="L19" s="52"/>
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="114"/>
       <c r="Q19" s="38">
         <v>226</v>
       </c>
@@ -6616,9 +6584,9 @@
         <v>701</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="108"/>
+      <c r="W19" s="111"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="114"/>
+      <c r="Y19" s="117"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
@@ -6642,13 +6610,13 @@
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="139"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="36">
         <v>461</v>
       </c>
@@ -6661,8 +6629,8 @@
       <c r="L20" s="52"/>
       <c r="M20" s="53"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="114"/>
       <c r="Q20" s="38">
         <v>693</v>
       </c>
@@ -6675,24 +6643,20 @@
         <v>21</v>
       </c>
       <c r="V20" s="3"/>
-      <c r="W20" s="108"/>
+      <c r="W20" s="111"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="93"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="117"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="145" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="147"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
       <c r="AK20" s="53"/>
       <c r="AM20" s="51"/>
       <c r="AN20" s="9"/>
@@ -6705,13 +6669,13 @@
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="139"/>
+        <v>38</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="136"/>
       <c r="G21" s="36">
         <v>961</v>
       </c>
@@ -6722,8 +6686,8 @@
       <c r="L21" s="52"/>
       <c r="M21" s="53"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="114"/>
       <c r="Q21" s="38">
         <v>888</v>
       </c>
@@ -6736,7 +6700,7 @@
         <v>26</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="108"/>
+      <c r="W21" s="111"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="93"/>
       <c r="Z21" s="8"/>
@@ -6761,10 +6725,12 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="48"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="139"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="36">
         <v>617</v>
       </c>
@@ -6775,8 +6741,8 @@
       <c r="L22" s="52"/>
       <c r="M22" s="53"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="114"/>
       <c r="Q22" s="38">
         <v>896</v>
       </c>
@@ -6787,7 +6753,7 @@
       </c>
       <c r="U22" s="76"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="108"/>
+      <c r="W22" s="111"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="93"/>
       <c r="Z22" s="8"/>
@@ -6814,8 +6780,8 @@
       <c r="A23" s="3"/>
       <c r="B23" s="31"/>
       <c r="C23" s="48"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="139"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="136"/>
       <c r="G23" s="36">
         <v>728</v>
       </c>
@@ -6826,8 +6792,8 @@
       <c r="L23" s="52"/>
       <c r="M23" s="53"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="114"/>
       <c r="Q23" s="38">
         <v>606</v>
       </c>
@@ -6838,7 +6804,7 @@
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="108"/>
+      <c r="W23" s="111"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="93"/>
       <c r="Z23" s="8"/>
@@ -6865,8 +6831,8 @@
       <c r="A24" s="3"/>
       <c r="B24" s="31"/>
       <c r="C24" s="48"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="139"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="36">
         <v>852</v>
       </c>
@@ -6877,8 +6843,8 @@
       <c r="L24" s="52"/>
       <c r="M24" s="53"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="114"/>
       <c r="Q24" s="38">
         <v>520</v>
       </c>
@@ -6887,7 +6853,7 @@
       <c r="T24" s="52"/>
       <c r="U24" s="77"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="108"/>
+      <c r="W24" s="111"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="93"/>
       <c r="Z24" s="8"/>
@@ -6914,8 +6880,8 @@
       <c r="A25" s="3"/>
       <c r="B25" s="31"/>
       <c r="C25" s="48"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="139"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="136"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -6924,8 +6890,8 @@
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="114"/>
       <c r="Q25" s="38">
         <v>993</v>
       </c>
@@ -6934,7 +6900,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="72"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="108"/>
+      <c r="W25" s="111"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="94"/>
       <c r="Z25" s="11"/>
@@ -6961,8 +6927,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="31"/>
       <c r="C26" s="48"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="140" t="s">
+      <c r="E26" s="105"/>
+      <c r="F26" s="137" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="66"/>
@@ -6983,8 +6949,8 @@
         <v>921</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="114"/>
       <c r="Q26" s="13">
         <v>791</v>
       </c>
@@ -6999,7 +6965,7 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="108"/>
+      <c r="W26" s="111"/>
       <c r="X26" s="13">
         <v>338</v>
       </c>
@@ -7044,8 +7010,8 @@
       <c r="A27" s="3"/>
       <c r="B27" s="31"/>
       <c r="C27" s="48"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="141"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="66"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -7060,8 +7026,8 @@
         <v>861</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="114"/>
       <c r="Q27" s="13">
         <v>856</v>
       </c>
@@ -7076,11 +7042,11 @@
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="108"/>
+      <c r="W27" s="111"/>
       <c r="X27" s="13">
         <v>877</v>
       </c>
-      <c r="Y27" s="113" t="s">
+      <c r="Y27" s="116" t="s">
         <v>33</v>
       </c>
       <c r="Z27" s="13">
@@ -7111,8 +7077,8 @@
       <c r="A28" s="3"/>
       <c r="B28" s="31"/>
       <c r="C28" s="48"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="141"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="66"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -7121,8 +7087,8 @@
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="114"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="13">
         <v>535</v>
@@ -7131,9 +7097,9 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="108"/>
+      <c r="W28" s="111"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="114"/>
+      <c r="Y28" s="117"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
@@ -7158,8 +7124,8 @@
       <c r="A29" s="3"/>
       <c r="B29" s="31"/>
       <c r="C29" s="48"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="141"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="66"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -7168,15 +7134,15 @@
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="114"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="8"/>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="53"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="108"/>
+      <c r="W29" s="111"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="8"/>
@@ -7203,8 +7169,8 @@
       <c r="A30" s="3"/>
       <c r="B30" s="31"/>
       <c r="C30" s="48"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="141"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="66"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -7213,15 +7179,15 @@
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="114"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="8"/>
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="108"/>
+      <c r="W30" s="111"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="8"/>
@@ -7248,8 +7214,8 @@
       <c r="A31" s="3"/>
       <c r="B31" s="31"/>
       <c r="C31" s="48"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="141"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="138"/>
       <c r="G31" s="66"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -7258,15 +7224,15 @@
       <c r="L31" s="52"/>
       <c r="M31" s="53"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="114"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="8"/>
       <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="53"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="108"/>
+      <c r="W31" s="111"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="8"/>
@@ -7293,8 +7259,8 @@
       <c r="A32" s="3"/>
       <c r="B32" s="31"/>
       <c r="C32" s="48"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="142"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="65"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -7303,15 +7269,15 @@
       <c r="L32" s="55"/>
       <c r="M32" s="56"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="56"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="108"/>
+      <c r="W32" s="111"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="11"/>
@@ -7338,8 +7304,8 @@
       <c r="A33" s="3"/>
       <c r="B33" s="31"/>
       <c r="C33" s="48"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="143" t="s">
+      <c r="E33" s="105"/>
+      <c r="F33" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="66"/>
@@ -7350,15 +7316,15 @@
       <c r="L33" s="52"/>
       <c r="M33" s="53"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="114"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="8"/>
       <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="53"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="108"/>
+      <c r="W33" s="111"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="8"/>
@@ -7385,8 +7351,8 @@
       <c r="A34" s="3"/>
       <c r="B34" s="31"/>
       <c r="C34" s="48"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="143"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="140"/>
       <c r="G34" s="66"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -7395,15 +7361,15 @@
       <c r="L34" s="52"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="114"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="8"/>
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="53"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="108"/>
+      <c r="W34" s="111"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="8"/>
@@ -7430,8 +7396,8 @@
       <c r="A35" s="3"/>
       <c r="B35" s="31"/>
       <c r="C35" s="48"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="143"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="140"/>
       <c r="G35" s="66"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7440,15 +7406,15 @@
       <c r="L35" s="52"/>
       <c r="M35" s="53"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="114"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="8"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="53"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="108"/>
+      <c r="W35" s="111"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="8"/>
@@ -7475,8 +7441,8 @@
       <c r="A36" s="3"/>
       <c r="B36" s="31"/>
       <c r="C36" s="48"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="143"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="140"/>
       <c r="G36" s="66"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -7485,15 +7451,15 @@
       <c r="L36" s="52"/>
       <c r="M36" s="53"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="114"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="8"/>
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="53"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="108"/>
+      <c r="W36" s="111"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="8"/>
@@ -7520,8 +7486,8 @@
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="49"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="144"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="67"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
@@ -7530,15 +7496,15 @@
       <c r="L37" s="63"/>
       <c r="M37" s="64"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="115"/>
       <c r="Q37" s="61"/>
       <c r="R37" s="62"/>
       <c r="S37" s="63"/>
       <c r="T37" s="63"/>
       <c r="U37" s="64"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="109"/>
+      <c r="W37" s="112"/>
       <c r="X37" s="61"/>
       <c r="Y37" s="61"/>
       <c r="Z37" s="62"/>
@@ -7561,7 +7527,7 @@
       <c r="AR37" s="63"/>
       <c r="AS37" s="64"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -7583,6 +7549,787 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G39" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G40" s="14">
+        <v>43607</v>
+      </c>
+      <c r="H40" s="1">
+        <v>43608</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43609</v>
+      </c>
+      <c r="J40" s="1">
+        <v>43610</v>
+      </c>
+      <c r="K40" s="1">
+        <v>43611</v>
+      </c>
+      <c r="L40" s="1">
+        <v>43612</v>
+      </c>
+      <c r="M40" s="1">
+        <v>43613</v>
+      </c>
+      <c r="O40" s="14">
+        <v>43614</v>
+      </c>
+      <c r="P40" s="14">
+        <v>43615</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>43616</v>
+      </c>
+      <c r="R40" s="14">
+        <v>43617</v>
+      </c>
+      <c r="S40" s="14">
+        <v>43618</v>
+      </c>
+      <c r="T40" s="14">
+        <v>43619</v>
+      </c>
+      <c r="U40" s="14">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G41" s="16">
+        <f t="shared" ref="G41" si="31">COUNT(F47:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" ref="H41" si="32">COUNT(G47:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" ref="I41" si="33">COUNT(H47:H61)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" ref="J41" si="34">COUNT(I47:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" ref="K41" si="35">COUNT(J47:J61)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" ref="L41" si="36">COUNT(K47:K61)</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" ref="M41" si="37">COUNT(L47:L61)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" ref="O41" si="38">COUNT(N47:N61)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" ref="P41" si="39">COUNT(O47:O61)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" ref="Q41" si="40">COUNT(P47:P61)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" ref="R41" si="41">COUNT(Q47:Q61)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" ref="S41" si="42">COUNT(R47:R61)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" ref="T41" si="43">COUNT(S47:S61)</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" ref="U41" si="44">COUNT(T47:T61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G42" s="17">
+        <f t="shared" ref="G42" si="45">COUNT(F62:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42" si="46">COUNT(G62:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" ref="I42" si="47">COUNT(H62:H68)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42" si="48">COUNT(I62:I68)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" ref="K42" si="49">COUNT(J62:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" ref="L42" si="50">COUNT(K62:K68)</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" ref="M42" si="51">COUNT(L62:L68)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="17">
+        <f t="shared" ref="O42" si="52">COUNT(N62:N68)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" ref="P42" si="53">COUNT(O62:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" ref="Q42" si="54">COUNT(P62:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" ref="R42" si="55">COUNT(Q62:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" ref="S42" si="56">COUNT(R62:R68)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" ref="T42" si="57">COUNT(S62:S68)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" ref="U42" si="58">COUNT(T62:T68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G43" s="18">
+        <f t="shared" ref="G43" si="59">COUNT(F69:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" ref="H43" si="60">COUNT(G69:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" ref="I43" si="61">COUNT(H69:H73)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" ref="J43" si="62">COUNT(I69:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" ref="K43" si="63">COUNT(J69:J73)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" ref="L43" si="64">COUNT(K69:K73)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" ref="M43" si="65">COUNT(L69:L73)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" ref="O43" si="66">COUNT(N69:N73)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" ref="P43" si="67">COUNT(O69:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" ref="Q43" si="68">COUNT(P69:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" ref="R43" si="69">COUNT(Q69:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" ref="S43" si="70">COUNT(R69:R73)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" ref="T43" si="71">COUNT(S69:S73)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <f t="shared" ref="U43" si="72">COUNT(T69:T73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="35">
+        <f>SUM(G41:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" ref="H44:I44" si="73">SUM(H41:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="24">
+        <f>SUM(J41:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="24">
+        <f t="shared" ref="K44:M44" si="74">SUM(K41:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="24">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="35">
+        <f>SUM(O41:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="24">
+        <f t="shared" ref="P44:Q44" si="75">SUM(P41:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="24">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="24">
+        <f>SUM(R41:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="24">
+        <f t="shared" ref="S44:U44" si="76">SUM(S41:S43)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="24">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="24">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="101"/>
+      <c r="O46" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="101"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G47" s="51"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="73">
+        <v>1051</v>
+      </c>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="73">
+        <v>1064</v>
+      </c>
+      <c r="T47" s="52"/>
+      <c r="U47" s="53"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="G48" s="51"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="53"/>
+    </row>
+    <row r="49" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G49" s="51"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="53"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="53"/>
+    </row>
+    <row r="50" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G50" s="51"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="53"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="53"/>
+    </row>
+    <row r="51" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G51" s="51"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="53"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="53"/>
+    </row>
+    <row r="52" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G52" s="51"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="53"/>
+    </row>
+    <row r="53" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G53" s="51"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="53"/>
+    </row>
+    <row r="54" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G54" s="51"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="53"/>
+    </row>
+    <row r="55" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G55" s="51"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="53"/>
+    </row>
+    <row r="56" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G56" s="51"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
+    </row>
+    <row r="57" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G57" s="51"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="53"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="53"/>
+    </row>
+    <row r="58" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G58" s="51"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="53"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="53"/>
+    </row>
+    <row r="59" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G59" s="51"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="53"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="53"/>
+    </row>
+    <row r="60" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G60" s="51"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="53"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="53"/>
+    </row>
+    <row r="61" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G61" s="54"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="56"/>
+    </row>
+    <row r="62" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G62" s="51"/>
+      <c r="H62" s="13">
+        <v>848</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="13">
+        <v>1053</v>
+      </c>
+      <c r="L62" s="58"/>
+      <c r="M62" s="59"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="59"/>
+    </row>
+    <row r="63" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G63" s="51"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="53"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="53"/>
+    </row>
+    <row r="64" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G64" s="51"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="53"/>
+    </row>
+    <row r="65" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G65" s="51"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="53"/>
+    </row>
+    <row r="66" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G66" s="51"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="53"/>
+    </row>
+    <row r="67" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G67" s="51"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="53"/>
+    </row>
+    <row r="68" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G68" s="54"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="56"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="56"/>
+    </row>
+    <row r="69" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G69" s="51"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="53"/>
+    </row>
+    <row r="70" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G70" s="51"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="53"/>
+    </row>
+    <row r="71" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G71" s="51"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="53"/>
+    </row>
+    <row r="72" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G72" s="51"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="53"/>
+    </row>
+    <row r="73" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="60"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
+      <c r="U73" s="64"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="AM10:AS10"/>
@@ -7593,7 +8340,6 @@
     <mergeCell ref="F11:F25"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="F33:F37"/>
-    <mergeCell ref="AE20:AJ20"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="B3:C8"/>
     <mergeCell ref="O10:U10"/>
@@ -7601,6 +8347,8 @@
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="P5:P8"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="O46:U46"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E11:E37"/>
     <mergeCell ref="W10:AC10"/>
@@ -7608,7 +8356,6 @@
     <mergeCell ref="P11:P37"/>
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="AA20:AC20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7766,10 +8513,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="103"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -8057,13 +8804,13 @@
       <c r="A5" s="3"/>
       <c r="B5" s="124"/>
       <c r="C5" s="125"/>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="149"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -8074,9 +8821,9 @@
       <c r="A6" s="3"/>
       <c r="B6" s="124"/>
       <c r="C6" s="125"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -8087,13 +8834,13 @@
       <c r="A7" s="3"/>
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="151"/>
+      <c r="G7" s="145"/>
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -8104,9 +8851,9 @@
       <c r="A8" s="3"/>
       <c r="B8" s="126"/>
       <c r="C8" s="127"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
@@ -8223,10 +8970,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="103"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
